--- a/8h_input_jpg/8h_simulation_results.xlsx
+++ b/8h_input_jpg/8h_simulation_results.xlsx
@@ -482,25 +482,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.315756153002192</v>
+        <v>5.407044792040459</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04800337416008091</v>
+        <v>0.1204036215662772</v>
       </c>
       <c r="D2" t="n">
-        <v>1.944362781034022</v>
+        <v>1.944525856934062</v>
       </c>
       <c r="E2" t="n">
-        <v>18.92508294329236</v>
+        <v>18.89101697947623</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1780581255633543</v>
+        <v>0.171909439466631</v>
       </c>
       <c r="G2" t="n">
-        <v>6107.458136515911</v>
+        <v>6108.702501821621</v>
       </c>
       <c r="H2" t="n">
-        <v>3.06961318157378</v>
+        <v>0.984039691664173</v>
       </c>
     </row>
     <row r="3">
@@ -510,25 +510,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.318974053707964</v>
+        <v>5.814293834046497</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04801992440110009</v>
+        <v>0.1139783647506638</v>
       </c>
       <c r="D3" t="n">
-        <v>1.94827984784434</v>
+        <v>1.946253743265202</v>
       </c>
       <c r="E3" t="n">
-        <v>18.91554343543235</v>
+        <v>17.45504801232767</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1778836977135291</v>
+        <v>0.1777857776842882</v>
       </c>
       <c r="G3" t="n">
-        <v>6105.124863621958</v>
+        <v>6057.225258664715</v>
       </c>
       <c r="H3" t="n">
-        <v>3.12787761882363</v>
+        <v>1.6224596903312</v>
       </c>
     </row>
     <row r="4">
@@ -538,25 +538,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.316214154115197</v>
+        <v>5.313196561590378</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04785404868413532</v>
+        <v>0.09167237992906867</v>
       </c>
       <c r="D4" t="n">
-        <v>1.953152735816029</v>
+        <v>1.956510869786917</v>
       </c>
       <c r="E4" t="n">
-        <v>18.91547244739996</v>
+        <v>17.12132770210765</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1779333861438319</v>
+        <v>0.1806247981643951</v>
       </c>
       <c r="G4" t="n">
-        <v>6105.387910350913</v>
+        <v>6046.071952382278</v>
       </c>
       <c r="H4" t="n">
-        <v>3.25623672548199</v>
+        <v>2.71989913114774</v>
       </c>
     </row>
     <row r="5">
@@ -566,25 +566,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.322151789859803</v>
+        <v>6.337364691755611</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04820567651414265</v>
+        <v>0.2003398522941159</v>
       </c>
       <c r="D5" t="n">
-        <v>1.951258777772816</v>
+        <v>1.957047026932612</v>
       </c>
       <c r="E5" t="n">
-        <v>18.92101486732804</v>
+        <v>18.01589550587594</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1779253448471261</v>
+        <v>0.1742687571310768</v>
       </c>
       <c r="G5" t="n">
-        <v>6107.085395633308</v>
+        <v>6080.726245436403</v>
       </c>
       <c r="H5" t="n">
-        <v>3.01661550827609</v>
+        <v>0.611933127853851</v>
       </c>
     </row>
     <row r="6">
@@ -594,25 +594,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.319967148627752</v>
+        <v>5.918977926143667</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04799640703769677</v>
+        <v>0.1187299758903678</v>
       </c>
       <c r="D6" t="n">
-        <v>1.960587701184411</v>
+        <v>1.978444747720302</v>
       </c>
       <c r="E6" t="n">
-        <v>18.92237480465165</v>
+        <v>17.59707694580017</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1780064213119109</v>
+        <v>0.1787020101883984</v>
       </c>
       <c r="G6" t="n">
-        <v>6108.099218259777</v>
+        <v>6068.800752707942</v>
       </c>
       <c r="H6" t="n">
-        <v>3.14850320979527</v>
+        <v>1.4694304041152</v>
       </c>
     </row>
     <row r="7">
@@ -622,25 +622,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.318803025006717</v>
+        <v>5.754655755448254</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04799357325594309</v>
+        <v>0.1359593437031462</v>
       </c>
       <c r="D7" t="n">
-        <v>1.966032617957051</v>
+        <v>1.998898834986064</v>
       </c>
       <c r="E7" t="n">
-        <v>18.93272463110372</v>
+        <v>18.68414053274427</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1781031429693142</v>
+        <v>0.1732432690435874</v>
       </c>
       <c r="G7" t="n">
-        <v>6111.638861991857</v>
+        <v>6113.366149551658</v>
       </c>
       <c r="H7" t="n">
-        <v>3.11930799195648</v>
+        <v>0.869294699048309</v>
       </c>
     </row>
     <row r="8">
@@ -650,25 +650,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.319963208324481</v>
+        <v>5.978584254512008</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04806748243827754</v>
+        <v>0.1355408893904891</v>
       </c>
       <c r="D8" t="n">
-        <v>1.954185365563931</v>
+        <v>1.963914459092275</v>
       </c>
       <c r="E8" t="n">
-        <v>18.92186075891484</v>
+        <v>17.93095049939524</v>
       </c>
       <c r="F8" t="n">
-        <v>0.177953880927825</v>
+        <v>0.1759686300663859</v>
       </c>
       <c r="G8" t="n">
-        <v>6107.501328181056</v>
+        <v>6078.475327607558</v>
       </c>
       <c r="H8" t="n">
-        <v>3.09234519463037</v>
+        <v>1.07190216029425</v>
       </c>
     </row>
     <row r="9">
@@ -678,25 +678,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.319164229040788</v>
+        <v>5.726613576074338</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04790444328647307</v>
+        <v>0.105946977677305</v>
       </c>
       <c r="D9" t="n">
-        <v>1.971182811168206</v>
+        <v>2.006823163984242</v>
       </c>
       <c r="E9" t="n">
-        <v>18.92813444703306</v>
+        <v>17.69902985716009</v>
       </c>
       <c r="F9" t="n">
-        <v>0.178080002579795</v>
+        <v>0.1785759866130988</v>
       </c>
       <c r="G9" t="n">
-        <v>6110.442913833147</v>
+        <v>6077.223665583898</v>
       </c>
       <c r="H9" t="n">
-        <v>3.212241496504</v>
+        <v>1.75317946458329</v>
       </c>
     </row>
     <row r="10">
@@ -706,25 +706,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.317062654357507</v>
+        <v>5.474638044985783</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04789362923338897</v>
+        <v>0.09431601153454564</v>
       </c>
       <c r="D10" t="n">
-        <v>1.949221437945219</v>
+        <v>1.945643008017082</v>
       </c>
       <c r="E10" t="n">
-        <v>18.91222900884755</v>
+        <v>16.95279048746674</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1778733088017816</v>
+        <v>0.1803684545505188</v>
       </c>
       <c r="G10" t="n">
-        <v>6104.149787323275</v>
+        <v>6037.929515080032</v>
       </c>
       <c r="H10" t="n">
-        <v>3.22466775385201</v>
+        <v>2.54418999447994</v>
       </c>
     </row>
     <row r="11">
@@ -734,25 +734,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.318516488249202</v>
+        <v>5.694436393351418</v>
       </c>
       <c r="C11" t="n">
-        <v>0.04794905353382902</v>
+        <v>0.1063633881449968</v>
       </c>
       <c r="D11" t="n">
-        <v>1.957742791943232</v>
+        <v>1.970832921774194</v>
       </c>
       <c r="E11" t="n">
-        <v>18.92093711635992</v>
+        <v>17.57216967006879</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1779417441917592</v>
+        <v>0.1771721541841835</v>
       </c>
       <c r="G11" t="n">
-        <v>6107.40429394605</v>
+        <v>6065.603932640902</v>
       </c>
       <c r="H11" t="n">
-        <v>3.17731153383427</v>
+        <v>1.77990202782837</v>
       </c>
     </row>
     <row r="12">
@@ -762,25 +762,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4.317781969276377</v>
+        <v>5.503374142968038</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04786295987647</v>
+        <v>0.1031863222873635</v>
       </c>
       <c r="D12" t="n">
-        <v>1.975435201036435</v>
+        <v>2.022497059714707</v>
       </c>
       <c r="E12" t="n">
-        <v>18.93519233147074</v>
+        <v>18.43000375808718</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1781434027450222</v>
+        <v>0.1762001247559693</v>
       </c>
       <c r="G12" t="n">
-        <v>6112.902041540466</v>
+        <v>6107.97007590787</v>
       </c>
       <c r="H12" t="n">
-        <v>3.21029537358886</v>
+        <v>1.49247432972978</v>
       </c>
     </row>
     <row r="13">
@@ -790,25 +790,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.316548577177773</v>
+        <v>5.363033280989965</v>
       </c>
       <c r="C13" t="n">
-        <v>0.04786043628983348</v>
+        <v>0.09510345461581755</v>
       </c>
       <c r="D13" t="n">
-        <v>1.962036288831225</v>
+        <v>1.983255980505263</v>
       </c>
       <c r="E13" t="n">
-        <v>18.92458593838681</v>
+        <v>17.78308889979431</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1780910475966633</v>
+        <v>0.1808537569411756</v>
       </c>
       <c r="G13" t="n">
-        <v>6108.80575153188</v>
+        <v>6076.484321195104</v>
       </c>
       <c r="H13" t="n">
-        <v>3.23578779780429</v>
+        <v>2.13838779718097</v>
       </c>
     </row>
     <row r="14">
@@ -818,25 +818,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.322082573708779</v>
+        <v>6.315888648306258</v>
       </c>
       <c r="C14" t="n">
-        <v>0.04822084997760868</v>
+        <v>0.2355142051541988</v>
       </c>
       <c r="D14" t="n">
-        <v>1.952704247101805</v>
+        <v>1.962798313654411</v>
       </c>
       <c r="E14" t="n">
-        <v>18.92451009722102</v>
+        <v>18.39217194881445</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1779398668672505</v>
+        <v>0.1712490305272543</v>
       </c>
       <c r="G14" t="n">
-        <v>6108.227000426791</v>
+        <v>6095.428226534142</v>
       </c>
       <c r="H14" t="n">
-        <v>2.99381518854274</v>
+        <v>0.458589360918524</v>
       </c>
     </row>
     <row r="15">
@@ -846,25 +846,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4.321179384558519</v>
+        <v>6.088606816511748</v>
       </c>
       <c r="C15" t="n">
-        <v>0.04799914065945721</v>
+        <v>0.130045432783202</v>
       </c>
       <c r="D15" t="n">
-        <v>1.971455865559567</v>
+        <v>2.008004297604299</v>
       </c>
       <c r="E15" t="n">
-        <v>18.92865800931633</v>
+        <v>17.77319089145255</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1780446476696186</v>
+        <v>0.1762687777028721</v>
       </c>
       <c r="G15" t="n">
-        <v>6110.672131833083</v>
+        <v>6080.420226408005</v>
       </c>
       <c r="H15" t="n">
-        <v>3.1497284730668</v>
+        <v>1.1789496031978</v>
       </c>
     </row>
     <row r="16">
@@ -874,25 +874,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4.317531314667332</v>
+        <v>5.289026380394175</v>
       </c>
       <c r="C16" t="n">
-        <v>0.04773627889401381</v>
+        <v>0.08405452153922936</v>
       </c>
       <c r="D16" t="n">
-        <v>1.98289657083023</v>
+        <v>2.036938260229546</v>
       </c>
       <c r="E16" t="n">
-        <v>18.9317676359766</v>
+        <v>17.4045089654726</v>
       </c>
       <c r="F16" t="n">
-        <v>0.178259080162618</v>
+        <v>0.1845284870343309</v>
       </c>
       <c r="G16" t="n">
-        <v>6112.021490639794</v>
+        <v>6071.173962134479</v>
       </c>
       <c r="H16" t="n">
-        <v>3.3326939263145</v>
+        <v>2.86493967316512</v>
       </c>
     </row>
     <row r="17">
@@ -902,25 +902,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4.320784751177024</v>
+        <v>6.034658797756872</v>
       </c>
       <c r="C17" t="n">
-        <v>0.04807801471774326</v>
+        <v>0.1801975778794051</v>
       </c>
       <c r="D17" t="n">
-        <v>1.964151699411352</v>
+        <v>1.994035537058331</v>
       </c>
       <c r="E17" t="n">
-        <v>18.93175340758661</v>
+        <v>18.67936575290716</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1781143801396298</v>
+        <v>0.1735859189064875</v>
       </c>
       <c r="G17" t="n">
-        <v>6111.286966707645</v>
+        <v>6112.935036652612</v>
       </c>
       <c r="H17" t="n">
-        <v>3.04851201984684</v>
+        <v>0.563675259165182</v>
       </c>
     </row>
     <row r="18">
@@ -930,25 +930,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4.319183384072924</v>
+        <v>5.719548841632729</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0479046768917684</v>
+        <v>0.1054060356568332</v>
       </c>
       <c r="D18" t="n">
-        <v>1.970684995168255</v>
+        <v>2.006730918310813</v>
       </c>
       <c r="E18" t="n">
-        <v>18.92927774288604</v>
+        <v>17.89716872906583</v>
       </c>
       <c r="F18" t="n">
-        <v>0.178122339373003</v>
+        <v>0.1794706488788376</v>
       </c>
       <c r="G18" t="n">
-        <v>6110.819674544779</v>
+        <v>6085.310392335949</v>
       </c>
       <c r="H18" t="n">
-        <v>3.18599201370015</v>
+        <v>1.58743579953756</v>
       </c>
     </row>
     <row r="19">
@@ -958,25 +958,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4.31722997429292</v>
+        <v>5.502889311065672</v>
       </c>
       <c r="C19" t="n">
-        <v>0.04790781859087274</v>
+        <v>0.09972969395054947</v>
       </c>
       <c r="D19" t="n">
-        <v>1.957821175925319</v>
+        <v>1.972857547953849</v>
       </c>
       <c r="E19" t="n">
-        <v>18.92329889949672</v>
+        <v>17.87669436835535</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1780231523362322</v>
+        <v>0.1789083269251045</v>
       </c>
       <c r="G19" t="n">
-        <v>6108.1336972845</v>
+        <v>6077.818214437621</v>
       </c>
       <c r="H19" t="n">
-        <v>3.18337879904571</v>
+        <v>1.78974430210585</v>
       </c>
     </row>
     <row r="20">
@@ -986,25 +986,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4.320160347130056</v>
+        <v>6.00071225434</v>
       </c>
       <c r="C20" t="n">
-        <v>0.04807740969841409</v>
+        <v>0.118703823394123</v>
       </c>
       <c r="D20" t="n">
-        <v>1.943270333382846</v>
+        <v>1.932583642494557</v>
       </c>
       <c r="E20" t="n">
-        <v>18.91123515855879</v>
+        <v>17.22058279930634</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1778676369575009</v>
+        <v>0.1798341389619827</v>
       </c>
       <c r="G20" t="n">
-        <v>6103.509098303127</v>
+        <v>6046.756854541331</v>
       </c>
       <c r="H20" t="n">
-        <v>3.0861470394636</v>
+        <v>1.48080290651705</v>
       </c>
     </row>
     <row r="21">
@@ -1014,25 +1014,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4.319939742518692</v>
+        <v>5.684180683012515</v>
       </c>
       <c r="C21" t="n">
-        <v>0.04778660884441802</v>
+        <v>0.0969445879960818</v>
       </c>
       <c r="D21" t="n">
-        <v>2.001562194748983</v>
+        <v>2.093832744299428</v>
       </c>
       <c r="E21" t="n">
-        <v>18.94435148771426</v>
+        <v>18.02693905307423</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1784085131985741</v>
+        <v>0.1828170024544424</v>
       </c>
       <c r="G21" t="n">
-        <v>6116.758647252357</v>
+        <v>6106.275591828431</v>
       </c>
       <c r="H21" t="n">
-        <v>3.28994075693585</v>
+        <v>1.79078448673428</v>
       </c>
     </row>
     <row r="22">
@@ -1042,25 +1042,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4.317245238605073</v>
+        <v>5.35744126879164</v>
       </c>
       <c r="C22" t="n">
-        <v>0.04780434205309698</v>
+        <v>0.09023806905196891</v>
       </c>
       <c r="D22" t="n">
-        <v>1.97388739992093</v>
+        <v>2.014353052153394</v>
       </c>
       <c r="E22" t="n">
-        <v>18.92982858449912</v>
+        <v>17.74573887244166</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1781565680035888</v>
+        <v>0.1810280466054924</v>
       </c>
       <c r="G22" t="n">
-        <v>6111.076267170283</v>
+        <v>6080.336767042601</v>
       </c>
       <c r="H22" t="n">
-        <v>3.27313385482381</v>
+        <v>2.31994069817864</v>
       </c>
     </row>
     <row r="23">
@@ -1070,25 +1070,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4.318829933833745</v>
+        <v>5.775039421737052</v>
       </c>
       <c r="C23" t="n">
-        <v>0.04800121647321706</v>
+        <v>0.1477642080200499</v>
       </c>
       <c r="D23" t="n">
-        <v>1.972916533988841</v>
+        <v>2.018579927056582</v>
       </c>
       <c r="E23" t="n">
-        <v>18.93717328772596</v>
+        <v>18.89758484035525</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1782289689947144</v>
+        <v>0.1745188153482674</v>
       </c>
       <c r="G23" t="n">
-        <v>6113.511265441612</v>
+        <v>6126.148216632198</v>
       </c>
       <c r="H23" t="n">
-        <v>3.14182905620538</v>
+        <v>0.7004092348616</v>
       </c>
     </row>
     <row r="24">
@@ -1098,25 +1098,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4.31855107287995</v>
+        <v>5.746929957988177</v>
       </c>
       <c r="C24" t="n">
-        <v>0.04796469175692145</v>
+        <v>0.1222232530461227</v>
       </c>
       <c r="D24" t="n">
-        <v>1.972557440609417</v>
+        <v>2.014270413413326</v>
       </c>
       <c r="E24" t="n">
-        <v>18.93302771140833</v>
+        <v>18.31626982491459</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1781990492109947</v>
+        <v>0.1793168594184636</v>
       </c>
       <c r="G24" t="n">
-        <v>6112.150978818559</v>
+        <v>6103.354053525702</v>
       </c>
       <c r="H24" t="n">
-        <v>3.19930532954427</v>
+        <v>1.14373873534234</v>
       </c>
     </row>
     <row r="25">
@@ -1126,25 +1126,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4.317075080280764</v>
+        <v>5.760423019212859</v>
       </c>
       <c r="C25" t="n">
-        <v>0.04818564910472739</v>
+        <v>0.1170020459026604</v>
       </c>
       <c r="D25" t="n">
-        <v>1.915544573565628</v>
+        <v>1.867209113724809</v>
       </c>
       <c r="E25" t="n">
-        <v>18.89874841013774</v>
+        <v>17.30433378522859</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1776430618119289</v>
+        <v>0.1770547487733652</v>
       </c>
       <c r="G25" t="n">
-        <v>6096.972893390216</v>
+        <v>6036.524331384998</v>
       </c>
       <c r="H25" t="n">
-        <v>3.02050656973826</v>
+        <v>1.43861514129731</v>
       </c>
     </row>
     <row r="26">
@@ -1154,25 +1154,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>4.321603818618794</v>
+        <v>6.240001514050388</v>
       </c>
       <c r="C26" t="n">
-        <v>0.04853650727089642</v>
+        <v>0.4714875124514996</v>
       </c>
       <c r="D26" t="n">
-        <v>1.919150086222203</v>
+        <v>1.885932047902942</v>
       </c>
       <c r="E26" t="n">
-        <v>18.91644185411653</v>
+        <v>19.17885890547694</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1780484667377233</v>
+        <v>0.1721516731257841</v>
       </c>
       <c r="G26" t="n">
-        <v>6102.201217313333</v>
+        <v>6106.806016714092</v>
       </c>
       <c r="H26" t="n">
-        <v>2.77498212535337</v>
+        <v>0.24196357794633</v>
       </c>
     </row>
     <row r="27">
@@ -1182,25 +1182,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>4.320249230298148</v>
+        <v>6.161244638380164</v>
       </c>
       <c r="C27" t="n">
-        <v>0.04834225281742312</v>
+        <v>0.1741323630653999</v>
       </c>
       <c r="D27" t="n">
-        <v>1.918796501832766</v>
+        <v>1.877244805927026</v>
       </c>
       <c r="E27" t="n">
-        <v>18.90402725240006</v>
+        <v>17.75242802632444</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1777235367048841</v>
+        <v>0.1753554827865721</v>
       </c>
       <c r="G27" t="n">
-        <v>6098.87020773456</v>
+        <v>6055.00228174218</v>
       </c>
       <c r="H27" t="n">
-        <v>2.92437493090148</v>
+        <v>0.69631917134029</v>
       </c>
     </row>
     <row r="28">
@@ -1210,25 +1210,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4.315510680793033</v>
+        <v>5.598419618439858</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0482035973174022</v>
+        <v>0.129991068248734</v>
       </c>
       <c r="D28" t="n">
-        <v>1.914779724104498</v>
+        <v>1.870483213048179</v>
       </c>
       <c r="E28" t="n">
-        <v>18.90679364842778</v>
+        <v>18.24041189757734</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1777450457903854</v>
+        <v>0.1714412670412142</v>
       </c>
       <c r="G28" t="n">
-        <v>6098.871148898779</v>
+        <v>6069.058282319316</v>
       </c>
       <c r="H28" t="n">
-        <v>2.97429951854999</v>
+        <v>0.932839022525721</v>
       </c>
     </row>
     <row r="29">
@@ -1238,25 +1238,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>4.317353534978853</v>
+        <v>5.787740709722004</v>
       </c>
       <c r="C29" t="n">
-        <v>0.04833393270411187</v>
+        <v>0.19750109986856</v>
       </c>
       <c r="D29" t="n">
-        <v>1.914189679300129</v>
+        <v>1.871901139591678</v>
       </c>
       <c r="E29" t="n">
-        <v>18.91086917055625</v>
+        <v>18.74330235966614</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1778433688240932</v>
+        <v>0.169223186772734</v>
       </c>
       <c r="G29" t="n">
-        <v>6099.861933185092</v>
+        <v>6086.883608139626</v>
       </c>
       <c r="H29" t="n">
-        <v>2.88499964571516</v>
+        <v>0.469177795484514</v>
       </c>
     </row>
     <row r="30">
@@ -1266,25 +1266,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>4.338702512483387</v>
+        <v>8.492880731972356</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0500581507403931</v>
+        <v>2.178730746026623</v>
       </c>
       <c r="D30" t="n">
-        <v>1.880084680086657</v>
+        <v>1.798067768130916</v>
       </c>
       <c r="E30" t="n">
-        <v>18.89458391199288</v>
+        <v>18.71653410088454</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1779704626852358</v>
+        <v>0.1781532640806687</v>
       </c>
       <c r="G30" t="n">
-        <v>6090.589026357797</v>
+        <v>6071.541168814302</v>
       </c>
       <c r="H30" t="n">
-        <v>2.30024724506682</v>
+        <v>0.177240516575395</v>
       </c>
     </row>
     <row r="31">
@@ -1294,25 +1294,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4.303476991404372</v>
+        <v>4.681400443504662</v>
       </c>
       <c r="C31" t="n">
-        <v>0.04834464331765413</v>
+        <v>0.1298665648242892</v>
       </c>
       <c r="D31" t="n">
-        <v>1.86435404170845</v>
+        <v>1.770156046489824</v>
       </c>
       <c r="E31" t="n">
-        <v>18.901146236822</v>
+        <v>19.69269575674511</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1776668639293912</v>
+        <v>0.1669758786012037</v>
       </c>
       <c r="G31" t="n">
-        <v>6087.559126792637</v>
+        <v>6089.88670347189</v>
       </c>
       <c r="H31" t="n">
-        <v>2.78529611600607</v>
+        <v>0.627152511926739</v>
       </c>
     </row>
     <row r="32">
@@ -1322,25 +1322,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>4.306663824834358</v>
+        <v>4.825690931568579</v>
       </c>
       <c r="C32" t="n">
-        <v>0.04809357511923157</v>
+        <v>0.09517719450217109</v>
       </c>
       <c r="D32" t="n">
-        <v>1.886182164382818</v>
+        <v>1.807342843452079</v>
       </c>
       <c r="E32" t="n">
-        <v>18.89465254959727</v>
+        <v>18.23968450998294</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1775506278390697</v>
+        <v>0.1697241288521447</v>
       </c>
       <c r="G32" t="n">
-        <v>6090.883935004485</v>
+        <v>6052.173146345924</v>
       </c>
       <c r="H32" t="n">
-        <v>3.00000005149449</v>
+        <v>1.69009266130747</v>
       </c>
     </row>
     <row r="33">
@@ -1350,25 +1350,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4.311955518114939</v>
+        <v>5.157966437652949</v>
       </c>
       <c r="C33" t="n">
-        <v>0.04804278095478746</v>
+        <v>0.1011820036821707</v>
       </c>
       <c r="D33" t="n">
-        <v>1.914617346762301</v>
+        <v>1.869967917366293</v>
       </c>
       <c r="E33" t="n">
-        <v>18.90684379882144</v>
+        <v>18.22964437964425</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1777672063085757</v>
+        <v>0.1730601050292337</v>
       </c>
       <c r="G33" t="n">
-        <v>6098.773019159325</v>
+        <v>6067.998425682532</v>
       </c>
       <c r="H33" t="n">
-        <v>3.05558161327318</v>
+        <v>1.52826209251645</v>
       </c>
     </row>
     <row r="34">
@@ -1378,25 +1378,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4.309356444482743</v>
+        <v>5.101530142175704</v>
       </c>
       <c r="C34" t="n">
-        <v>0.04834137113392017</v>
+        <v>0.1488473517394661</v>
       </c>
       <c r="D34" t="n">
-        <v>1.883602998773963</v>
+        <v>1.807563193079686</v>
       </c>
       <c r="E34" t="n">
-        <v>18.90414867813231</v>
+        <v>19.30894094825637</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1776183707690983</v>
+        <v>0.1629348777401437</v>
       </c>
       <c r="G34" t="n">
-        <v>6092.569456981765</v>
+        <v>6087.456494711932</v>
       </c>
       <c r="H34" t="n">
-        <v>2.83427728860118</v>
+        <v>0.577536831896346</v>
       </c>
     </row>
     <row r="35">
@@ -1406,25 +1406,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4.314806126486816</v>
+        <v>5.61768805220623</v>
       </c>
       <c r="C35" t="n">
-        <v>0.04834056121226586</v>
+        <v>0.1512227138227447</v>
       </c>
       <c r="D35" t="n">
-        <v>1.899610114774608</v>
+        <v>1.837029823196036</v>
       </c>
       <c r="E35" t="n">
-        <v>18.9012643067638</v>
+        <v>18.36411181314533</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1775580704195083</v>
+        <v>0.1637807444400742</v>
       </c>
       <c r="G35" t="n">
-        <v>6095.031620743921</v>
+        <v>6064.327655686395</v>
       </c>
       <c r="H35" t="n">
-        <v>2.90078569995526</v>
+        <v>0.721829187250143</v>
       </c>
     </row>
     <row r="36">
@@ -1434,25 +1434,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>4.314451617970124</v>
+        <v>5.64018152402162</v>
       </c>
       <c r="C36" t="n">
-        <v>0.04873043338695761</v>
+        <v>0.3326358093532656</v>
       </c>
       <c r="D36" t="n">
-        <v>1.874012439622207</v>
+        <v>1.787525835328945</v>
       </c>
       <c r="E36" t="n">
-        <v>18.89958873199969</v>
+        <v>19.27307745094102</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1774991834664897</v>
+        <v>0.1592477779595877</v>
       </c>
       <c r="G36" t="n">
-        <v>6089.617360987851</v>
+        <v>6081.250166413378</v>
       </c>
       <c r="H36" t="n">
-        <v>2.68385520023941</v>
+        <v>0.277394252997988</v>
       </c>
     </row>
     <row r="37">
@@ -1462,25 +1462,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4.322181738179026</v>
+        <v>6.57490337385404</v>
       </c>
       <c r="C37" t="n">
-        <v>0.04960162237045867</v>
+        <v>0.5502853622783236</v>
       </c>
       <c r="D37" t="n">
-        <v>1.831889332948385</v>
+        <v>1.697183337894828</v>
       </c>
       <c r="E37" t="n">
-        <v>18.86030802963223</v>
+        <v>17.4851916153841</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1772390420412268</v>
+        <v>0.1677385615807002</v>
       </c>
       <c r="G37" t="n">
-        <v>6071.379543958466</v>
+        <v>6002.968070240619</v>
       </c>
       <c r="H37" t="n">
-        <v>2.44902265636507</v>
+        <v>0.265523105287203</v>
       </c>
     </row>
     <row r="38">
@@ -1490,25 +1490,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>4.306867689242893</v>
+        <v>5.069738835547072</v>
       </c>
       <c r="C38" t="n">
-        <v>0.04847677874634877</v>
+        <v>0.1409627037753229</v>
       </c>
       <c r="D38" t="n">
-        <v>1.861463660841814</v>
+        <v>1.760287034858285</v>
       </c>
       <c r="E38" t="n">
-        <v>18.89036548097309</v>
+        <v>18.83770105042518</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1777958990128172</v>
+        <v>0.1751775401365777</v>
       </c>
       <c r="G38" t="n">
-        <v>6084.768190672115</v>
+        <v>6061.825677395516</v>
       </c>
       <c r="H38" t="n">
-        <v>2.78183401723668</v>
+        <v>0.664854617787301</v>
       </c>
     </row>
     <row r="39">
@@ -1518,25 +1518,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>4.307147438476772</v>
+        <v>4.980463973579486</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0482437785262582</v>
+        <v>0.1091496409076799</v>
       </c>
       <c r="D39" t="n">
-        <v>1.877856328454663</v>
+        <v>1.791609706163255</v>
       </c>
       <c r="E39" t="n">
-        <v>18.89359211450445</v>
+        <v>18.49655483318455</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1778101561263451</v>
+        <v>0.1764775163478734</v>
       </c>
       <c r="G39" t="n">
-        <v>6089.103299587363</v>
+        <v>6058.665780181238</v>
       </c>
       <c r="H39" t="n">
-        <v>2.91269621386352</v>
+        <v>1.13946670842578</v>
       </c>
     </row>
     <row r="40">
@@ -1546,25 +1546,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4.311415766167246</v>
+        <v>5.355678964588136</v>
       </c>
       <c r="C40" t="n">
-        <v>0.04827096285830122</v>
+        <v>0.1036322425277407</v>
       </c>
       <c r="D40" t="n">
-        <v>1.877908815395961</v>
+        <v>1.780914806137634</v>
       </c>
       <c r="E40" t="n">
-        <v>18.87163888911532</v>
+        <v>16.40924247647501</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1774804995315028</v>
+        <v>0.1824395823941207</v>
       </c>
       <c r="G40" t="n">
-        <v>6084.358993172446</v>
+        <v>5989.063164525621</v>
       </c>
       <c r="H40" t="n">
-        <v>3.01839450060297</v>
+        <v>2.19586430048533</v>
       </c>
     </row>
     <row r="41">
@@ -1574,25 +1574,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>4.31592022704865</v>
+        <v>5.730432480423691</v>
       </c>
       <c r="C41" t="n">
-        <v>0.04854592640408625</v>
+        <v>0.2633962995079491</v>
       </c>
       <c r="D41" t="n">
-        <v>1.891915891008864</v>
+        <v>1.824044540994173</v>
       </c>
       <c r="E41" t="n">
-        <v>18.9034930701549</v>
+        <v>18.95274543270656</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1780627848067527</v>
+        <v>0.177945280615957</v>
       </c>
       <c r="G41" t="n">
-        <v>6094.422153903753</v>
+        <v>6084.36614870146</v>
       </c>
       <c r="H41" t="n">
-        <v>2.77770090979737</v>
+        <v>0.338636745447179</v>
       </c>
     </row>
     <row r="42">
@@ -1602,25 +1602,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>4.315017397735213</v>
+        <v>5.766445691885302</v>
       </c>
       <c r="C42" t="n">
-        <v>0.04857622079460645</v>
+        <v>0.188460328577085</v>
       </c>
       <c r="D42" t="n">
-        <v>1.879646771634693</v>
+        <v>1.793739897565605</v>
       </c>
       <c r="E42" t="n">
-        <v>18.89017559559696</v>
+        <v>18.1403741877308</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1778379148850655</v>
+        <v>0.1773640065291872</v>
       </c>
       <c r="G42" t="n">
-        <v>6088.936785063382</v>
+        <v>6049.460151704049</v>
       </c>
       <c r="H42" t="n">
-        <v>2.80092515414956</v>
+        <v>0.548476961132064</v>
       </c>
     </row>
     <row r="43">
@@ -1630,25 +1630,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4.31064034464597</v>
+        <v>5.401978487997903</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0483966154064937</v>
+        <v>0.1141656059746993</v>
       </c>
       <c r="D43" t="n">
-        <v>1.869517001552055</v>
+        <v>1.767606550435306</v>
       </c>
       <c r="E43" t="n">
-        <v>18.87532608140648</v>
+        <v>17.1500475934025</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1774371123446216</v>
+        <v>0.1773838021973208</v>
       </c>
       <c r="G43" t="n">
-        <v>6083.438609803096</v>
+        <v>6009.633432391453</v>
       </c>
       <c r="H43" t="n">
-        <v>2.91770795144865</v>
+        <v>1.47913111163595</v>
       </c>
     </row>
     <row r="44">
@@ -1658,25 +1658,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>4.320351983220734</v>
+        <v>6.30557559922531</v>
       </c>
       <c r="C44" t="n">
-        <v>0.04890440377067179</v>
+        <v>0.4202228930403938</v>
       </c>
       <c r="D44" t="n">
-        <v>1.877537609919935</v>
+        <v>1.790310508396806</v>
       </c>
       <c r="E44" t="n">
-        <v>18.89046073872452</v>
+        <v>18.2966758879876</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1778601003110239</v>
+        <v>0.1764825685622921</v>
       </c>
       <c r="G44" t="n">
-        <v>6088.705061288084</v>
+        <v>6054.380221228688</v>
       </c>
       <c r="H44" t="n">
-        <v>2.67204154945377</v>
+        <v>0.277440567781416</v>
       </c>
     </row>
     <row r="45">
@@ -1686,25 +1686,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>4.319584512951804</v>
+        <v>6.069780730306448</v>
       </c>
       <c r="C45" t="n">
-        <v>0.04853843001054693</v>
+        <v>0.3323279049521114</v>
       </c>
       <c r="D45" t="n">
-        <v>1.90696673475477</v>
+        <v>1.856253557774285</v>
       </c>
       <c r="E45" t="n">
-        <v>18.90848800341077</v>
+        <v>18.83917670691858</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1778984224167118</v>
+        <v>0.1712302000899125</v>
       </c>
       <c r="G45" t="n">
-        <v>6098.240598384275</v>
+        <v>6087.320694562084</v>
       </c>
       <c r="H45" t="n">
-        <v>2.79118940596767</v>
+        <v>0.296283717266776</v>
       </c>
     </row>
     <row r="46">
@@ -1714,25 +1714,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4.311635456722827</v>
+        <v>5.444092754678991</v>
       </c>
       <c r="C46" t="n">
-        <v>0.04838950937024194</v>
+        <v>0.1241018592327283</v>
       </c>
       <c r="D46" t="n">
-        <v>1.878005969397716</v>
+        <v>1.788002147960231</v>
       </c>
       <c r="E46" t="n">
-        <v>18.88562697376582</v>
+        <v>17.74851778762631</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1775493342702835</v>
+        <v>0.17327373546505</v>
       </c>
       <c r="G46" t="n">
-        <v>6087.433065944937</v>
+        <v>6033.486813780492</v>
       </c>
       <c r="H46" t="n">
-        <v>2.89450790413661</v>
+        <v>1.08512883332784</v>
       </c>
     </row>
     <row r="47">
@@ -1742,25 +1742,25 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>4.317060912501224</v>
+        <v>5.910050149253829</v>
       </c>
       <c r="C47" t="n">
-        <v>0.04873341638752293</v>
+        <v>0.322319077866119</v>
       </c>
       <c r="D47" t="n">
-        <v>1.879269228858563</v>
+        <v>1.795958609724515</v>
       </c>
       <c r="E47" t="n">
-        <v>18.89556608427774</v>
+        <v>18.6962691536439</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1779406524608795</v>
+        <v>0.176865278184264</v>
       </c>
       <c r="G47" t="n">
-        <v>6090.127382183398</v>
+        <v>6068.588740023405</v>
       </c>
       <c r="H47" t="n">
-        <v>2.70519136560424</v>
+        <v>0.299743091046076</v>
       </c>
     </row>
     <row r="48">
@@ -1770,25 +1770,25 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>4.316471791521087</v>
+        <v>5.525501260539217</v>
       </c>
       <c r="C48" t="n">
-        <v>0.04817888927375603</v>
+        <v>0.1863389715068182</v>
       </c>
       <c r="D48" t="n">
-        <v>1.930804030677373</v>
+        <v>1.914634749431941</v>
       </c>
       <c r="E48" t="n">
-        <v>18.92357813255427</v>
+        <v>19.4158312216406</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1781962096933175</v>
+        <v>0.1753625027265869</v>
       </c>
       <c r="G48" t="n">
-        <v>6105.577651892488</v>
+        <v>6121.927833036651</v>
       </c>
       <c r="H48" t="n">
-        <v>2.92760792151628</v>
+        <v>0.419501483542414</v>
       </c>
     </row>
     <row r="49">
@@ -1798,25 +1798,25 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>4.313501357584143</v>
+        <v>5.211828899694751</v>
       </c>
       <c r="C49" t="n">
-        <v>0.04796127252588685</v>
+        <v>0.09423195615335016</v>
       </c>
       <c r="D49" t="n">
-        <v>1.928351647444804</v>
+        <v>1.89967939849641</v>
       </c>
       <c r="E49" t="n">
-        <v>18.90922281143042</v>
+        <v>17.79395398243599</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1778785175463768</v>
+        <v>0.180009913513746</v>
       </c>
       <c r="G49" t="n">
-        <v>6101.287096056394</v>
+        <v>6060.344566276841</v>
       </c>
       <c r="H49" t="n">
-        <v>3.13080272974232</v>
+        <v>1.94783415388129</v>
       </c>
     </row>
     <row r="50">
@@ -1826,25 +1826,25 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>4.316135039402438</v>
+        <v>5.440817089839731</v>
       </c>
       <c r="C50" t="n">
-        <v>0.04817346138588485</v>
+        <v>0.2020765487889859</v>
       </c>
       <c r="D50" t="n">
-        <v>1.931701285293808</v>
+        <v>1.918431220612047</v>
       </c>
       <c r="E50" t="n">
-        <v>18.92650798314169</v>
+        <v>19.72516665975213</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1781888542468975</v>
+        <v>0.1727830871235541</v>
       </c>
       <c r="G50" t="n">
-        <v>6106.459149672258</v>
+        <v>6133.359833462979</v>
       </c>
       <c r="H50" t="n">
-        <v>2.91264256412409</v>
+        <v>0.361640364879562</v>
       </c>
     </row>
     <row r="51">
@@ -1854,25 +1854,25 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>4.318210609035339</v>
+        <v>5.722044996317234</v>
       </c>
       <c r="C51" t="n">
-        <v>0.04805263009057888</v>
+        <v>0.1311599178032806</v>
       </c>
       <c r="D51" t="n">
-        <v>1.949187883019975</v>
+        <v>1.954899633013471</v>
       </c>
       <c r="E51" t="n">
-        <v>18.92417978263273</v>
+        <v>18.52347299208867</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1782050082067325</v>
+        <v>0.1806023526381644</v>
       </c>
       <c r="G51" t="n">
-        <v>6107.84242833321</v>
+        <v>6100.157731947281</v>
       </c>
       <c r="H51" t="n">
-        <v>3.05441857289701</v>
+        <v>0.842026736051932</v>
       </c>
     </row>
     <row r="52">
@@ -1882,25 +1882,25 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>4.314338710557243</v>
+        <v>5.177543131093636</v>
       </c>
       <c r="C52" t="n">
-        <v>0.04787815526641296</v>
+        <v>0.08930478198586582</v>
       </c>
       <c r="D52" t="n">
-        <v>1.943126366969638</v>
+        <v>1.935097502242733</v>
       </c>
       <c r="E52" t="n">
-        <v>18.91582901601941</v>
+        <v>17.76920076027442</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1778799767340922</v>
+        <v>0.1781091485292816</v>
       </c>
       <c r="G52" t="n">
-        <v>6104.639068165677</v>
+        <v>6065.634339619848</v>
       </c>
       <c r="H52" t="n">
-        <v>3.19185179106389</v>
+        <v>2.21337993720522</v>
       </c>
     </row>
     <row r="53">
@@ -1910,25 +1910,25 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>4.317272327703227</v>
+        <v>5.364897553202374</v>
       </c>
       <c r="C53" t="n">
-        <v>0.04825233364147791</v>
+        <v>0.4414657351010963</v>
       </c>
       <c r="D53" t="n">
-        <v>1.939170365122355</v>
+        <v>1.943498571233077</v>
       </c>
       <c r="E53" t="n">
-        <v>18.93899079860827</v>
+        <v>20.94347892646634</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1783629840950832</v>
+        <v>0.1751895626413617</v>
       </c>
       <c r="G53" t="n">
-        <v>6110.972587619264</v>
+        <v>6184.000925989579</v>
       </c>
       <c r="H53" t="n">
-        <v>2.81669527852269</v>
+        <v>0.193948191242997</v>
       </c>
     </row>
     <row r="54">
@@ -1938,25 +1938,25 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>4.317826787952644</v>
+        <v>5.788270635534778</v>
       </c>
       <c r="C54" t="n">
-        <v>0.04818576138078329</v>
+        <v>0.1446325139060001</v>
       </c>
       <c r="D54" t="n">
-        <v>1.928865653540317</v>
+        <v>1.904071727269039</v>
       </c>
       <c r="E54" t="n">
-        <v>18.91383804385736</v>
+        <v>18.34866574522755</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1779375038102085</v>
+        <v>0.1752911084372329</v>
       </c>
       <c r="G54" t="n">
-        <v>6102.703309272155</v>
+        <v>6081.595448400743</v>
       </c>
       <c r="H54" t="n">
-        <v>2.97955687591398</v>
+        <v>0.743701434953263</v>
       </c>
     </row>
     <row r="55">
@@ -1966,25 +1966,25 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>4.31534294825991</v>
+        <v>5.477501662713218</v>
       </c>
       <c r="C55" t="n">
-        <v>0.04805746650942152</v>
+        <v>0.1055308502869823</v>
       </c>
       <c r="D55" t="n">
-        <v>1.926921255403173</v>
+        <v>1.896987316336276</v>
       </c>
       <c r="E55" t="n">
-        <v>18.90919043414591</v>
+        <v>17.88387454554022</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1779714583612605</v>
+        <v>0.1818981560913575</v>
       </c>
       <c r="G55" t="n">
-        <v>6101.214166037578</v>
+        <v>6064.199323980021</v>
       </c>
       <c r="H55" t="n">
-        <v>3.06817975085608</v>
+        <v>1.43693348193426</v>
       </c>
     </row>
     <row r="56">
@@ -1994,25 +1994,25 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>4.318274490070907</v>
+        <v>5.893228903181859</v>
       </c>
       <c r="C56" t="n">
-        <v>0.04820192656138891</v>
+        <v>0.1196463049254089</v>
       </c>
       <c r="D56" t="n">
-        <v>1.918578673925926</v>
+        <v>1.873756604548845</v>
       </c>
       <c r="E56" t="n">
-        <v>18.89947710325178</v>
+        <v>17.22825177118147</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1776462565207283</v>
+        <v>0.1772077407639368</v>
       </c>
       <c r="G56" t="n">
-        <v>6097.579920915917</v>
+        <v>6035.260783559897</v>
       </c>
       <c r="H56" t="n">
-        <v>3.01148729573122</v>
+        <v>1.33739727037103</v>
       </c>
     </row>
     <row r="57">
@@ -2022,25 +2022,25 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>4.317874493644233</v>
+        <v>5.697557168730139</v>
       </c>
       <c r="C57" t="n">
-        <v>0.04804509884068666</v>
+        <v>0.1209196755127439</v>
       </c>
       <c r="D57" t="n">
-        <v>1.946127852555753</v>
+        <v>1.945869786455846</v>
       </c>
       <c r="E57" t="n">
-        <v>18.92142103736097</v>
+        <v>18.33590634327573</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1779480707026764</v>
+        <v>0.1748384255416673</v>
       </c>
       <c r="G57" t="n">
-        <v>6106.640356733904</v>
+        <v>6089.359949941906</v>
       </c>
       <c r="H57" t="n">
-        <v>3.06617863389065</v>
+        <v>0.998148211848416</v>
       </c>
     </row>
     <row r="58">
@@ -2050,25 +2050,25 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>4.316012333057084</v>
+        <v>5.492496716635014</v>
       </c>
       <c r="C58" t="n">
-        <v>0.04802214433963579</v>
+        <v>0.1007352916627559</v>
       </c>
       <c r="D58" t="n">
-        <v>1.929529888680181</v>
+        <v>1.902904248844673</v>
       </c>
       <c r="E58" t="n">
-        <v>18.91033641239665</v>
+        <v>17.87592882140758</v>
       </c>
       <c r="F58" t="n">
-        <v>0.177822604333231</v>
+        <v>0.177648905529688</v>
       </c>
       <c r="G58" t="n">
-        <v>6101.75526546187</v>
+        <v>6063.761380888966</v>
       </c>
       <c r="H58" t="n">
-        <v>3.05571038911963</v>
+        <v>1.48754025733442</v>
       </c>
     </row>
     <row r="59">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>4.319455171965165</v>
+        <v>5.995852173873995</v>
       </c>
       <c r="C59" t="n">
-        <v>0.04842382453449408</v>
+        <v>0.2845294547241876</v>
       </c>
       <c r="D59" t="n">
-        <v>1.916584053611837</v>
+        <v>1.878362123561087</v>
       </c>
       <c r="E59" t="n">
-        <v>18.91286089491457</v>
+        <v>18.87648082150249</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1780245221102354</v>
+        <v>0.174281495059999</v>
       </c>
       <c r="G59" t="n">
-        <v>6100.868367905789</v>
+        <v>6094.59826894014</v>
       </c>
       <c r="H59" t="n">
-        <v>2.83374222185619</v>
+        <v>0.314147275576313</v>
       </c>
     </row>
     <row r="60">
@@ -2106,25 +2106,25 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>4.31914332245229</v>
+        <v>5.875823974791466</v>
       </c>
       <c r="C60" t="n">
-        <v>0.04807242094134328</v>
+        <v>0.1236172163659791</v>
       </c>
       <c r="D60" t="n">
-        <v>1.94677918499462</v>
+        <v>1.945711926834997</v>
       </c>
       <c r="E60" t="n">
-        <v>18.91866239840789</v>
+        <v>17.95323043856602</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1781312370466779</v>
+        <v>0.1836514342084286</v>
       </c>
       <c r="G60" t="n">
-        <v>6106.054257762109</v>
+        <v>6077.888113520573</v>
       </c>
       <c r="H60" t="n">
-        <v>3.06480152005648</v>
+        <v>1.04794831675052</v>
       </c>
     </row>
     <row r="61">
@@ -2134,25 +2134,25 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>4.317558933363975</v>
+        <v>5.808708338723258</v>
       </c>
       <c r="C61" t="n">
-        <v>0.04823441313198081</v>
+        <v>0.1438432896596409</v>
       </c>
       <c r="D61" t="n">
-        <v>1.921439809873005</v>
+        <v>1.885772961721845</v>
       </c>
       <c r="E61" t="n">
-        <v>18.90897626411824</v>
+        <v>18.16623070680384</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1779889360350302</v>
+        <v>0.1792827949853663</v>
       </c>
       <c r="G61" t="n">
-        <v>6100.521131683563</v>
+        <v>6072.147948106109</v>
       </c>
       <c r="H61" t="n">
-        <v>2.96375364349427</v>
+        <v>0.762208838972343</v>
       </c>
     </row>
     <row r="62">
@@ -2162,25 +2162,25 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>4.318829479729201</v>
+        <v>5.999282920936998</v>
       </c>
       <c r="C62" t="n">
-        <v>0.04828825473037272</v>
+        <v>0.1416779040223592</v>
       </c>
       <c r="D62" t="n">
-        <v>1.916592457790657</v>
+        <v>1.871430090634113</v>
       </c>
       <c r="E62" t="n">
-        <v>18.90214586851435</v>
+        <v>17.64322459296545</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1776125386833933</v>
+        <v>0.1736358635574676</v>
       </c>
       <c r="G62" t="n">
-        <v>6098.005149637033</v>
+        <v>6048.986163501175</v>
       </c>
       <c r="H62" t="n">
-        <v>2.95525717961205</v>
+        <v>0.888673541854988</v>
       </c>
     </row>
     <row r="63">
@@ -2190,25 +2190,25 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>4.321696152956632</v>
+        <v>6.249976104913815</v>
       </c>
       <c r="C63" t="n">
-        <v>0.04881749399149801</v>
+        <v>0.7028575864149678</v>
       </c>
       <c r="D63" t="n">
-        <v>1.898685233511594</v>
+        <v>1.841932353253091</v>
       </c>
       <c r="E63" t="n">
-        <v>18.9114881550453</v>
+        <v>19.54816037213235</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1780710336556605</v>
+        <v>0.1739277847242965</v>
       </c>
       <c r="G63" t="n">
-        <v>6097.686295364665</v>
+        <v>6108.858237646823</v>
       </c>
       <c r="H63" t="n">
-        <v>2.63831671393177</v>
+        <v>0.189285940214356</v>
       </c>
     </row>
     <row r="64">
@@ -2218,25 +2218,25 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>4.304598271128167</v>
+        <v>4.883294337962576</v>
       </c>
       <c r="C64" t="n">
-        <v>0.04824930220970457</v>
+        <v>0.0935171740527703</v>
       </c>
       <c r="D64" t="n">
-        <v>1.859088785118041</v>
+        <v>1.747356128925549</v>
       </c>
       <c r="E64" t="n">
-        <v>18.8718793892908</v>
+        <v>17.2637791389574</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1774594930025999</v>
+        <v>0.177861048707499</v>
       </c>
       <c r="G64" t="n">
-        <v>6080.298351299587</v>
+        <v>6007.749255601931</v>
       </c>
       <c r="H64" t="n">
-        <v>2.95076801405279</v>
+        <v>1.93421624096867</v>
       </c>
     </row>
     <row r="65">
@@ -2246,25 +2246,25 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>4.295026187127315</v>
+        <v>4.451364486529212</v>
       </c>
       <c r="C65" t="n">
-        <v>0.04833170599605553</v>
+        <v>0.09036483661835593</v>
       </c>
       <c r="D65" t="n">
-        <v>1.827952299070002</v>
+        <v>1.689454707955335</v>
       </c>
       <c r="E65" t="n">
-        <v>18.86051749364069</v>
+        <v>17.50396193834322</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1770353210394496</v>
+        <v>0.1684444529569628</v>
       </c>
       <c r="G65" t="n">
-        <v>6069.684772004382</v>
+        <v>5997.367938700465</v>
       </c>
       <c r="H65" t="n">
-        <v>2.90008620878973</v>
+        <v>1.91375738532784</v>
       </c>
     </row>
     <row r="66">
@@ -2274,25 +2274,25 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>4.307461962048395</v>
+        <v>4.313978888231826</v>
       </c>
       <c r="C66" t="n">
-        <v>0.04769587882153919</v>
+        <v>0.07223205344979992</v>
       </c>
       <c r="D66" t="n">
-        <v>1.925124973341757</v>
+        <v>1.887806216390565</v>
       </c>
       <c r="E66" t="n">
-        <v>18.901989619921</v>
+        <v>17.07870745820831</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1777419579891511</v>
+        <v>0.1805784576238889</v>
       </c>
       <c r="G66" t="n">
-        <v>6098.751127157158</v>
+        <v>6030.624128193983</v>
       </c>
       <c r="H66" t="n">
-        <v>3.3188090930227</v>
+        <v>3.71617166444522</v>
       </c>
     </row>
     <row r="67">
@@ -2302,25 +2302,25 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>4.309067643893504</v>
+        <v>4.948387204446949</v>
       </c>
       <c r="C67" t="n">
-        <v>0.04804909557989091</v>
+        <v>0.09511212106181591</v>
       </c>
       <c r="D67" t="n">
-        <v>1.902024874801772</v>
+        <v>1.841967193382691</v>
       </c>
       <c r="E67" t="n">
-        <v>18.90163469878093</v>
+        <v>18.25499794925531</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1778861519458167</v>
+        <v>0.1781712007033891</v>
       </c>
       <c r="G67" t="n">
-        <v>6095.53137572495</v>
+        <v>6063.131733106154</v>
       </c>
       <c r="H67" t="n">
-        <v>3.04168721770432</v>
+        <v>1.60365523174893</v>
       </c>
     </row>
     <row r="68">
@@ -2330,25 +2330,25 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>4.309694315820845</v>
+        <v>4.931314838531891</v>
       </c>
       <c r="C68" t="n">
-        <v>0.04797878212106625</v>
+        <v>0.08729327030280572</v>
       </c>
       <c r="D68" t="n">
-        <v>1.902419211351305</v>
+        <v>1.836082089048628</v>
       </c>
       <c r="E68" t="n">
-        <v>18.8902921900489</v>
+        <v>17.02985193104287</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1775354751779764</v>
+        <v>0.1784160403806708</v>
       </c>
       <c r="G68" t="n">
-        <v>6092.779612424129</v>
+        <v>6019.402161859476</v>
       </c>
       <c r="H68" t="n">
-        <v>3.14008705946948</v>
+        <v>2.65406038736548</v>
       </c>
     </row>
     <row r="69">
@@ -2358,25 +2358,25 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>4.311681141518036</v>
+        <v>5.030874719410857</v>
       </c>
       <c r="C69" t="n">
-        <v>0.04794436747517284</v>
+        <v>0.08677412968174428</v>
       </c>
       <c r="D69" t="n">
-        <v>1.912526155747687</v>
+        <v>1.857402050802555</v>
       </c>
       <c r="E69" t="n">
-        <v>18.89308734824177</v>
+        <v>16.80751949940192</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1775605546646038</v>
+        <v>0.1784761268261122</v>
       </c>
       <c r="G69" t="n">
-        <v>6094.966384395416</v>
+        <v>6015.827195136164</v>
       </c>
       <c r="H69" t="n">
-        <v>3.17145192054988</v>
+        <v>2.83645568306697</v>
       </c>
     </row>
     <row r="70">
@@ -2386,25 +2386,25 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>4.305742141461653</v>
+        <v>4.829865384394076</v>
       </c>
       <c r="C70" t="n">
-        <v>0.04813775882043799</v>
+        <v>0.09345205876491182</v>
       </c>
       <c r="D70" t="n">
-        <v>1.876641592506064</v>
+        <v>1.785560553070137</v>
       </c>
       <c r="E70" t="n">
-        <v>18.88642541305516</v>
+        <v>17.84987906167713</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1775730448395113</v>
+        <v>0.1741589373915413</v>
       </c>
       <c r="G70" t="n">
-        <v>6087.189656498405</v>
+        <v>6035.152183093409</v>
       </c>
       <c r="H70" t="n">
-        <v>2.99125297880681</v>
+        <v>1.8130186863955</v>
       </c>
     </row>
     <row r="71">
@@ -2414,25 +2414,25 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>4.307688724435698</v>
+        <v>4.872569098358952</v>
       </c>
       <c r="C71" t="n">
-        <v>0.04804989115140432</v>
+        <v>0.08852847526895581</v>
       </c>
       <c r="D71" t="n">
-        <v>1.885333766303769</v>
+        <v>1.798637063584461</v>
       </c>
       <c r="E71" t="n">
-        <v>18.88069145447048</v>
+        <v>16.89851986660326</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1774073011704777</v>
+        <v>0.1779574606618259</v>
       </c>
       <c r="G71" t="n">
-        <v>6087.609278880422</v>
+        <v>6007.049802090125</v>
       </c>
       <c r="H71" t="n">
-        <v>3.09234494681636</v>
+        <v>2.63522400693989</v>
       </c>
     </row>
     <row r="72">
@@ -2442,25 +2442,25 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>4.30812854458965</v>
+        <v>4.829086727723285</v>
       </c>
       <c r="C72" t="n">
-        <v>0.04798826257884983</v>
+        <v>0.0878179663713221</v>
       </c>
       <c r="D72" t="n">
-        <v>1.897312891937682</v>
+        <v>1.827175902598142</v>
       </c>
       <c r="E72" t="n">
-        <v>18.89184942804965</v>
+        <v>17.44344939701592</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1775903844882959</v>
+        <v>0.1777848236738221</v>
       </c>
       <c r="G72" t="n">
-        <v>6092.323399037758</v>
+        <v>6031.653157163795</v>
       </c>
       <c r="H72" t="n">
-        <v>3.10708316978068</v>
+        <v>2.4404828482401</v>
       </c>
     </row>
     <row r="73">
@@ -2470,25 +2470,25 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>4.306517850574204</v>
+        <v>4.494674935021541</v>
       </c>
       <c r="C73" t="n">
-        <v>0.04783120450088851</v>
+        <v>0.07874534004154403</v>
       </c>
       <c r="D73" t="n">
-        <v>1.905939734647846</v>
+        <v>1.845553237346647</v>
       </c>
       <c r="E73" t="n">
-        <v>18.89518058660108</v>
+        <v>17.35015012527863</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1776248995913054</v>
+        <v>0.1786531754463137</v>
       </c>
       <c r="G73" t="n">
-        <v>6094.446819372914</v>
+        <v>6031.909392091577</v>
       </c>
       <c r="H73" t="n">
-        <v>3.20242531905619</v>
+        <v>3.10055559932534</v>
       </c>
     </row>
     <row r="74">
@@ -2498,25 +2498,25 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>4.312840485658774</v>
+        <v>5.2151704524945</v>
       </c>
       <c r="C74" t="n">
-        <v>0.04819031091777943</v>
+        <v>0.1584366501137692</v>
       </c>
       <c r="D74" t="n">
-        <v>1.915195277690372</v>
+        <v>1.878885809923061</v>
       </c>
       <c r="E74" t="n">
-        <v>18.91955271027551</v>
+        <v>19.64576015220639</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1778929799717203</v>
+        <v>0.1648644878276626</v>
       </c>
       <c r="G74" t="n">
-        <v>6102.074584627592</v>
+        <v>6118.189918968206</v>
       </c>
       <c r="H74" t="n">
-        <v>2.91663217392493</v>
+        <v>0.490665351309221</v>
       </c>
     </row>
     <row r="75">
@@ -2526,25 +2526,25 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>4.310383073563306</v>
+        <v>4.830898311178967</v>
       </c>
       <c r="C75" t="n">
-        <v>0.04787072947401548</v>
+        <v>0.08498320252963663</v>
       </c>
       <c r="D75" t="n">
-        <v>1.923893603409555</v>
+        <v>1.88965051855844</v>
       </c>
       <c r="E75" t="n">
-        <v>18.9084928786393</v>
+        <v>17.92632506579828</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1777446031509635</v>
+        <v>0.1756266535117194</v>
       </c>
       <c r="G75" t="n">
-        <v>6100.398580098867</v>
+        <v>6061.1735039269</v>
       </c>
       <c r="H75" t="n">
-        <v>3.16997458657106</v>
+        <v>2.40642223182197</v>
       </c>
     </row>
     <row r="76">
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>4.311743890803328</v>
+        <v>5.344430799865735</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0482827618152112</v>
+        <v>0.1261781617486789</v>
       </c>
       <c r="D76" t="n">
-        <v>1.892957354929525</v>
+        <v>1.822628522995588</v>
       </c>
       <c r="E76" t="n">
-        <v>18.89876019190804</v>
+        <v>18.38677035719746</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1775381994569511</v>
+        <v>0.1653960232157843</v>
       </c>
       <c r="G76" t="n">
-        <v>6093.192020637296</v>
+        <v>6061.160874329064</v>
       </c>
       <c r="H76" t="n">
-        <v>2.9281550428981</v>
+        <v>0.923272540877026</v>
       </c>
     </row>
     <row r="77">
@@ -2582,25 +2582,25 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>4.311977289777048</v>
+        <v>5.260865214726666</v>
       </c>
       <c r="C77" t="n">
-        <v>0.04816159628901979</v>
+        <v>0.1133537226669014</v>
       </c>
       <c r="D77" t="n">
-        <v>1.904487456960327</v>
+        <v>1.848132450489623</v>
       </c>
       <c r="E77" t="n">
-        <v>18.90412364168389</v>
+        <v>18.42225474730567</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1777021419876592</v>
+        <v>0.1694175467061131</v>
       </c>
       <c r="G77" t="n">
-        <v>6096.508934832045</v>
+        <v>6069.095309704511</v>
       </c>
       <c r="H77" t="n">
-        <v>2.98163532735758</v>
+        <v>1.10112176288922</v>
       </c>
     </row>
     <row r="78">
@@ -2610,25 +2610,25 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>4.314432644356684</v>
+        <v>5.415841608411814</v>
       </c>
       <c r="C78" t="n">
-        <v>0.04806962958074319</v>
+        <v>0.1060141904552099</v>
       </c>
       <c r="D78" t="n">
-        <v>1.922367562465529</v>
+        <v>1.886166471507722</v>
       </c>
       <c r="E78" t="n">
-        <v>18.90746846632524</v>
+        <v>17.91721095643641</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1777179101315355</v>
+        <v>0.1744614681135058</v>
       </c>
       <c r="G78" t="n">
-        <v>6100.046400016861</v>
+        <v>6060.955195061293</v>
       </c>
       <c r="H78" t="n">
-        <v>3.06992370029833</v>
+        <v>1.4722419302921</v>
       </c>
     </row>
     <row r="79">
@@ -2638,25 +2638,25 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>4.312412810208217</v>
+        <v>5.422287465993906</v>
       </c>
       <c r="C79" t="n">
-        <v>0.04826134356959325</v>
+        <v>0.1034557647256938</v>
       </c>
       <c r="D79" t="n">
-        <v>1.881844140724215</v>
+        <v>1.789679901611378</v>
       </c>
       <c r="E79" t="n">
-        <v>18.87545918004922</v>
+        <v>16.58527585649896</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1772364722648556</v>
+        <v>0.1749488909560052</v>
       </c>
       <c r="G79" t="n">
-        <v>6085.849050886393</v>
+        <v>5994.759136759232</v>
       </c>
       <c r="H79" t="n">
-        <v>3.00201992010037</v>
+        <v>2.04139577413223</v>
       </c>
     </row>
     <row r="80">
@@ -2666,25 +2666,25 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>4.315942309134638</v>
+        <v>5.687630849442392</v>
       </c>
       <c r="C80" t="n">
-        <v>0.04873943672537711</v>
+        <v>0.4517297764138075</v>
       </c>
       <c r="D80" t="n">
-        <v>1.883062634366864</v>
+        <v>1.80885136675955</v>
       </c>
       <c r="E80" t="n">
-        <v>18.90786121582346</v>
+        <v>19.74986770739667</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1776064437892071</v>
+        <v>0.1580312246007488</v>
       </c>
       <c r="G80" t="n">
-        <v>6093.44975878311</v>
+        <v>6102.766462152383</v>
       </c>
       <c r="H80" t="n">
-        <v>2.66459236930907</v>
+        <v>0.22134403132652</v>
       </c>
     </row>
     <row r="81">
@@ -2694,25 +2694,25 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>4.313627180058479</v>
+        <v>5.433010689426204</v>
       </c>
       <c r="C81" t="n">
-        <v>0.04815887917632337</v>
+        <v>0.1055424969035393</v>
       </c>
       <c r="D81" t="n">
-        <v>1.903198346657266</v>
+        <v>1.840068481491937</v>
       </c>
       <c r="E81" t="n">
-        <v>18.89436714069937</v>
+        <v>17.44665983352213</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1774851352449341</v>
+        <v>0.1737511124958802</v>
       </c>
       <c r="G81" t="n">
-        <v>6093.955045315798</v>
+        <v>6034.486596334653</v>
       </c>
       <c r="H81" t="n">
-        <v>3.02013631653307</v>
+        <v>1.62670301113269</v>
       </c>
     </row>
     <row r="82">
@@ -2722,25 +2722,25 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>4.30687265188262</v>
+        <v>5.103492343862964</v>
       </c>
       <c r="C82" t="n">
-        <v>0.04833921318987992</v>
+        <v>0.1013567553398467</v>
       </c>
       <c r="D82" t="n">
-        <v>1.858062297584544</v>
+        <v>1.743300742446828</v>
       </c>
       <c r="E82" t="n">
-        <v>18.86721399107022</v>
+        <v>16.90717218642529</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1770939915228216</v>
+        <v>0.172143719911459</v>
       </c>
       <c r="G82" t="n">
-        <v>6079.037417384673</v>
+        <v>5994.205944276923</v>
       </c>
       <c r="H82" t="n">
-        <v>2.9421400196275</v>
+        <v>1.94880545521123</v>
       </c>
     </row>
     <row r="83">
@@ -2750,25 +2750,25 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>4.309777056987245</v>
+        <v>4.986375591132855</v>
       </c>
       <c r="C83" t="n">
-        <v>0.04802231455549098</v>
+        <v>0.09091844532713314</v>
       </c>
       <c r="D83" t="n">
-        <v>1.899018609251308</v>
+        <v>1.829833227441092</v>
       </c>
       <c r="E83" t="n">
-        <v>18.89102665901864</v>
+        <v>17.28016149633238</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1773939598544551</v>
+        <v>0.1731427158867252</v>
       </c>
       <c r="G83" t="n">
-        <v>6092.358619954418</v>
+        <v>6025.622340609953</v>
       </c>
       <c r="H83" t="n">
-        <v>3.09762911626663</v>
+        <v>2.39254788888351</v>
       </c>
     </row>
     <row r="84">
@@ -2778,25 +2778,25 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>4.313256697819055</v>
+        <v>5.212317090823325</v>
       </c>
       <c r="C84" t="n">
-        <v>0.04797967930052013</v>
+        <v>0.09454610367178548</v>
       </c>
       <c r="D84" t="n">
-        <v>1.92273749494097</v>
+        <v>1.884582387389499</v>
       </c>
       <c r="E84" t="n">
-        <v>18.90413884517222</v>
+        <v>17.50223989553722</v>
       </c>
       <c r="F84" t="n">
-        <v>0.177592657986557</v>
+        <v>0.1735539437763634</v>
       </c>
       <c r="G84" t="n">
-        <v>6099.13571397653</v>
+        <v>6045.02950477656</v>
       </c>
       <c r="H84" t="n">
-        <v>3.13640082625698</v>
+        <v>2.15659494289247</v>
       </c>
     </row>
     <row r="85">
@@ -2806,25 +2806,25 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>4.310586864933659</v>
+        <v>5.14543135380254</v>
       </c>
       <c r="C85" t="n">
-        <v>0.04809811125351478</v>
+        <v>0.1008102736640177</v>
       </c>
       <c r="D85" t="n">
-        <v>1.901881003721541</v>
+        <v>1.836043599438628</v>
       </c>
       <c r="E85" t="n">
-        <v>18.89213747812972</v>
+        <v>17.26279262728545</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1774087122420349</v>
+        <v>0.1727134858197236</v>
       </c>
       <c r="G85" t="n">
-        <v>6093.117142881064</v>
+        <v>6026.541099525787</v>
       </c>
       <c r="H85" t="n">
-        <v>3.11664779412659</v>
+        <v>2.1391618924668</v>
       </c>
     </row>
     <row r="86">
@@ -2834,25 +2834,25 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>4.314772116834501</v>
+        <v>5.553522569865815</v>
       </c>
       <c r="C86" t="n">
-        <v>0.048244449214281</v>
+        <v>0.1361985184368277</v>
       </c>
       <c r="D86" t="n">
-        <v>1.908869352923811</v>
+        <v>1.857738616076959</v>
       </c>
       <c r="E86" t="n">
-        <v>18.90560456476441</v>
+        <v>18.39358865494219</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1776147822388874</v>
+        <v>0.1648719701974849</v>
       </c>
       <c r="G86" t="n">
-        <v>6097.605717263134</v>
+        <v>6070.194317078227</v>
       </c>
       <c r="H86" t="n">
-        <v>2.94950806024629</v>
+        <v>0.838725097541314</v>
       </c>
     </row>
     <row r="87">
@@ -2862,25 +2862,25 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>4.316256793154202</v>
+        <v>5.573905890411533</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0480664664406839</v>
+        <v>0.1119042618620911</v>
       </c>
       <c r="D87" t="n">
-        <v>1.931496120142205</v>
+        <v>1.90805928888186</v>
       </c>
       <c r="E87" t="n">
-        <v>18.91205471218113</v>
+        <v>17.97848717567643</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1777637108813006</v>
+        <v>0.1739652744015651</v>
       </c>
       <c r="G87" t="n">
-        <v>6102.419720736771</v>
+        <v>6067.867642940163</v>
       </c>
       <c r="H87" t="n">
-        <v>3.06682307431582</v>
+        <v>1.32452698090774</v>
       </c>
     </row>
     <row r="88">
@@ -2890,25 +2890,25 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>4.312182953937404</v>
+        <v>5.257176682029959</v>
       </c>
       <c r="C88" t="n">
-        <v>0.04823072284843659</v>
+        <v>0.1386880708010109</v>
       </c>
       <c r="D88" t="n">
-        <v>1.903274198965522</v>
+        <v>1.849010232102918</v>
       </c>
       <c r="E88" t="n">
-        <v>18.91000078776236</v>
+        <v>19.11220772384081</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1776933130560429</v>
+        <v>0.1640998007153952</v>
       </c>
       <c r="G88" t="n">
-        <v>6097.692349108917</v>
+        <v>6091.74731143104</v>
       </c>
       <c r="H88" t="n">
-        <v>2.90872925366963</v>
+        <v>0.660714716967106</v>
       </c>
     </row>
     <row r="89">
@@ -2918,25 +2918,25 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>4.316897493219924</v>
+        <v>5.591180562499818</v>
       </c>
       <c r="C89" t="n">
-        <v>0.04826478671449599</v>
+        <v>0.2423842999537411</v>
       </c>
       <c r="D89" t="n">
-        <v>1.925918468811587</v>
+        <v>1.903819546023255</v>
       </c>
       <c r="E89" t="n">
-        <v>18.92331160213926</v>
+        <v>19.62194449891934</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1779502184223013</v>
+        <v>0.1645043521700861</v>
       </c>
       <c r="G89" t="n">
-        <v>6104.739914086893</v>
+        <v>6124.320789373107</v>
       </c>
       <c r="H89" t="n">
-        <v>2.88061829355398</v>
+        <v>0.321719184673368</v>
       </c>
     </row>
     <row r="90">
@@ -2946,25 +2946,25 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>4.316133199190709</v>
+        <v>5.679267909334002</v>
       </c>
       <c r="C90" t="n">
-        <v>0.04819419830707912</v>
+        <v>0.1118546738733644</v>
       </c>
       <c r="D90" t="n">
-        <v>1.908658012433712</v>
+        <v>1.851229436149985</v>
       </c>
       <c r="E90" t="n">
-        <v>18.89489029971464</v>
+        <v>17.23687507852237</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1775748438658754</v>
+        <v>0.1767376980189325</v>
       </c>
       <c r="G90" t="n">
-        <v>6095.001073674887</v>
+        <v>6030.653175726682</v>
       </c>
       <c r="H90" t="n">
-        <v>3.00836178844859</v>
+        <v>1.50936202592235</v>
       </c>
     </row>
     <row r="91">
@@ -2974,25 +2974,25 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>4.310240357186116</v>
+        <v>5.1086950745769</v>
       </c>
       <c r="C91" t="n">
-        <v>0.04806072801969884</v>
+        <v>0.0843543766891561</v>
       </c>
       <c r="D91" t="n">
-        <v>1.875869614949622</v>
+        <v>1.771516674113887</v>
       </c>
       <c r="E91" t="n">
-        <v>18.86086530790011</v>
+        <v>15.47902914200352</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1772261637237346</v>
+        <v>0.1821168898979041</v>
       </c>
       <c r="G91" t="n">
-        <v>6081.445598354819</v>
+        <v>5954.706550374237</v>
       </c>
       <c r="H91" t="n">
-        <v>3.08920301767746</v>
+        <v>3.30639977106228</v>
       </c>
     </row>
     <row r="92">
@@ -3002,25 +3002,25 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>4.316514383011529</v>
+        <v>5.756216999651504</v>
       </c>
       <c r="C92" t="n">
-        <v>0.04825932141395992</v>
+        <v>0.1276580836930079</v>
       </c>
       <c r="D92" t="n">
-        <v>1.908969206595425</v>
+        <v>1.854569270712866</v>
       </c>
       <c r="E92" t="n">
-        <v>18.89953403899847</v>
+        <v>17.73250029522631</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1775803109493239</v>
+        <v>0.1730404880419465</v>
       </c>
       <c r="G92" t="n">
-        <v>6096.199011145101</v>
+        <v>6048.07809982236</v>
       </c>
       <c r="H92" t="n">
-        <v>2.96141714483515</v>
+        <v>1.04331948201068</v>
       </c>
     </row>
     <row r="93">
@@ -3030,25 +3030,25 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>4.316902980836411</v>
+        <v>5.304885207960803</v>
       </c>
       <c r="C93" t="n">
-        <v>0.04779237993258203</v>
+        <v>0.08549668966414216</v>
       </c>
       <c r="D93" t="n">
-        <v>1.968479143849813</v>
+        <v>1.998624588450065</v>
       </c>
       <c r="E93" t="n">
-        <v>18.92581315977814</v>
+        <v>17.53026502610113</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1781084344345726</v>
+        <v>0.1818735417481598</v>
       </c>
       <c r="G93" t="n">
-        <v>6109.520970927546</v>
+        <v>6069.115026546154</v>
       </c>
       <c r="H93" t="n">
-        <v>3.26748627015712</v>
+        <v>2.52819305792138</v>
       </c>
     </row>
     <row r="94">
@@ -3058,25 +3058,25 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>4.311544445078428</v>
+        <v>5.022590226227318</v>
       </c>
       <c r="C94" t="n">
-        <v>0.04793974429819627</v>
+        <v>0.08672152944245175</v>
       </c>
       <c r="D94" t="n">
-        <v>1.915027104576399</v>
+        <v>1.865810315274986</v>
       </c>
       <c r="E94" t="n">
-        <v>18.89884897211892</v>
+        <v>17.30555109033409</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1776109111742994</v>
+        <v>0.1772965627482842</v>
       </c>
       <c r="G94" t="n">
-        <v>6096.760553986541</v>
+        <v>6034.803383381404</v>
       </c>
       <c r="H94" t="n">
-        <v>3.14174349125493</v>
+        <v>2.49700903819857</v>
       </c>
     </row>
     <row r="95">
@@ -3086,25 +3086,25 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>4.315425740402657</v>
+        <v>5.639042096246536</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0481645325538648</v>
+        <v>0.1146482157080954</v>
       </c>
       <c r="D95" t="n">
-        <v>1.919453776011612</v>
+        <v>1.875901831274665</v>
       </c>
       <c r="E95" t="n">
-        <v>18.90036821205665</v>
+        <v>17.26869728883829</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1776447331162492</v>
+        <v>0.1766221317846851</v>
       </c>
       <c r="G95" t="n">
-        <v>6097.851917797742</v>
+        <v>6036.499748564012</v>
       </c>
       <c r="H95" t="n">
-        <v>3.10546013751763</v>
+        <v>1.56572414212153</v>
       </c>
     </row>
     <row r="96">
@@ -3114,25 +3114,25 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>4.316760389741739</v>
+        <v>5.336022071675768</v>
       </c>
       <c r="C96" t="n">
-        <v>0.04781902979440919</v>
+        <v>0.0897092685945633</v>
       </c>
       <c r="D96" t="n">
-        <v>1.969950159629952</v>
+        <v>2.005903911446058</v>
       </c>
       <c r="E96" t="n">
-        <v>18.93062372749257</v>
+        <v>18.11628998370857</v>
       </c>
       <c r="F96" t="n">
-        <v>0.178104654892857</v>
+        <v>0.1786632433893763</v>
       </c>
       <c r="G96" t="n">
-        <v>6111.122695035056</v>
+        <v>6092.545981161804</v>
       </c>
       <c r="H96" t="n">
-        <v>3.23128256269448</v>
+        <v>1.94449655422058</v>
       </c>
     </row>
     <row r="97">
@@ -3142,25 +3142,25 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>4.314792344161013</v>
+        <v>5.196700129134005</v>
       </c>
       <c r="C97" t="n">
-        <v>0.04785898184659318</v>
+        <v>0.08752838917390432</v>
       </c>
       <c r="D97" t="n">
-        <v>1.947094373061691</v>
+        <v>1.944423673588233</v>
       </c>
       <c r="E97" t="n">
-        <v>18.9169852548744</v>
+        <v>17.68183318883921</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1778912971411587</v>
+        <v>0.1782181195759081</v>
       </c>
       <c r="G97" t="n">
-        <v>6105.323521348159</v>
+        <v>6064.107775774457</v>
       </c>
       <c r="H97" t="n">
-        <v>3.20649325409928</v>
+        <v>2.2954894831783</v>
       </c>
     </row>
     <row r="98">
@@ -3170,25 +3170,25 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>4.317168941223366</v>
+        <v>5.68221125440609</v>
       </c>
       <c r="C98" t="n">
-        <v>0.04819104502876605</v>
+        <v>0.1543739754487106</v>
       </c>
       <c r="D98" t="n">
-        <v>1.927477758108672</v>
+        <v>1.902732802151211</v>
       </c>
       <c r="E98" t="n">
-        <v>18.91655467959407</v>
+        <v>18.74004650017523</v>
       </c>
       <c r="F98" t="n">
-        <v>0.177879895815198</v>
+        <v>0.1687352044351866</v>
       </c>
       <c r="G98" t="n">
-        <v>6103.172769514816</v>
+        <v>6093.714787518902</v>
       </c>
       <c r="H98" t="n">
-        <v>2.95450397354486</v>
+        <v>0.597309263844095</v>
       </c>
     </row>
     <row r="99">
@@ -3198,25 +3198,25 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>4.31567468986601</v>
+        <v>5.096001089340104</v>
       </c>
       <c r="C99" t="n">
-        <v>0.04774957200237988</v>
+        <v>0.08397679430482213</v>
       </c>
       <c r="D99" t="n">
-        <v>1.978729356896873</v>
+        <v>2.032680667351324</v>
       </c>
       <c r="E99" t="n">
-        <v>18.9381666278293</v>
+        <v>18.63442892337461</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1782492559301533</v>
+        <v>0.1792258382312124</v>
       </c>
       <c r="G99" t="n">
-        <v>6114.000951750541</v>
+        <v>6117.884827051235</v>
       </c>
       <c r="H99" t="n">
-        <v>3.25997533562773</v>
+        <v>1.9610027891923</v>
       </c>
     </row>
     <row r="100">
@@ -3226,25 +3226,25 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>4.314775115835453</v>
+        <v>5.460240550118048</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0481373096921332</v>
+        <v>0.1177236985545231</v>
       </c>
       <c r="D100" t="n">
-        <v>1.918339416812178</v>
+        <v>1.879559793519531</v>
       </c>
       <c r="E100" t="n">
-        <v>18.90998458523961</v>
+        <v>18.41792425053346</v>
       </c>
       <c r="F100" t="n">
-        <v>0.177779760220302</v>
+        <v>0.1706286902843158</v>
       </c>
       <c r="G100" t="n">
-        <v>6100.165733276779</v>
+        <v>6076.851696005241</v>
       </c>
       <c r="H100" t="n">
-        <v>2.98917623964727</v>
+        <v>0.963835383064975</v>
       </c>
     </row>
     <row r="101">
@@ -3254,25 +3254,25 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>4.318896047378692</v>
+        <v>5.819799617160677</v>
       </c>
       <c r="C101" t="n">
-        <v>0.04852861953212818</v>
+        <v>0.4801256072541683</v>
       </c>
       <c r="D101" t="n">
-        <v>1.912149275346904</v>
+        <v>1.873611623249047</v>
       </c>
       <c r="E101" t="n">
-        <v>18.9201968367357</v>
+        <v>19.90244855145235</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1779826706532665</v>
+        <v>0.1663597293693965</v>
       </c>
       <c r="G101" t="n">
-        <v>6101.975348052154</v>
+        <v>6127.334481963817</v>
       </c>
       <c r="H101" t="n">
-        <v>2.73537896843353</v>
+        <v>0.204673848637341</v>
       </c>
     </row>
     <row r="102">
@@ -3282,25 +3282,25 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>4.317177630421306</v>
+        <v>6.070415924598148</v>
       </c>
       <c r="C102" t="n">
-        <v>0.04894178638830438</v>
+        <v>0.2588184343575008</v>
       </c>
       <c r="D102" t="n">
-        <v>1.857041046594113</v>
+        <v>1.745812238593722</v>
       </c>
       <c r="E102" t="n">
-        <v>18.8752316567805</v>
+        <v>17.71757810494247</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1773889913599788</v>
+        <v>0.1686833589447315</v>
       </c>
       <c r="G102" t="n">
-        <v>6080.718378970587</v>
+        <v>6022.534745293617</v>
       </c>
       <c r="H102" t="n">
-        <v>2.66516444154591</v>
+        <v>0.383798773096607</v>
       </c>
     </row>
     <row r="103">
@@ -3310,25 +3310,25 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>4.3072749284766</v>
+        <v>4.895906270932068</v>
       </c>
       <c r="C103" t="n">
-        <v>0.04818533651823752</v>
+        <v>0.1052556720965993</v>
       </c>
       <c r="D103" t="n">
-        <v>1.88449652428621</v>
+        <v>1.807805366705038</v>
       </c>
       <c r="E103" t="n">
-        <v>18.89998875905542</v>
+        <v>18.84406485351673</v>
       </c>
       <c r="F103" t="n">
-        <v>0.1782956838119116</v>
+        <v>0.1876384829341334</v>
       </c>
       <c r="G103" t="n">
-        <v>6092.082837159118</v>
+        <v>6077.395870335047</v>
       </c>
       <c r="H103" t="n">
-        <v>2.90499106819169</v>
+        <v>0.990046129736657</v>
       </c>
     </row>
     <row r="104">
@@ -3338,25 +3338,25 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>4.311426755352072</v>
+        <v>5.076821693684272</v>
       </c>
       <c r="C104" t="n">
-        <v>0.04798780167548408</v>
+        <v>0.09179372014262645</v>
       </c>
       <c r="D104" t="n">
-        <v>1.91592198371843</v>
+        <v>1.871255486959945</v>
       </c>
       <c r="E104" t="n">
-        <v>18.90492234338731</v>
+        <v>17.94186529009622</v>
       </c>
       <c r="F104" t="n">
-        <v>0.1776223943093358</v>
+        <v>0.1727659090342804</v>
       </c>
       <c r="G104" t="n">
-        <v>6098.413462164373</v>
+        <v>6057.476226827904</v>
       </c>
       <c r="H104" t="n">
-        <v>3.09738489365224</v>
+        <v>1.85649112547501</v>
       </c>
     </row>
     <row r="105">
@@ -3366,25 +3366,25 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>4.312430996739186</v>
+        <v>5.022230995797523</v>
       </c>
       <c r="C105" t="n">
-        <v>0.04788260114426973</v>
+        <v>0.0865326573529327</v>
       </c>
       <c r="D105" t="n">
-        <v>1.93312953966705</v>
+        <v>1.911560792119113</v>
       </c>
       <c r="E105" t="n">
-        <v>18.91260978560041</v>
+        <v>17.92698466659563</v>
       </c>
       <c r="F105" t="n">
-        <v>0.1777867376890852</v>
+        <v>0.1760866722816069</v>
       </c>
       <c r="G105" t="n">
-        <v>6102.6482797339</v>
+        <v>6065.914563583812</v>
       </c>
       <c r="H105" t="n">
-        <v>3.17004827278158</v>
+        <v>2.17626512191775</v>
       </c>
     </row>
     <row r="106">
@@ -3394,25 +3394,25 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>4.312661393876994</v>
+        <v>5.046419184535206</v>
       </c>
       <c r="C106" t="n">
-        <v>0.04788882149181521</v>
+        <v>0.08754814039030025</v>
       </c>
       <c r="D106" t="n">
-        <v>1.934415030683705</v>
+        <v>1.915525398326027</v>
       </c>
       <c r="E106" t="n">
-        <v>18.91437252440002</v>
+        <v>18.07235097749123</v>
       </c>
       <c r="F106" t="n">
-        <v>0.1778525956312383</v>
+        <v>0.17681425768898</v>
       </c>
       <c r="G106" t="n">
-        <v>6103.3051279812</v>
+        <v>6072.348933377764</v>
       </c>
       <c r="H106" t="n">
-        <v>3.157398364593</v>
+        <v>2.02502305125454</v>
       </c>
     </row>
     <row r="107">
@@ -3422,25 +3422,25 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>4.313848311523753</v>
+        <v>5.213052375308383</v>
       </c>
       <c r="C107" t="n">
-        <v>0.04792893233896665</v>
+        <v>0.09595828349988741</v>
       </c>
       <c r="D107" t="n">
-        <v>1.943075235205927</v>
+        <v>1.936994927675323</v>
       </c>
       <c r="E107" t="n">
-        <v>18.91861132410456</v>
+        <v>18.12460666956632</v>
       </c>
       <c r="F107" t="n">
-        <v>0.1779242721043241</v>
+        <v>0.1770937235671574</v>
       </c>
       <c r="G107" t="n">
-        <v>6105.436254690549</v>
+        <v>6079.070148882225</v>
       </c>
       <c r="H107" t="n">
-        <v>3.18485499819291</v>
+        <v>1.76401124813342</v>
       </c>
     </row>
     <row r="108">
@@ -3450,25 +3450,25 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>4.315153373596023</v>
+        <v>5.168676721133039</v>
       </c>
       <c r="C108" t="n">
-        <v>0.04786028561126149</v>
+        <v>0.09683765456169852</v>
       </c>
       <c r="D108" t="n">
-        <v>1.961685888305392</v>
+        <v>1.990182207920382</v>
       </c>
       <c r="E108" t="n">
-        <v>18.9343830994809</v>
+        <v>19.14510992191878</v>
       </c>
       <c r="F108" t="n">
-        <v>0.1782981791644519</v>
+        <v>0.1785888004167534</v>
       </c>
       <c r="G108" t="n">
-        <v>6111.799862028616</v>
+        <v>6128.989105725302</v>
       </c>
       <c r="H108" t="n">
-        <v>3.14242534788679</v>
+        <v>1.16291624232525</v>
       </c>
     </row>
     <row r="109">
@@ -3478,25 +3478,25 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>4.315504044793053</v>
+        <v>5.408214829599113</v>
       </c>
       <c r="C109" t="n">
-        <v>0.04796613815569499</v>
+        <v>0.09680631531482226</v>
       </c>
       <c r="D109" t="n">
-        <v>1.939007406545747</v>
+        <v>1.925510109327488</v>
       </c>
       <c r="E109" t="n">
-        <v>18.91442043242774</v>
+        <v>17.84057910313152</v>
       </c>
       <c r="F109" t="n">
-        <v>0.1778964054356515</v>
+        <v>0.1789885642902453</v>
       </c>
       <c r="G109" t="n">
-        <v>6103.902909673736</v>
+        <v>6067.063329013788</v>
       </c>
       <c r="H109" t="n">
-        <v>3.13215912183716</v>
+        <v>1.6922482816629</v>
       </c>
     </row>
     <row r="110">
@@ -3506,25 +3506,25 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>4.316065209298094</v>
+        <v>5.424081802148395</v>
       </c>
       <c r="C110" t="n">
-        <v>0.04825543701452862</v>
+        <v>0.2499434331208304</v>
       </c>
       <c r="D110" t="n">
-        <v>1.924405343366097</v>
+        <v>1.902372003380286</v>
       </c>
       <c r="E110" t="n">
-        <v>18.92499846307294</v>
+        <v>19.889199753755</v>
       </c>
       <c r="F110" t="n">
-        <v>0.1783980177649297</v>
+        <v>0.1808065246867322</v>
       </c>
       <c r="G110" t="n">
-        <v>6105.201571989315</v>
+        <v>6137.448780714863</v>
       </c>
       <c r="H110" t="n">
-        <v>2.85549959644728</v>
+        <v>0.277336740883192</v>
       </c>
     </row>
     <row r="111">
@@ -3534,25 +3534,25 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>4.316901339680793</v>
+        <v>5.609040935287111</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0480376589778458</v>
+        <v>0.1088657461524508</v>
       </c>
       <c r="D111" t="n">
-        <v>1.939181338932762</v>
+        <v>1.927265960055454</v>
       </c>
       <c r="E111" t="n">
-        <v>18.91620237860196</v>
+        <v>18.06200993123548</v>
       </c>
       <c r="F111" t="n">
-        <v>0.1779395481980556</v>
+        <v>0.1784444872596616</v>
       </c>
       <c r="G111" t="n">
-        <v>6104.475368003035</v>
+        <v>6075.99079735646</v>
       </c>
       <c r="H111" t="n">
-        <v>3.07722842924022</v>
+        <v>1.22308497156856</v>
       </c>
     </row>
     <row r="112">
@@ -3562,25 +3562,25 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>4.314154373516121</v>
+        <v>5.43082442153088</v>
       </c>
       <c r="C112" t="n">
-        <v>0.04812146734511279</v>
+        <v>0.1044312217422304</v>
       </c>
       <c r="D112" t="n">
-        <v>1.912315679353336</v>
+        <v>1.862987625776183</v>
       </c>
       <c r="E112" t="n">
-        <v>18.90181494920877</v>
+        <v>17.80240177471408</v>
       </c>
       <c r="F112" t="n">
-        <v>0.1780769308852951</v>
+        <v>0.1861222306951134</v>
       </c>
       <c r="G112" t="n">
-        <v>6097.420803357904</v>
+        <v>6055.442859693652</v>
       </c>
       <c r="H112" t="n">
-        <v>3.01699959786845</v>
+        <v>1.35536824716104</v>
       </c>
     </row>
     <row r="113">
@@ -3590,25 +3590,25 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>4.316525298998835</v>
+        <v>5.584005093235108</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0482119658502654</v>
+        <v>0.1713679980766838</v>
       </c>
       <c r="D113" t="n">
-        <v>1.925408939756365</v>
+        <v>1.89979598704345</v>
       </c>
       <c r="E113" t="n">
-        <v>18.91920805580592</v>
+        <v>19.15100036330535</v>
       </c>
       <c r="F113" t="n">
-        <v>0.1776823358398554</v>
+        <v>0.1633162103274096</v>
       </c>
       <c r="G113" t="n">
-        <v>6103.461641018903</v>
+        <v>6105.446109587855</v>
       </c>
       <c r="H113" t="n">
-        <v>2.92632974766835</v>
+        <v>0.455129471445332</v>
       </c>
     </row>
     <row r="114">
@@ -3618,25 +3618,25 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>4.314912774315188</v>
+        <v>5.360007310017028</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0480561769359293</v>
+        <v>0.115782420294198</v>
       </c>
       <c r="D114" t="n">
-        <v>1.931370882515968</v>
+        <v>1.912989891534369</v>
       </c>
       <c r="E114" t="n">
-        <v>18.91921112113345</v>
+        <v>18.84472973853748</v>
       </c>
       <c r="F114" t="n">
-        <v>0.1782782785665843</v>
+        <v>0.1828958169818596</v>
       </c>
       <c r="G114" t="n">
-        <v>6104.491128025805</v>
+        <v>6102.399946167202</v>
       </c>
       <c r="H114" t="n">
-        <v>3.01077672606728</v>
+        <v>0.848230250350778</v>
       </c>
     </row>
     <row r="115">
@@ -3646,25 +3646,25 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>4.313921017500872</v>
+        <v>5.276471180445551</v>
       </c>
       <c r="C115" t="n">
-        <v>0.04798252267442313</v>
+        <v>0.08751526368471978</v>
       </c>
       <c r="D115" t="n">
-        <v>1.91490673521828</v>
+        <v>1.86280347248856</v>
       </c>
       <c r="E115" t="n">
-        <v>18.89270476648619</v>
+        <v>16.64506130567379</v>
       </c>
       <c r="F115" t="n">
-        <v>0.1781683647515596</v>
+        <v>0.1936955419534793</v>
       </c>
       <c r="G115" t="n">
-        <v>6095.537082696415</v>
+        <v>6016.958929582785</v>
       </c>
       <c r="H115" t="n">
-        <v>3.1281522307605</v>
+        <v>2.55901599869967</v>
       </c>
     </row>
     <row r="116">
@@ -3674,25 +3674,25 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>4.314055682518332</v>
+        <v>5.271851355878989</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0479631719833979</v>
+        <v>0.09152091623919828</v>
       </c>
       <c r="D116" t="n">
-        <v>1.928574470950387</v>
+        <v>1.89962211980475</v>
       </c>
       <c r="E116" t="n">
-        <v>18.9084862728674</v>
+        <v>17.69631374788465</v>
       </c>
       <c r="F116" t="n">
-        <v>0.177831840311125</v>
+        <v>0.1797777944995715</v>
       </c>
       <c r="G116" t="n">
-        <v>6101.107991489599</v>
+        <v>6056.568987887847</v>
       </c>
       <c r="H116" t="n">
-        <v>3.12011294405531</v>
+        <v>1.9002264743636</v>
       </c>
     </row>
     <row r="117">
@@ -3702,25 +3702,25 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>4.317938513113859</v>
+        <v>5.760106109724843</v>
       </c>
       <c r="C117" t="n">
-        <v>0.04808417681427955</v>
+        <v>0.1142284952580506</v>
       </c>
       <c r="D117" t="n">
-        <v>1.937098631118854</v>
+        <v>1.921283418087453</v>
       </c>
       <c r="E117" t="n">
-        <v>18.913892849756</v>
+        <v>17.90200448942962</v>
       </c>
       <c r="F117" t="n">
-        <v>0.1778665468526729</v>
+        <v>0.1775797268808368</v>
       </c>
       <c r="G117" t="n">
-        <v>6103.624838955738</v>
+        <v>6068.847713221719</v>
       </c>
       <c r="H117" t="n">
-        <v>3.05255808658552</v>
+        <v>1.13147628250878</v>
       </c>
     </row>
     <row r="118">
@@ -3730,25 +3730,25 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>4.313672606282577</v>
+        <v>5.153932002848615</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0479010644056022</v>
+        <v>0.08460090584261315</v>
       </c>
       <c r="D118" t="n">
-        <v>1.927700668584223</v>
+        <v>1.894185528815175</v>
       </c>
       <c r="E118" t="n">
-        <v>18.90291826239004</v>
+        <v>17.08221462759396</v>
       </c>
       <c r="F118" t="n">
-        <v>0.1778321306966907</v>
+        <v>0.1829166704123582</v>
       </c>
       <c r="G118" t="n">
-        <v>6099.51073037898</v>
+        <v>6033.914438452084</v>
       </c>
       <c r="H118" t="n">
-        <v>3.17413480109887</v>
+        <v>2.60038952799617</v>
       </c>
     </row>
     <row r="119">
@@ -3758,25 +3758,25 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>4.317131335742208</v>
+        <v>5.559193337425929</v>
       </c>
       <c r="C119" t="n">
-        <v>0.04832584677076018</v>
+        <v>0.3011664547526998</v>
       </c>
       <c r="D119" t="n">
-        <v>1.922128003725226</v>
+        <v>1.89644773556496</v>
       </c>
       <c r="E119" t="n">
-        <v>18.92393672123087</v>
+        <v>19.87385974937093</v>
       </c>
       <c r="F119" t="n">
-        <v>0.1780369154765957</v>
+        <v>0.1672590304270528</v>
       </c>
       <c r="G119" t="n">
-        <v>6104.427308740963</v>
+        <v>6132.184909252308</v>
       </c>
       <c r="H119" t="n">
-        <v>2.82535554742737</v>
+        <v>0.24384405603571</v>
       </c>
     </row>
     <row r="120">
@@ -3786,25 +3786,25 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>4.317459368010551</v>
+        <v>5.908435632622858</v>
       </c>
       <c r="C120" t="n">
-        <v>0.04837515436196829</v>
+        <v>0.1337654556137755</v>
       </c>
       <c r="D120" t="n">
-        <v>1.898300074432437</v>
+        <v>1.829761714637201</v>
       </c>
       <c r="E120" t="n">
-        <v>18.89185840235259</v>
+        <v>17.45459823597169</v>
       </c>
       <c r="F120" t="n">
-        <v>0.1776852237329501</v>
+        <v>0.179625588973383</v>
       </c>
       <c r="G120" t="n">
-        <v>6092.776513549446</v>
+        <v>6035.016868174536</v>
       </c>
       <c r="H120" t="n">
-        <v>2.89797387724888</v>
+        <v>0.909527829742799</v>
       </c>
     </row>
     <row r="121">
@@ -3814,25 +3814,25 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>4.323484245322135</v>
+        <v>6.483031312714836</v>
       </c>
       <c r="C121" t="n">
-        <v>0.04826857156764942</v>
+        <v>0.1297007080242102</v>
       </c>
       <c r="D121" t="n">
-        <v>1.922052082328261</v>
+        <v>1.878487581883081</v>
       </c>
       <c r="E121" t="n">
-        <v>18.8951194609483</v>
+        <v>16.56483851741222</v>
       </c>
       <c r="F121" t="n">
-        <v>0.1778104650330796</v>
+        <v>0.1852173286417112</v>
       </c>
       <c r="G121" t="n">
-        <v>6097.080403657976</v>
+        <v>6015.329803959464</v>
       </c>
       <c r="H121" t="n">
-        <v>2.92664659330899</v>
+        <v>1.08952174664253</v>
       </c>
     </row>
     <row r="122">
@@ -3842,25 +3842,25 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>4.318913445452455</v>
+        <v>5.932212668373221</v>
       </c>
       <c r="C122" t="n">
-        <v>0.04820999134762821</v>
+        <v>0.1385908896426288</v>
       </c>
       <c r="D122" t="n">
-        <v>1.927710584917869</v>
+        <v>1.899341915183246</v>
       </c>
       <c r="E122" t="n">
-        <v>18.91040660993539</v>
+        <v>18.01136011739185</v>
       </c>
       <c r="F122" t="n">
-        <v>0.1777453957556295</v>
+        <v>0.1736186872308494</v>
       </c>
       <c r="G122" t="n">
-        <v>6101.621349632853</v>
+        <v>6067.860619497527</v>
       </c>
       <c r="H122" t="n">
-        <v>2.97130298167136</v>
+        <v>0.777310883460959</v>
       </c>
     </row>
     <row r="123">
@@ -3870,25 +3870,25 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>4.320452123792291</v>
+        <v>6.032394989876387</v>
       </c>
       <c r="C123" t="n">
-        <v>0.04806737839941966</v>
+        <v>0.1156776767342796</v>
       </c>
       <c r="D123" t="n">
-        <v>1.948979409099133</v>
+        <v>1.948349032787362</v>
       </c>
       <c r="E123" t="n">
-        <v>18.91613419636685</v>
+        <v>17.50023603268577</v>
       </c>
       <c r="F123" t="n">
-        <v>0.1779218205589254</v>
+        <v>0.1794293162401479</v>
       </c>
       <c r="G123" t="n">
-        <v>6105.419573328149</v>
+        <v>6059.822220380393</v>
       </c>
       <c r="H123" t="n">
-        <v>3.07537316024483</v>
+        <v>1.20525366445461</v>
       </c>
     </row>
     <row r="124">
@@ -3898,25 +3898,25 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>4.316627486996171</v>
+        <v>5.58166372564591</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0480244880252767</v>
+        <v>0.09423576707181078</v>
       </c>
       <c r="D124" t="n">
-        <v>1.926687874760431</v>
+        <v>1.891460711477045</v>
       </c>
       <c r="E124" t="n">
-        <v>18.90176557033616</v>
+        <v>17.02453806902196</v>
       </c>
       <c r="F124" t="n">
-        <v>0.1777429849586085</v>
+        <v>0.1808303813594819</v>
       </c>
       <c r="G124" t="n">
-        <v>6099.129384089454</v>
+        <v>6031.274801444305</v>
       </c>
       <c r="H124" t="n">
-        <v>3.10003057142106</v>
+        <v>1.95430479756</v>
       </c>
     </row>
     <row r="125">
@@ -3926,25 +3926,25 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>4.318305440110532</v>
+        <v>5.838471795204022</v>
       </c>
       <c r="C125" t="n">
-        <v>0.04836335952856454</v>
+        <v>0.2776534453688344</v>
       </c>
       <c r="D125" t="n">
-        <v>1.926198839208809</v>
+        <v>1.902871608702203</v>
       </c>
       <c r="E125" t="n">
-        <v>18.92035184218245</v>
+        <v>19.27291680270848</v>
       </c>
       <c r="F125" t="n">
-        <v>0.1780891755701101</v>
+        <v>0.17284396031842</v>
       </c>
       <c r="G125" t="n">
-        <v>6104.130981965744</v>
+        <v>6113.888942300552</v>
       </c>
       <c r="H125" t="n">
-        <v>2.88844194388467</v>
+        <v>0.27604393143313</v>
       </c>
     </row>
     <row r="126">
@@ -3954,25 +3954,25 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>4.316399260485945</v>
+        <v>5.515812518541543</v>
       </c>
       <c r="C126" t="n">
-        <v>0.04795733089055908</v>
+        <v>0.0983385708493987</v>
       </c>
       <c r="D126" t="n">
-        <v>1.951070526882895</v>
+        <v>1.95331398204214</v>
       </c>
       <c r="E126" t="n">
-        <v>18.91669288405555</v>
+        <v>17.42138621183992</v>
       </c>
       <c r="F126" t="n">
-        <v>0.1781197446720671</v>
+        <v>0.1856080613567165</v>
       </c>
       <c r="G126" t="n">
-        <v>6105.742985139786</v>
+        <v>6058.840280304674</v>
       </c>
       <c r="H126" t="n">
-        <v>3.22059361623077</v>
+        <v>1.89281456322825</v>
       </c>
     </row>
     <row r="127">
@@ -3982,25 +3982,25 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>4.315358322243139</v>
+        <v>5.391013795927559</v>
       </c>
       <c r="C127" t="n">
-        <v>0.04796388451996165</v>
+        <v>0.08806179998768016</v>
       </c>
       <c r="D127" t="n">
-        <v>1.926952401087566</v>
+        <v>1.892581032944656</v>
       </c>
       <c r="E127" t="n">
-        <v>18.9026572757572</v>
+        <v>17.10541810278458</v>
       </c>
       <c r="F127" t="n">
-        <v>0.1778136356523991</v>
+        <v>0.1826187516506735</v>
       </c>
       <c r="G127" t="n">
-        <v>6099.39692063952</v>
+        <v>6034.639450356928</v>
       </c>
       <c r="H127" t="n">
-        <v>3.12107599328732</v>
+        <v>2.1868338075912</v>
       </c>
     </row>
     <row r="128">
@@ -4010,25 +4010,25 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>4.315012262109082</v>
+        <v>5.433264063825487</v>
       </c>
       <c r="C128" t="n">
-        <v>0.04802936241939648</v>
+        <v>0.09327733021381379</v>
       </c>
       <c r="D128" t="n">
-        <v>1.92124506444448</v>
+        <v>1.881116634646888</v>
       </c>
       <c r="E128" t="n">
-        <v>18.90296979755569</v>
+        <v>17.45980092793362</v>
       </c>
       <c r="F128" t="n">
-        <v>0.1777213104907</v>
+        <v>0.1791661965294338</v>
       </c>
       <c r="G128" t="n">
-        <v>6098.762395114431</v>
+        <v>6044.336735051039</v>
       </c>
       <c r="H128" t="n">
-        <v>3.07148138706167</v>
+        <v>1.74819383589202</v>
       </c>
     </row>
     <row r="129">
@@ -4038,25 +4038,25 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>4.317739132061827</v>
+        <v>5.577562341473579</v>
       </c>
       <c r="C129" t="n">
-        <v>0.04792283698550061</v>
+        <v>0.09452468250753296</v>
       </c>
       <c r="D129" t="n">
-        <v>1.954919586136289</v>
+        <v>1.965813496074935</v>
       </c>
       <c r="E129" t="n">
-        <v>18.92184852403617</v>
+        <v>17.86807498585125</v>
       </c>
       <c r="F129" t="n">
-        <v>0.1782594492725564</v>
+        <v>0.1876598200484743</v>
       </c>
       <c r="G129" t="n">
-        <v>6107.658623767393</v>
+        <v>6079.005290972635</v>
       </c>
       <c r="H129" t="n">
-        <v>3.13614864890714</v>
+        <v>1.53922737408876</v>
       </c>
     </row>
     <row r="130">
@@ -4066,25 +4066,25 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>4.315172755748471</v>
+        <v>5.438722989808719</v>
       </c>
       <c r="C130" t="n">
-        <v>0.04802264343801506</v>
+        <v>0.09029496339871622</v>
       </c>
       <c r="D130" t="n">
-        <v>1.918348243398796</v>
+        <v>1.872717775827208</v>
       </c>
       <c r="E130" t="n">
-        <v>18.89858312118406</v>
+        <v>17.11847398731551</v>
       </c>
       <c r="F130" t="n">
-        <v>0.1778000945551647</v>
+        <v>0.1834530222088309</v>
       </c>
       <c r="G130" t="n">
-        <v>6097.3116090412</v>
+        <v>6031.76937278033</v>
       </c>
       <c r="H130" t="n">
-        <v>3.07558237084664</v>
+        <v>1.98409223714256</v>
       </c>
     </row>
     <row r="131">
@@ -4094,25 +4094,25 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>4.317136121560857</v>
+        <v>5.640672919819854</v>
       </c>
       <c r="C131" t="n">
-        <v>0.04827332591059656</v>
+        <v>0.1912542355978095</v>
       </c>
       <c r="D131" t="n">
-        <v>1.919891435498417</v>
+        <v>1.887116784383858</v>
       </c>
       <c r="E131" t="n">
-        <v>18.91619855521959</v>
+        <v>19.07580960544199</v>
       </c>
       <c r="F131" t="n">
-        <v>0.1781234436254303</v>
+        <v>0.1770657336434972</v>
       </c>
       <c r="G131" t="n">
-        <v>6102.167763264142</v>
+        <v>6103.79407235669</v>
       </c>
       <c r="H131" t="n">
-        <v>2.87449073360687</v>
+        <v>0.37568028075856</v>
       </c>
     </row>
     <row r="132">
@@ -4122,25 +4122,25 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>4.317190295523904</v>
+        <v>5.613447705299357</v>
       </c>
       <c r="C132" t="n">
-        <v>0.04801594038190955</v>
+        <v>0.100093532298997</v>
       </c>
       <c r="D132" t="n">
-        <v>1.937890075542949</v>
+        <v>1.923029788854218</v>
       </c>
       <c r="E132" t="n">
-        <v>18.91398312633157</v>
+        <v>17.86096886303753</v>
       </c>
       <c r="F132" t="n">
-        <v>0.1779377853104441</v>
+        <v>0.1806526910018353</v>
       </c>
       <c r="G132" t="n">
-        <v>6103.740938395968</v>
+        <v>6068.105586797574</v>
       </c>
       <c r="H132" t="n">
-        <v>3.06791510824652</v>
+        <v>1.33679238311071</v>
       </c>
     </row>
     <row r="133">
@@ -4150,25 +4150,25 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>4.315243234154163</v>
+        <v>5.35515585248428</v>
       </c>
       <c r="C133" t="n">
-        <v>0.04794059904833267</v>
+        <v>0.08843267052329</v>
       </c>
       <c r="D133" t="n">
-        <v>1.934099355482197</v>
+        <v>1.912086108024606</v>
       </c>
       <c r="E133" t="n">
-        <v>18.91007171812155</v>
+        <v>17.5827912336742</v>
       </c>
       <c r="F133" t="n">
-        <v>0.1777914496561194</v>
+        <v>0.1786583100484492</v>
       </c>
       <c r="G133" t="n">
-        <v>6102.146313586257</v>
+        <v>6054.448193894005</v>
       </c>
       <c r="H133" t="n">
-        <v>3.12283502460401</v>
+        <v>1.92478792611719</v>
       </c>
     </row>
     <row r="134">
@@ -4178,25 +4178,25 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>4.312927728026631</v>
+        <v>5.837895823915063</v>
       </c>
       <c r="C134" t="n">
-        <v>0.04926348497700928</v>
+        <v>0.2371759200595815</v>
       </c>
       <c r="D134" t="n">
-        <v>1.82266309383933</v>
+        <v>1.680560709160464</v>
       </c>
       <c r="E134" t="n">
-        <v>18.85545435390917</v>
+        <v>17.4013221805869</v>
       </c>
       <c r="F134" t="n">
-        <v>0.1778025240887131</v>
+        <v>0.1844452591775645</v>
       </c>
       <c r="G134" t="n">
-        <v>6067.897303718172</v>
+        <v>5998.688309346033</v>
       </c>
       <c r="H134" t="n">
-        <v>2.55030054358248</v>
+        <v>0.372117603128913</v>
       </c>
     </row>
     <row r="135">
@@ -4206,25 +4206,25 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>4.310907708417623</v>
+        <v>5.211931799296156</v>
       </c>
       <c r="C135" t="n">
-        <v>0.04819777046209932</v>
+        <v>0.1123076197406989</v>
       </c>
       <c r="D135" t="n">
-        <v>1.900732543578642</v>
+        <v>1.84054597247712</v>
       </c>
       <c r="E135" t="n">
-        <v>18.90379411337273</v>
+        <v>18.55608675334511</v>
       </c>
       <c r="F135" t="n">
-        <v>0.1777164320648381</v>
+        <v>0.1714757755902688</v>
       </c>
       <c r="G135" t="n">
-        <v>6095.789511208252</v>
+        <v>6071.757192752897</v>
       </c>
       <c r="H135" t="n">
-        <v>2.97339392499095</v>
+        <v>0.925429083167253</v>
       </c>
     </row>
     <row r="136">
@@ -4234,25 +4234,25 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>4.310258531329964</v>
+        <v>4.648649085087614</v>
       </c>
       <c r="C136" t="n">
-        <v>0.04775020350153584</v>
+        <v>0.07476063218397702</v>
       </c>
       <c r="D136" t="n">
-        <v>1.935942470958266</v>
+        <v>1.917192849064481</v>
       </c>
       <c r="E136" t="n">
-        <v>18.91258935186024</v>
+        <v>17.74874514596954</v>
       </c>
       <c r="F136" t="n">
-        <v>0.1777646263078624</v>
+        <v>0.1770966654725172</v>
       </c>
       <c r="G136" t="n">
-        <v>6102.858661482882</v>
+        <v>6059.688532438973</v>
       </c>
       <c r="H136" t="n">
-        <v>3.24858971214715</v>
+        <v>2.85774959563739</v>
       </c>
     </row>
     <row r="137">
@@ -4262,25 +4262,25 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>4.314435208263457</v>
+        <v>5.214177117660556</v>
       </c>
       <c r="C137" t="n">
-        <v>0.0478873190547058</v>
+        <v>0.08459273851976568</v>
       </c>
       <c r="D137" t="n">
-        <v>1.936021222978598</v>
+        <v>1.914742470156254</v>
       </c>
       <c r="E137" t="n">
-        <v>18.90825593951171</v>
+        <v>17.24286652820907</v>
       </c>
       <c r="F137" t="n">
-        <v>0.1777708353941012</v>
+        <v>0.1791223358119414</v>
       </c>
       <c r="G137" t="n">
-        <v>6101.797259466179</v>
+        <v>6042.250933225052</v>
       </c>
       <c r="H137" t="n">
-        <v>3.18870391451059</v>
+        <v>2.45133653903115</v>
       </c>
     </row>
     <row r="138">
@@ -4290,25 +4290,25 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>4.31749133537742</v>
+        <v>5.314276967938942</v>
       </c>
       <c r="C138" t="n">
-        <v>0.04810838028573405</v>
+        <v>0.3045176181072077</v>
       </c>
       <c r="D138" t="n">
-        <v>1.954194205473295</v>
+        <v>1.979718586218244</v>
       </c>
       <c r="E138" t="n">
-        <v>18.94219394438611</v>
+        <v>20.64530764560955</v>
       </c>
       <c r="F138" t="n">
-        <v>0.1785017062815566</v>
+        <v>0.1776211845210258</v>
       </c>
       <c r="G138" t="n">
-        <v>6113.680721944774</v>
+        <v>6184.18353379844</v>
       </c>
       <c r="H138" t="n">
-        <v>2.90434283958903</v>
+        <v>0.210008799765048</v>
       </c>
     </row>
     <row r="139">
@@ -4318,25 +4318,25 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>4.313127521573238</v>
+        <v>4.880102903828711</v>
       </c>
       <c r="C139" t="n">
-        <v>0.04774913319555289</v>
+        <v>0.07510733138932166</v>
       </c>
       <c r="D139" t="n">
-        <v>1.941832786144224</v>
+        <v>1.926560530251335</v>
       </c>
       <c r="E139" t="n">
-        <v>18.90790600777313</v>
+        <v>16.83672561627024</v>
       </c>
       <c r="F139" t="n">
-        <v>0.177848932329679</v>
+        <v>0.1824888321044171</v>
       </c>
       <c r="G139" t="n">
-        <v>6102.201214526214</v>
+        <v>6029.478066726284</v>
       </c>
       <c r="H139" t="n">
-        <v>3.28230933590133</v>
+        <v>3.36780807594103</v>
       </c>
     </row>
     <row r="140">
@@ -4346,25 +4346,25 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>4.316120988914189</v>
+        <v>5.447145221341414</v>
       </c>
       <c r="C140" t="n">
-        <v>0.04794349247488627</v>
+        <v>0.08850889742907696</v>
       </c>
       <c r="D140" t="n">
-        <v>1.934963796753514</v>
+        <v>1.911305861086746</v>
       </c>
       <c r="E140" t="n">
-        <v>18.90620734296519</v>
+        <v>17.06736649465892</v>
       </c>
       <c r="F140" t="n">
-        <v>0.1777840118251071</v>
+        <v>0.1805923374084222</v>
       </c>
       <c r="G140" t="n">
-        <v>6101.185688886831</v>
+        <v>6035.963783507003</v>
       </c>
       <c r="H140" t="n">
-        <v>3.15213012155247</v>
+        <v>2.21562200078412</v>
       </c>
     </row>
     <row r="141">
@@ -4374,25 +4374,25 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>4.312459370957617</v>
+        <v>4.745942304930893</v>
       </c>
       <c r="C141" t="n">
-        <v>0.04770867235285971</v>
+        <v>0.07355443467168447</v>
       </c>
       <c r="D141" t="n">
-        <v>1.955424845117649</v>
+        <v>1.967780889419509</v>
       </c>
       <c r="E141" t="n">
-        <v>18.92403448158084</v>
+        <v>18.08536629300252</v>
       </c>
       <c r="F141" t="n">
-        <v>0.1780767843092888</v>
+        <v>0.181862383123924</v>
       </c>
       <c r="G141" t="n">
-        <v>6108.061733946704</v>
+        <v>6083.705594648212</v>
       </c>
       <c r="H141" t="n">
-        <v>3.26456955555359</v>
+        <v>2.7045633376321</v>
       </c>
     </row>
     <row r="142">
@@ -4402,25 +4402,25 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>4.311110478722999</v>
+        <v>4.662724288844657</v>
       </c>
       <c r="C142" t="n">
-        <v>0.04772389158584026</v>
+        <v>0.07378830242565759</v>
       </c>
       <c r="D142" t="n">
-        <v>1.946182578560589</v>
+        <v>1.944383561666019</v>
       </c>
       <c r="E142" t="n">
-        <v>18.91975129523702</v>
+        <v>18.06578811595984</v>
       </c>
       <c r="F142" t="n">
-        <v>0.1780476698517797</v>
+        <v>0.1823603611401466</v>
       </c>
       <c r="G142" t="n">
-        <v>6106.013808928858</v>
+        <v>6078.490962340381</v>
       </c>
       <c r="H142" t="n">
-        <v>3.25215212374154</v>
+        <v>2.69557413909072</v>
       </c>
     </row>
     <row r="143">
@@ -4430,25 +4430,25 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>4.314753907541797</v>
+        <v>5.152213568543734</v>
       </c>
       <c r="C143" t="n">
-        <v>0.04809859454484427</v>
+        <v>0.174961166461281</v>
       </c>
       <c r="D143" t="n">
-        <v>1.934994843281515</v>
+        <v>1.928798122033965</v>
       </c>
       <c r="E143" t="n">
-        <v>18.93111090922506</v>
+        <v>20.12066906964758</v>
       </c>
       <c r="F143" t="n">
-        <v>0.1783787156244561</v>
+        <v>0.1784271913876041</v>
       </c>
       <c r="G143" t="n">
-        <v>6108.20042628275</v>
+        <v>6151.450544551964</v>
       </c>
       <c r="H143" t="n">
-        <v>2.91651809463596</v>
+        <v>0.328817039056896</v>
       </c>
     </row>
     <row r="144">
@@ -4458,25 +4458,25 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>4.318770783332324</v>
+        <v>4.743576791864969</v>
       </c>
       <c r="C144" t="n">
-        <v>0.04776927851953882</v>
+        <v>0.2103925731603127</v>
       </c>
       <c r="D144" t="n">
-        <v>1.969697377881472</v>
+        <v>2.023557665882155</v>
       </c>
       <c r="E144" t="n">
-        <v>18.95193488014398</v>
+        <v>21.19722830257602</v>
       </c>
       <c r="F144" t="n">
-        <v>0.1785645493110088</v>
+        <v>0.1790525227137948</v>
       </c>
       <c r="G144" t="n">
-        <v>6118.127053707956</v>
+        <v>6216.331498320742</v>
       </c>
       <c r="H144" t="n">
-        <v>2.764004135874</v>
+        <v>0.229358653543292</v>
       </c>
     </row>
     <row r="145">
@@ -4486,25 +4486,25 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>4.315481536825747</v>
+        <v>5.152437888677463</v>
       </c>
       <c r="C145" t="n">
-        <v>0.04777766818971855</v>
+        <v>0.07864112968495934</v>
       </c>
       <c r="D145" t="n">
-        <v>1.956257020525314</v>
+        <v>1.964797381628705</v>
       </c>
       <c r="E145" t="n">
-        <v>18.9174467867025</v>
+        <v>17.17517875239821</v>
       </c>
       <c r="F145" t="n">
-        <v>0.1780565838784984</v>
+        <v>0.1846981633094292</v>
       </c>
       <c r="G145" t="n">
-        <v>6106.216873589341</v>
+        <v>6049.939104063594</v>
       </c>
       <c r="H145" t="n">
-        <v>3.26667823296279</v>
+        <v>2.84941284851031</v>
       </c>
     </row>
     <row r="146">
@@ -4514,25 +4514,25 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>4.316129927252462</v>
+        <v>5.363426659685553</v>
       </c>
       <c r="C146" t="n">
-        <v>0.04788336661649724</v>
+        <v>0.08935918661793929</v>
       </c>
       <c r="D146" t="n">
-        <v>1.95429301151644</v>
+        <v>1.965190982397973</v>
       </c>
       <c r="E146" t="n">
-        <v>18.92337906659881</v>
+        <v>18.0970893017267</v>
       </c>
       <c r="F146" t="n">
-        <v>0.1781088654503239</v>
+        <v>0.1824906105638255</v>
       </c>
       <c r="G146" t="n">
-        <v>6107.926690930589</v>
+        <v>6085.173831424791</v>
       </c>
       <c r="H146" t="n">
-        <v>3.16219170706363</v>
+        <v>1.65649812438766</v>
       </c>
     </row>
     <row r="147">
@@ -4542,25 +4542,25 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>4.317102659987905</v>
+        <v>5.400431105325051</v>
       </c>
       <c r="C147" t="n">
-        <v>0.04782804560631609</v>
+        <v>0.08491316882765787</v>
       </c>
       <c r="D147" t="n">
-        <v>1.964616041820839</v>
+        <v>1.989330497709033</v>
       </c>
       <c r="E147" t="n">
-        <v>18.92500256478677</v>
+        <v>17.67540733965435</v>
       </c>
       <c r="F147" t="n">
-        <v>0.1780991294911738</v>
+        <v>0.1823144896837094</v>
       </c>
       <c r="G147" t="n">
-        <v>6109.092296353821</v>
+        <v>6073.189302597381</v>
       </c>
       <c r="H147" t="n">
-        <v>3.22322314984201</v>
+        <v>2.10817898265086</v>
       </c>
     </row>
     <row r="148">
@@ -4570,25 +4570,25 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>4.313141521887722</v>
+        <v>5.01630134807437</v>
       </c>
       <c r="C148" t="n">
-        <v>0.04782915115026341</v>
+        <v>0.07786862277650292</v>
       </c>
       <c r="D148" t="n">
-        <v>1.930132415759221</v>
+        <v>1.898208893108228</v>
       </c>
       <c r="E148" t="n">
-        <v>18.90175437541825</v>
+        <v>16.79924002077596</v>
       </c>
       <c r="F148" t="n">
-        <v>0.1777752612229317</v>
+        <v>0.1827051235108821</v>
       </c>
       <c r="G148" t="n">
-        <v>6099.404085412348</v>
+        <v>6023.52507491087</v>
       </c>
       <c r="H148" t="n">
-        <v>3.21904706740592</v>
+        <v>3.01786906526992</v>
       </c>
     </row>
     <row r="149">
@@ -4598,25 +4598,25 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>4.315213723307379</v>
+        <v>5.237760349521852</v>
       </c>
       <c r="C149" t="n">
-        <v>0.04798227095489062</v>
+        <v>0.1146979677802906</v>
       </c>
       <c r="D149" t="n">
-        <v>1.945544201540035</v>
+        <v>1.950828980741703</v>
       </c>
       <c r="E149" t="n">
-        <v>18.92949759743087</v>
+        <v>19.39237158776263</v>
       </c>
       <c r="F149" t="n">
-        <v>0.1784865519832486</v>
+        <v>0.1852624076028398</v>
       </c>
       <c r="G149" t="n">
-        <v>6109.035862689682</v>
+        <v>6131.823886272798</v>
       </c>
       <c r="H149" t="n">
-        <v>3.02166898627201</v>
+        <v>0.659343273163702</v>
       </c>
     </row>
     <row r="150">
@@ -4626,25 +4626,25 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>4.314749372223317</v>
+        <v>5.731811467236565</v>
       </c>
       <c r="C150" t="n">
-        <v>0.04861615913112722</v>
+        <v>0.1584159472915674</v>
       </c>
       <c r="D150" t="n">
-        <v>1.870170169676074</v>
+        <v>1.772687354841385</v>
       </c>
       <c r="E150" t="n">
-        <v>18.88294680249494</v>
+        <v>17.85355181962494</v>
       </c>
       <c r="F150" t="n">
-        <v>0.1775960115795702</v>
+        <v>0.174515606074671</v>
       </c>
       <c r="G150" t="n">
-        <v>6085.317695631201</v>
+        <v>6034.082831423327</v>
       </c>
       <c r="H150" t="n">
-        <v>2.75936733587308</v>
+        <v>0.5449706529825</v>
       </c>
     </row>
     <row r="151">
@@ -4654,25 +4654,25 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>4.307039823712177</v>
+        <v>4.580084506439732</v>
       </c>
       <c r="C151" t="n">
-        <v>0.04784996137096272</v>
+        <v>0.07637902354897509</v>
       </c>
       <c r="D151" t="n">
-        <v>1.90895393767138</v>
+        <v>1.856260995361972</v>
       </c>
       <c r="E151" t="n">
-        <v>18.90350812050953</v>
+        <v>18.10435142430543</v>
       </c>
       <c r="F151" t="n">
-        <v>0.1776783439891813</v>
+        <v>0.1751025422331205</v>
       </c>
       <c r="G151" t="n">
-        <v>6096.946162936069</v>
+        <v>6059.266587997483</v>
       </c>
       <c r="H151" t="n">
-        <v>3.12696097823193</v>
+        <v>2.27048184289202</v>
       </c>
     </row>
     <row r="152">
@@ -4682,25 +4682,25 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>4.306390293433568</v>
+        <v>4.408962545078387</v>
       </c>
       <c r="C152" t="n">
-        <v>0.04800995732106027</v>
+        <v>0.1059100915509306</v>
       </c>
       <c r="D152" t="n">
-        <v>1.90765978619605</v>
+        <v>1.867440042824654</v>
       </c>
       <c r="E152" t="n">
-        <v>18.92634623679303</v>
+        <v>20.66355965578079</v>
       </c>
       <c r="F152" t="n">
-        <v>0.1781082906599325</v>
+        <v>0.1767832027968241</v>
       </c>
       <c r="G152" t="n">
-        <v>6102.477263082686</v>
+        <v>6150.865106971988</v>
       </c>
       <c r="H152" t="n">
-        <v>2.89829358035377</v>
+        <v>0.560456671881768</v>
       </c>
     </row>
     <row r="153">
@@ -4710,25 +4710,25 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>4.311477918268464</v>
+        <v>4.755070350702303</v>
       </c>
       <c r="C153" t="n">
-        <v>0.04775620745740151</v>
+        <v>0.07581610854626838</v>
       </c>
       <c r="D153" t="n">
-        <v>1.943861547878278</v>
+        <v>1.937942091050683</v>
       </c>
       <c r="E153" t="n">
-        <v>18.91793634341666</v>
+        <v>17.9705130751229</v>
       </c>
       <c r="F153" t="n">
-        <v>0.1779162212737063</v>
+        <v>0.1793315064807155</v>
       </c>
       <c r="G153" t="n">
-        <v>6105.230196306282</v>
+        <v>6072.778991740902</v>
       </c>
       <c r="H153" t="n">
-        <v>3.24120036077929</v>
+        <v>2.60240203807267</v>
       </c>
     </row>
     <row r="154">
@@ -4738,25 +4738,25 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>4.310490794432352</v>
+        <v>4.492710890853097</v>
       </c>
       <c r="C154" t="n">
-        <v>0.04766245833262632</v>
+        <v>0.06975850853469728</v>
       </c>
       <c r="D154" t="n">
-        <v>1.946020698133069</v>
+        <v>1.93985731605363</v>
       </c>
       <c r="E154" t="n">
-        <v>18.91429656119216</v>
+        <v>17.36929882828183</v>
       </c>
       <c r="F154" t="n">
-        <v>0.1779210929132714</v>
+        <v>0.1818268816668135</v>
       </c>
       <c r="G154" t="n">
-        <v>6104.335765743404</v>
+        <v>6050.926823158195</v>
       </c>
       <c r="H154" t="n">
-        <v>3.32942440837386</v>
+        <v>3.46411009680041</v>
       </c>
     </row>
     <row r="155">
@@ -4766,25 +4766,25 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>4.314344872242937</v>
+        <v>5.136792308609727</v>
       </c>
       <c r="C155" t="n">
-        <v>0.04785148343077604</v>
+        <v>0.08544617222264446</v>
       </c>
       <c r="D155" t="n">
-        <v>1.950106512699915</v>
+        <v>1.955967482536963</v>
       </c>
       <c r="E155" t="n">
-        <v>18.92291278536717</v>
+        <v>18.27542288039643</v>
       </c>
       <c r="F155" t="n">
-        <v>0.1783763630773746</v>
+        <v>0.189146871852754</v>
       </c>
       <c r="G155" t="n">
-        <v>6107.54618494155</v>
+        <v>6092.24632484433</v>
       </c>
       <c r="H155" t="n">
-        <v>3.16899851207104</v>
+        <v>1.78017687273255</v>
       </c>
     </row>
     <row r="156">
@@ -4794,25 +4794,25 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>4.314813431932199</v>
+        <v>5.045496848776232</v>
       </c>
       <c r="C156" t="n">
-        <v>0.04775576806451076</v>
+        <v>0.07782728540602404</v>
       </c>
       <c r="D156" t="n">
-        <v>1.960789310979921</v>
+        <v>1.978999743586838</v>
       </c>
       <c r="E156" t="n">
-        <v>18.92297450777681</v>
+        <v>17.62615453272961</v>
       </c>
       <c r="F156" t="n">
-        <v>0.178078690222444</v>
+        <v>0.1827416881159077</v>
       </c>
       <c r="G156" t="n">
-        <v>6108.167352974965</v>
+        <v>6068.953940519677</v>
       </c>
       <c r="H156" t="n">
-        <v>3.27240712345103</v>
+        <v>2.69232460576454</v>
       </c>
     </row>
     <row r="157">
@@ -4822,25 +4822,25 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>4.312061589478414</v>
+        <v>4.858904463384905</v>
       </c>
       <c r="C157" t="n">
-        <v>0.04778811875342218</v>
+        <v>0.07771491759859424</v>
       </c>
       <c r="D157" t="n">
-        <v>1.94187847404672</v>
+        <v>1.932833561786947</v>
       </c>
       <c r="E157" t="n">
-        <v>18.91658953818511</v>
+        <v>17.91931473572125</v>
       </c>
       <c r="F157" t="n">
-        <v>0.1779273690949064</v>
+        <v>0.1802649262472714</v>
       </c>
       <c r="G157" t="n">
-        <v>6104.690728432694</v>
+        <v>6070.362640034701</v>
       </c>
       <c r="H157" t="n">
-        <v>3.21843640648819</v>
+        <v>2.47156613393532</v>
       </c>
     </row>
     <row r="158">
@@ -4850,25 +4850,25 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>4.314420005212279</v>
+        <v>5.216766713637311</v>
       </c>
       <c r="C158" t="n">
-        <v>0.0479841720614206</v>
+        <v>0.1055308628462956</v>
       </c>
       <c r="D158" t="n">
-        <v>1.939061570173474</v>
+        <v>1.932968685275949</v>
       </c>
       <c r="E158" t="n">
-        <v>18.92493475911498</v>
+        <v>19.14322697746304</v>
       </c>
       <c r="F158" t="n">
-        <v>0.1781676299698055</v>
+        <v>0.1774064013313225</v>
       </c>
       <c r="G158" t="n">
-        <v>6106.860434747367</v>
+        <v>6115.74743915372</v>
       </c>
       <c r="H158" t="n">
-        <v>3.03537594812265</v>
+        <v>0.841265376302852</v>
       </c>
     </row>
     <row r="159">
@@ -4878,25 +4878,25 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>4.314651242181243</v>
+        <v>5.493567051432754</v>
       </c>
       <c r="C159" t="n">
-        <v>0.04819385775997188</v>
+        <v>0.1117871857076696</v>
       </c>
       <c r="D159" t="n">
-        <v>1.908091688180606</v>
+        <v>1.855140025957159</v>
       </c>
       <c r="E159" t="n">
-        <v>18.90232430550024</v>
+        <v>18.07625890164513</v>
       </c>
       <c r="F159" t="n">
-        <v>0.17826247855945</v>
+        <v>0.1884852925093793</v>
       </c>
       <c r="G159" t="n">
-        <v>6097.001856310721</v>
+        <v>6064.251397848226</v>
       </c>
       <c r="H159" t="n">
-        <v>2.94892768924352</v>
+        <v>0.952250592746917</v>
       </c>
     </row>
     <row r="160">
@@ -4906,25 +4906,25 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>4.306538890328619</v>
+        <v>5.095269901994508</v>
       </c>
       <c r="C160" t="n">
-        <v>0.04832579877503382</v>
+        <v>0.09295242935880338</v>
       </c>
       <c r="D160" t="n">
-        <v>1.855929223584151</v>
+        <v>1.739035480295828</v>
       </c>
       <c r="E160" t="n">
-        <v>18.86576979983501</v>
+        <v>16.86840234637331</v>
       </c>
       <c r="F160" t="n">
-        <v>0.1771868505811327</v>
+        <v>0.1765714170087128</v>
       </c>
       <c r="G160" t="n">
-        <v>6078.282341244058</v>
+        <v>5992.471136156887</v>
       </c>
       <c r="H160" t="n">
-        <v>2.92275493433353</v>
+        <v>1.82750476320039</v>
       </c>
     </row>
     <row r="161">
@@ -4934,25 +4934,25 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>4.303381326814936</v>
+        <v>4.298104798254462</v>
       </c>
       <c r="C161" t="n">
-        <v>0.04827359686582832</v>
+        <v>0.1569337141763611</v>
       </c>
       <c r="D161" t="n">
-        <v>1.876302632463027</v>
+        <v>1.801599571794496</v>
       </c>
       <c r="E161" t="n">
-        <v>18.91869918430942</v>
+        <v>20.94852672023007</v>
       </c>
       <c r="F161" t="n">
-        <v>0.1781994739170858</v>
+        <v>0.1871031785200581</v>
       </c>
       <c r="G161" t="n">
-        <v>6094.386569427032</v>
+        <v>6143.127031302895</v>
       </c>
       <c r="H161" t="n">
-        <v>2.72768174541495</v>
+        <v>0.313338372332411</v>
       </c>
     </row>
     <row r="162">
@@ -4962,25 +4962,25 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>4.316610316245047</v>
+        <v>5.662543213363643</v>
       </c>
       <c r="C162" t="n">
-        <v>0.04809746291932533</v>
+        <v>0.1046945595317015</v>
       </c>
       <c r="D162" t="n">
-        <v>1.927037741957955</v>
+        <v>1.895392914680839</v>
       </c>
       <c r="E162" t="n">
-        <v>18.90626102502776</v>
+        <v>17.53935191521493</v>
       </c>
       <c r="F162" t="n">
-        <v>0.1779344433383481</v>
+        <v>0.1835354582703987</v>
       </c>
       <c r="G162" t="n">
-        <v>6100.476292267306</v>
+        <v>6051.922135089724</v>
       </c>
       <c r="H162" t="n">
-        <v>3.06506413200194</v>
+        <v>1.36947288143835</v>
       </c>
     </row>
     <row r="163">
@@ -4990,25 +4990,25 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>4.310778814696841</v>
+        <v>4.736198478398129</v>
       </c>
       <c r="C163" t="n">
-        <v>0.04778311725196251</v>
+        <v>0.07559244563866971</v>
       </c>
       <c r="D163" t="n">
-        <v>1.926418138892862</v>
+        <v>1.889626018402721</v>
       </c>
       <c r="E163" t="n">
-        <v>18.90048946057008</v>
+        <v>16.85042321760148</v>
       </c>
       <c r="F163" t="n">
-        <v>0.17772401472599</v>
+        <v>0.1814106317870282</v>
       </c>
       <c r="G163" t="n">
-        <v>6098.57787415017</v>
+        <v>6023.167560290768</v>
       </c>
       <c r="H163" t="n">
-        <v>3.25773849556913</v>
+        <v>3.31380649927813</v>
       </c>
     </row>
     <row r="164">
@@ -5018,25 +5018,25 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>4.314013714595263</v>
+        <v>5.215303979102586</v>
       </c>
       <c r="C164" t="n">
-        <v>0.047914867170533</v>
+        <v>0.08629637680419945</v>
       </c>
       <c r="D164" t="n">
-        <v>1.932984409353439</v>
+        <v>1.909346210688896</v>
       </c>
       <c r="E164" t="n">
-        <v>18.90970759193944</v>
+        <v>17.59450683508853</v>
       </c>
       <c r="F164" t="n">
-        <v>0.1777217005615936</v>
+        <v>0.1766665950453898</v>
       </c>
       <c r="G164" t="n">
-        <v>6101.862884381513</v>
+        <v>6053.483652404208</v>
       </c>
       <c r="H164" t="n">
-        <v>3.1523803778439</v>
+        <v>2.11235211004033</v>
       </c>
     </row>
     <row r="165">
@@ -5046,25 +5046,25 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>4.316095354652384</v>
+        <v>5.311798949478373</v>
       </c>
       <c r="C165" t="n">
-        <v>0.04784154017742069</v>
+        <v>0.08551556747442346</v>
       </c>
       <c r="D165" t="n">
-        <v>1.957584304604066</v>
+        <v>1.971786507004242</v>
       </c>
       <c r="E165" t="n">
-        <v>18.92279687402999</v>
+        <v>17.81358870294985</v>
       </c>
       <c r="F165" t="n">
-        <v>0.1780041545068315</v>
+        <v>0.1798977352407661</v>
       </c>
       <c r="G165" t="n">
-        <v>6107.916072551942</v>
+        <v>6074.542546413261</v>
       </c>
       <c r="H165" t="n">
-        <v>3.20668493224437</v>
+        <v>2.06044237669674</v>
       </c>
     </row>
     <row r="166">
@@ -5074,25 +5074,25 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>4.314011342843562</v>
+        <v>5.041563284849432</v>
       </c>
       <c r="C166" t="n">
-        <v>0.04779936369915146</v>
+        <v>0.0797041846530553</v>
       </c>
       <c r="D166" t="n">
-        <v>1.949350805346872</v>
+        <v>1.950327311967402</v>
       </c>
       <c r="E166" t="n">
-        <v>18.91748884074626</v>
+        <v>17.61107720894798</v>
       </c>
       <c r="F166" t="n">
-        <v>0.1783375864861037</v>
+        <v>0.191599466920185</v>
       </c>
       <c r="G166" t="n">
-        <v>6105.892704200475</v>
+        <v>6066.928753597816</v>
       </c>
       <c r="H166" t="n">
-        <v>3.230033847916</v>
+        <v>2.53117392560045</v>
       </c>
     </row>
     <row r="167">
@@ -5102,25 +5102,25 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>4.315861218080519</v>
+        <v>5.317468234096279</v>
       </c>
       <c r="C167" t="n">
-        <v>0.04794640233923779</v>
+        <v>0.1074163486462312</v>
       </c>
       <c r="D167" t="n">
-        <v>1.952700508783515</v>
+        <v>1.966856244454844</v>
       </c>
       <c r="E167" t="n">
-        <v>18.93066331245877</v>
+        <v>19.15526955052125</v>
       </c>
       <c r="F167" t="n">
-        <v>0.1780695785255477</v>
+        <v>0.1712272397263306</v>
       </c>
       <c r="G167" t="n">
-        <v>6109.850437040224</v>
+        <v>6122.609742710161</v>
       </c>
       <c r="H167" t="n">
-        <v>3.07356261810528</v>
+        <v>0.840072660348071</v>
       </c>
     </row>
     <row r="168">
@@ -5130,25 +5130,25 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>4.316392831663033</v>
+        <v>5.200914773498508</v>
       </c>
       <c r="C168" t="n">
-        <v>0.04775325538134133</v>
+        <v>0.07975926513281137</v>
       </c>
       <c r="D168" t="n">
-        <v>1.973381428783434</v>
+        <v>2.013242404567921</v>
       </c>
       <c r="E168" t="n">
-        <v>18.92998132969807</v>
+        <v>17.79412155746182</v>
       </c>
       <c r="F168" t="n">
-        <v>0.178171296375743</v>
+        <v>0.1824789771930448</v>
       </c>
       <c r="G168" t="n">
-        <v>6111.086982444248</v>
+        <v>6081.693780164371</v>
       </c>
       <c r="H168" t="n">
-        <v>3.2770419591195</v>
+        <v>2.46148097926412</v>
       </c>
     </row>
     <row r="169">
@@ -5158,25 +5158,25 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>4.31287807196389</v>
+        <v>4.948122593172368</v>
       </c>
       <c r="C169" t="n">
-        <v>0.04780017903197682</v>
+        <v>0.0775694550959776</v>
       </c>
       <c r="D169" t="n">
-        <v>1.938029903747053</v>
+        <v>1.920035605523984</v>
       </c>
       <c r="E169" t="n">
-        <v>18.90996324749793</v>
+        <v>17.32226329909397</v>
       </c>
       <c r="F169" t="n">
-        <v>0.1778239382846676</v>
+        <v>0.1804072193012266</v>
       </c>
       <c r="G169" t="n">
-        <v>6102.440620376489</v>
+        <v>6045.986508446935</v>
       </c>
       <c r="H169" t="n">
-        <v>3.22651230669361</v>
+        <v>2.81704387931405</v>
       </c>
     </row>
     <row r="170">
@@ -5186,25 +5186,25 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>4.316086949010645</v>
+        <v>5.479357902300086</v>
       </c>
       <c r="C170" t="n">
-        <v>0.04797444423674858</v>
+        <v>0.09296247252210618</v>
       </c>
       <c r="D170" t="n">
-        <v>1.936432704053836</v>
+        <v>1.918029248701234</v>
       </c>
       <c r="E170" t="n">
-        <v>18.9116360576526</v>
+        <v>17.64543361708074</v>
       </c>
       <c r="F170" t="n">
-        <v>0.1777679224882152</v>
+        <v>0.176950049916279</v>
       </c>
       <c r="G170" t="n">
-        <v>6102.823576771575</v>
+        <v>6057.649452456273</v>
       </c>
       <c r="H170" t="n">
-        <v>3.1122114096255</v>
+        <v>1.69282060696754</v>
       </c>
     </row>
     <row r="171">
@@ -5214,25 +5214,25 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>4.317454920854344</v>
+        <v>5.487488714832434</v>
       </c>
       <c r="C171" t="n">
-        <v>0.04794735011071255</v>
+        <v>0.1128191672258263</v>
       </c>
       <c r="D171" t="n">
-        <v>1.960709645628343</v>
+        <v>1.986865879132719</v>
       </c>
       <c r="E171" t="n">
-        <v>18.93272049986917</v>
+        <v>18.9909890360219</v>
       </c>
       <c r="F171" t="n">
-        <v>0.1782696046920738</v>
+        <v>0.1781954374024082</v>
       </c>
       <c r="G171" t="n">
-        <v>6111.293818272363</v>
+        <v>6123.264452328171</v>
       </c>
       <c r="H171" t="n">
-        <v>3.08052687297538</v>
+        <v>0.795439358305981</v>
       </c>
     </row>
     <row r="172">
@@ -5242,25 +5242,25 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>4.313577624997427</v>
+        <v>5.054967138311651</v>
       </c>
       <c r="C172" t="n">
-        <v>0.04783216459188445</v>
+        <v>0.07924682001677549</v>
       </c>
       <c r="D172" t="n">
-        <v>1.934600002682509</v>
+        <v>1.910032361100698</v>
       </c>
       <c r="E172" t="n">
-        <v>18.90588753939751</v>
+        <v>17.03115075737087</v>
       </c>
       <c r="F172" t="n">
-        <v>0.1777182249773879</v>
+        <v>0.1790180745596584</v>
       </c>
       <c r="G172" t="n">
-        <v>6100.947912060993</v>
+        <v>6033.110818931927</v>
       </c>
       <c r="H172" t="n">
-        <v>3.21591277225058</v>
+        <v>2.86149002071312</v>
       </c>
     </row>
     <row r="173">
@@ -5270,25 +5270,25 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>4.317105998671439</v>
+        <v>5.568560429932532</v>
       </c>
       <c r="C173" t="n">
-        <v>0.04817261039078004</v>
+        <v>0.1700941748611222</v>
       </c>
       <c r="D173" t="n">
-        <v>1.932072595497234</v>
+        <v>1.916478779926239</v>
       </c>
       <c r="E173" t="n">
-        <v>18.92272041668266</v>
+        <v>19.24844296304617</v>
       </c>
       <c r="F173" t="n">
-        <v>0.1779727556077147</v>
+        <v>0.1690280204404853</v>
       </c>
       <c r="G173" t="n">
-        <v>6105.411275295749</v>
+        <v>6114.734327047406</v>
       </c>
       <c r="H173" t="n">
-        <v>2.92688861331319</v>
+        <v>0.408343857156916</v>
       </c>
     </row>
     <row r="174">
@@ -5298,25 +5298,25 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>4.317706014220943</v>
+        <v>5.640678575154271</v>
       </c>
       <c r="C174" t="n">
-        <v>0.04798021962305955</v>
+        <v>0.0971680729714005</v>
       </c>
       <c r="D174" t="n">
-        <v>1.945174074764623</v>
+        <v>1.940103450408539</v>
       </c>
       <c r="E174" t="n">
-        <v>18.91640454457687</v>
+        <v>17.74513392303423</v>
       </c>
       <c r="F174" t="n">
-        <v>0.1778703847177524</v>
+        <v>0.1779179199905026</v>
       </c>
       <c r="G174" t="n">
-        <v>6105.080408409762</v>
+        <v>6066.180722589283</v>
       </c>
       <c r="H174" t="n">
-        <v>3.10428811404008</v>
+        <v>1.4692740080283</v>
       </c>
     </row>
     <row r="175">
@@ -5326,25 +5326,25 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>4.315069160306216</v>
+        <v>5.394163514631972</v>
       </c>
       <c r="C175" t="n">
-        <v>0.04798348987425551</v>
+        <v>0.09098819504311086</v>
       </c>
       <c r="D175" t="n">
-        <v>1.928993072105109</v>
+        <v>1.899675233202179</v>
       </c>
       <c r="E175" t="n">
-        <v>18.9074311131121</v>
+        <v>17.55403220071726</v>
       </c>
       <c r="F175" t="n">
-        <v>0.1777024685934567</v>
+        <v>0.1769228184055437</v>
       </c>
       <c r="G175" t="n">
-        <v>6100.839225739722</v>
+        <v>6050.557596640101</v>
       </c>
       <c r="H175" t="n">
-        <v>3.10624229586046</v>
+        <v>1.80974606026946</v>
       </c>
     </row>
     <row r="176">
@@ -5354,25 +5354,25 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>4.317085334374782</v>
+        <v>5.642199715824114</v>
       </c>
       <c r="C176" t="n">
-        <v>0.04818796545552571</v>
+        <v>0.1495888702938892</v>
       </c>
       <c r="D176" t="n">
-        <v>1.927089129383399</v>
+        <v>1.902078413327554</v>
       </c>
       <c r="E176" t="n">
-        <v>18.91728641548455</v>
+        <v>18.84088886493335</v>
       </c>
       <c r="F176" t="n">
-        <v>0.1776296703541239</v>
+        <v>0.1622808247148343</v>
       </c>
       <c r="G176" t="n">
-        <v>6103.190667222864</v>
+        <v>6095.263882115309</v>
       </c>
       <c r="H176" t="n">
-        <v>2.9415718980493</v>
+        <v>0.5318254667761469</v>
       </c>
     </row>
     <row r="177">
@@ -5382,25 +5382,25 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>4.31791946162388</v>
+        <v>5.83191196058263</v>
       </c>
       <c r="C177" t="n">
-        <v>0.04817597087102562</v>
+        <v>0.1057626870977536</v>
       </c>
       <c r="D177" t="n">
-        <v>1.91508669088145</v>
+        <v>1.865331056173337</v>
       </c>
       <c r="E177" t="n">
-        <v>18.89716640170861</v>
+        <v>17.15457020502804</v>
       </c>
       <c r="F177" t="n">
-        <v>0.1776177559347612</v>
+        <v>0.1783810958966997</v>
       </c>
       <c r="G177" t="n">
-        <v>6096.516652330129</v>
+        <v>6030.810644297924</v>
       </c>
       <c r="H177" t="n">
-        <v>2.99273385589401</v>
+        <v>1.36882399683262</v>
       </c>
     </row>
     <row r="178">
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>4.314262965263161</v>
+        <v>5.164262653737817</v>
       </c>
       <c r="C178" t="n">
-        <v>0.04786091478665594</v>
+        <v>0.08246184253485189</v>
       </c>
       <c r="D178" t="n">
-        <v>1.938823403178521</v>
+        <v>1.92246294624267</v>
       </c>
       <c r="E178" t="n">
-        <v>18.91097283352161</v>
+        <v>17.41201999867339</v>
       </c>
       <c r="F178" t="n">
-        <v>0.1777925304422747</v>
+        <v>0.1786896400788178</v>
       </c>
       <c r="G178" t="n">
-        <v>6102.826082305084</v>
+        <v>6049.652277659621</v>
       </c>
       <c r="H178" t="n">
-        <v>3.18991291323296</v>
+        <v>2.42548248087766</v>
       </c>
     </row>
     <row r="179">
@@ -5438,25 +5438,25 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>4.318471342129223</v>
+        <v>5.499972166625477</v>
       </c>
       <c r="C179" t="n">
-        <v>0.04816827467614489</v>
+        <v>0.3377318715826997</v>
       </c>
       <c r="D179" t="n">
-        <v>1.950622627058209</v>
+        <v>1.968858313201149</v>
       </c>
       <c r="E179" t="n">
-        <v>18.93924555344228</v>
+        <v>20.43442766944688</v>
       </c>
       <c r="F179" t="n">
-        <v>0.1781326373301002</v>
+        <v>0.1618143464003071</v>
       </c>
       <c r="G179" t="n">
-        <v>6112.248140885005</v>
+        <v>6170.036240532558</v>
       </c>
       <c r="H179" t="n">
-        <v>2.88632908473604</v>
+        <v>0.206192819132561</v>
       </c>
     </row>
     <row r="180">
@@ -5466,25 +5466,25 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>4.317112716226213</v>
+        <v>5.319858818790699</v>
       </c>
       <c r="C180" t="n">
-        <v>0.04777918840008231</v>
+        <v>0.08118127064925781</v>
       </c>
       <c r="D180" t="n">
-        <v>1.969692274026886</v>
+        <v>2.001922344330041</v>
       </c>
       <c r="E180" t="n">
-        <v>18.92649404687756</v>
+        <v>17.54889947425877</v>
       </c>
       <c r="F180" t="n">
-        <v>0.1781118691403586</v>
+        <v>0.1822369602789828</v>
       </c>
       <c r="G180" t="n">
-        <v>6109.799789931083</v>
+        <v>6070.150739475068</v>
       </c>
       <c r="H180" t="n">
-        <v>3.25661172040821</v>
+        <v>2.45256646362048</v>
       </c>
     </row>
     <row r="181">
@@ -5494,25 +5494,25 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>4.325606631890053</v>
+        <v>6.828305200432919</v>
       </c>
       <c r="C181" t="n">
-        <v>0.04825022580824555</v>
+        <v>0.2203488931432679</v>
       </c>
       <c r="D181" t="n">
-        <v>1.95833890192048</v>
+        <v>1.9716740979382</v>
       </c>
       <c r="E181" t="n">
-        <v>18.91965725021172</v>
+        <v>17.41813067331627</v>
       </c>
       <c r="F181" t="n">
-        <v>0.1779039204452003</v>
+        <v>0.176052175367183</v>
       </c>
       <c r="G181" t="n">
-        <v>6107.25530112499</v>
+        <v>6061.341234806968</v>
       </c>
       <c r="H181" t="n">
-        <v>2.98792156799337</v>
+        <v>0.473763214033669</v>
       </c>
     </row>
     <row r="182">
@@ -5522,25 +5522,25 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>4.317910228267175</v>
+        <v>5.661238394179934</v>
       </c>
       <c r="C182" t="n">
-        <v>0.04811730294636093</v>
+        <v>0.1481818292249684</v>
       </c>
       <c r="D182" t="n">
-        <v>1.940634024767828</v>
+        <v>1.935634007052893</v>
       </c>
       <c r="E182" t="n">
-        <v>18.92373366122515</v>
+        <v>18.93613033055956</v>
       </c>
       <c r="F182" t="n">
-        <v>0.178025548708151</v>
+        <v>0.1717052086653061</v>
       </c>
       <c r="G182" t="n">
-        <v>6106.742263974904</v>
+        <v>6108.733498879365</v>
       </c>
       <c r="H182" t="n">
-        <v>2.97783705896134</v>
+        <v>0.531074808738965</v>
       </c>
     </row>
     <row r="183">
@@ -5550,25 +5550,25 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>4.316244575511969</v>
+        <v>5.257157267529292</v>
       </c>
       <c r="C183" t="n">
-        <v>0.04779652483209106</v>
+        <v>0.08223754360090067</v>
       </c>
       <c r="D183" t="n">
-        <v>1.964489246119556</v>
+        <v>1.990101750584571</v>
       </c>
       <c r="E183" t="n">
-        <v>18.92641998597879</v>
+        <v>17.87214068158381</v>
       </c>
       <c r="F183" t="n">
-        <v>0.1781008637597151</v>
+        <v>0.1816349150314864</v>
       </c>
       <c r="G183" t="n">
-        <v>6109.498033281125</v>
+        <v>6080.558959478972</v>
       </c>
       <c r="H183" t="n">
-        <v>3.22817156989702</v>
+        <v>2.19362838641111</v>
       </c>
     </row>
     <row r="184">
@@ -5578,25 +5578,25 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>4.316992068181599</v>
+        <v>5.532037938035594</v>
       </c>
       <c r="C184" t="n">
-        <v>0.04793869988600553</v>
+        <v>0.09075963802361879</v>
       </c>
       <c r="D184" t="n">
-        <v>1.943702759786829</v>
+        <v>1.93391524886057</v>
       </c>
       <c r="E184" t="n">
-        <v>18.9122621643381</v>
+        <v>17.30011890531957</v>
       </c>
       <c r="F184" t="n">
-        <v>0.177850545359474</v>
+        <v>0.1798323772197832</v>
       </c>
       <c r="G184" t="n">
-        <v>6103.72962168361</v>
+        <v>6048.594546086253</v>
       </c>
       <c r="H184" t="n">
-        <v>3.15612331269439</v>
+        <v>1.98406367834853</v>
       </c>
     </row>
     <row r="185">
@@ -5606,25 +5606,25 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>4.318185946789103</v>
+        <v>5.831438111905983</v>
       </c>
       <c r="C185" t="n">
-        <v>0.04819851194009726</v>
+        <v>0.1337946284063818</v>
       </c>
       <c r="D185" t="n">
-        <v>1.926348038113939</v>
+        <v>1.897018151808993</v>
       </c>
       <c r="E185" t="n">
-        <v>18.91122988719741</v>
+        <v>18.17201947469357</v>
       </c>
       <c r="F185" t="n">
-        <v>0.1777817572109658</v>
+        <v>0.1736108760476427</v>
       </c>
       <c r="G185" t="n">
-        <v>6101.655449760262</v>
+        <v>6073.045798883567</v>
       </c>
       <c r="H185" t="n">
-        <v>2.96547915338426</v>
+        <v>0.737065613550233</v>
       </c>
     </row>
     <row r="186">
@@ -5634,25 +5634,25 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>4.326428168203495</v>
+        <v>6.928017594752772</v>
       </c>
       <c r="C186" t="n">
-        <v>0.04830431814858209</v>
+        <v>0.2823028573741742</v>
       </c>
       <c r="D186" t="n">
-        <v>1.956974704730889</v>
+        <v>1.969151555335585</v>
       </c>
       <c r="E186" t="n">
-        <v>18.92007371504568</v>
+        <v>17.56969870023284</v>
       </c>
       <c r="F186" t="n">
-        <v>0.1779383155630418</v>
+        <v>0.1765790122831593</v>
       </c>
       <c r="G186" t="n">
-        <v>6107.349255262019</v>
+        <v>6067.237374489809</v>
       </c>
       <c r="H186" t="n">
-        <v>2.943823627747</v>
+        <v>0.364555108583961</v>
       </c>
     </row>
     <row r="187">
@@ -5662,25 +5662,25 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>4.315819056834051</v>
+        <v>5.328680619995254</v>
       </c>
       <c r="C187" t="n">
-        <v>0.04787320144718066</v>
+        <v>0.08464566855129969</v>
       </c>
       <c r="D187" t="n">
-        <v>1.945356159180906</v>
+        <v>1.937988820248086</v>
       </c>
       <c r="E187" t="n">
-        <v>18.91311232391757</v>
+        <v>17.29842347534488</v>
       </c>
       <c r="F187" t="n">
-        <v>0.1778931727924213</v>
+        <v>0.181075378784578</v>
       </c>
       <c r="G187" t="n">
-        <v>6104.095509723469</v>
+        <v>6049.198496263718</v>
       </c>
       <c r="H187" t="n">
-        <v>3.19323452002307</v>
+        <v>2.33403798862058</v>
       </c>
     </row>
     <row r="188">
@@ -5690,25 +5690,25 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>4.320152724193139</v>
+        <v>6.022250062593828</v>
       </c>
       <c r="C188" t="n">
-        <v>0.04809246709640635</v>
+        <v>0.1110716764441118</v>
       </c>
       <c r="D188" t="n">
-        <v>1.941557998066048</v>
+        <v>1.928890514062018</v>
       </c>
       <c r="E188" t="n">
-        <v>18.91121260203809</v>
+        <v>17.32136617357804</v>
       </c>
       <c r="F188" t="n">
-        <v>0.1778345745746875</v>
+        <v>0.1792427905454033</v>
       </c>
       <c r="G188" t="n">
-        <v>6103.338453927857</v>
+        <v>6049.339428461963</v>
       </c>
       <c r="H188" t="n">
-        <v>3.06088573975307</v>
+        <v>1.25756115338708</v>
       </c>
     </row>
     <row r="189">
@@ -5718,25 +5718,25 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>4.318399517897455</v>
+        <v>5.541635333634802</v>
       </c>
       <c r="C189" t="n">
-        <v>0.04803890290050118</v>
+        <v>0.1890378838917895</v>
       </c>
       <c r="D189" t="n">
-        <v>1.961576456285867</v>
+        <v>1.993453980275196</v>
       </c>
       <c r="E189" t="n">
-        <v>18.93866754814501</v>
+        <v>19.77375479188883</v>
       </c>
       <c r="F189" t="n">
-        <v>0.1782527690885246</v>
+        <v>0.1703427514304991</v>
       </c>
       <c r="G189" t="n">
-        <v>6113.156896818568</v>
+        <v>6152.900345482106</v>
       </c>
       <c r="H189" t="n">
-        <v>2.99554946302517</v>
+        <v>0.329288168595291</v>
       </c>
     </row>
     <row r="190">
@@ -5746,25 +5746,25 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>4.314950644890277</v>
+        <v>5.006191356003422</v>
       </c>
       <c r="C190" t="n">
-        <v>0.04772388251035936</v>
+        <v>0.07544695689421352</v>
       </c>
       <c r="D190" t="n">
-        <v>1.960970415955756</v>
+        <v>1.976499413697212</v>
       </c>
       <c r="E190" t="n">
-        <v>18.91939629718557</v>
+        <v>17.12429023122782</v>
       </c>
       <c r="F190" t="n">
-        <v>0.1780456013142998</v>
+        <v>0.1837108603627909</v>
       </c>
       <c r="G190" t="n">
-        <v>6107.04457498496</v>
+        <v>6049.173466299083</v>
       </c>
       <c r="H190" t="n">
-        <v>3.31102975811727</v>
+        <v>3.18381478428724</v>
       </c>
     </row>
     <row r="191">
@@ -5774,25 +5774,25 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>4.317548322252931</v>
+        <v>5.60913905867894</v>
       </c>
       <c r="C191" t="n">
-        <v>0.04795571760321202</v>
+        <v>0.09385840106953829</v>
       </c>
       <c r="D191" t="n">
-        <v>1.946757484434372</v>
+        <v>1.942796113627517</v>
       </c>
       <c r="E191" t="n">
-        <v>18.91545788464287</v>
+        <v>17.52637325115511</v>
       </c>
       <c r="F191" t="n">
-        <v>0.1778850664349947</v>
+        <v>0.1792227200182235</v>
       </c>
       <c r="G191" t="n">
-        <v>6104.937529229477</v>
+        <v>6058.685805768593</v>
       </c>
       <c r="H191" t="n">
-        <v>3.13691975921418</v>
+        <v>1.70471634271449</v>
       </c>
     </row>
     <row r="192">
@@ -5802,25 +5802,25 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>4.31772405690373</v>
+        <v>5.442602845223671</v>
       </c>
       <c r="C192" t="n">
-        <v>0.0478106796338341</v>
+        <v>0.08558803781121799</v>
       </c>
       <c r="D192" t="n">
-        <v>1.973587225022754</v>
+        <v>2.014222081334818</v>
       </c>
       <c r="E192" t="n">
-        <v>18.93024315001367</v>
+        <v>17.82978614037314</v>
       </c>
       <c r="F192" t="n">
-        <v>0.1782533128476304</v>
+        <v>0.1849389610471372</v>
       </c>
       <c r="G192" t="n">
-        <v>6111.280562459615</v>
+        <v>6084.726499307317</v>
       </c>
       <c r="H192" t="n">
-        <v>3.23455559098759</v>
+        <v>1.99641027660065</v>
       </c>
     </row>
     <row r="193">
@@ -5830,25 +5830,25 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>4.315441112214021</v>
+        <v>5.161760640677961</v>
       </c>
       <c r="C193" t="n">
-        <v>0.04778695094406456</v>
+        <v>0.07984888329086087</v>
       </c>
       <c r="D193" t="n">
-        <v>1.958408549164808</v>
+        <v>1.972263684701785</v>
       </c>
       <c r="E193" t="n">
-        <v>18.92113703518012</v>
+        <v>17.53239392793279</v>
       </c>
       <c r="F193" t="n">
-        <v>0.1780136819928979</v>
+        <v>0.1814553312282576</v>
       </c>
       <c r="G193" t="n">
-        <v>6107.44451607933</v>
+        <v>6063.890474403055</v>
       </c>
       <c r="H193" t="n">
-        <v>3.25049641452944</v>
+        <v>2.56623765626323</v>
       </c>
     </row>
     <row r="194">
@@ -5858,25 +5858,25 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>4.317763972655563</v>
+        <v>5.630839932661051</v>
       </c>
       <c r="C194" t="n">
-        <v>0.04798446974627057</v>
+        <v>0.1053330771715874</v>
       </c>
       <c r="D194" t="n">
-        <v>1.952002345832272</v>
+        <v>1.960384454321974</v>
       </c>
       <c r="E194" t="n">
-        <v>18.92374575255667</v>
+        <v>18.29490442335586</v>
       </c>
       <c r="F194" t="n">
-        <v>0.1779880864884386</v>
+        <v>0.1768901919989796</v>
       </c>
       <c r="G194" t="n">
-        <v>6107.83911190266</v>
+        <v>6090.788160730251</v>
       </c>
       <c r="H194" t="n">
-        <v>3.0927762673449</v>
+        <v>1.08993701792359</v>
       </c>
     </row>
     <row r="195">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>4.317965355548069</v>
+        <v>5.510874106154778</v>
       </c>
       <c r="C195" t="n">
-        <v>0.04784307402742811</v>
+        <v>0.08783381939324673</v>
       </c>
       <c r="D195" t="n">
-        <v>1.969163793448454</v>
+        <v>2.002011730959086</v>
       </c>
       <c r="E195" t="n">
-        <v>18.92788210511818</v>
+        <v>17.79094705689345</v>
       </c>
       <c r="F195" t="n">
-        <v>0.178126908135387</v>
+        <v>0.1816990856469381</v>
       </c>
       <c r="G195" t="n">
-        <v>6110.268357584864</v>
+        <v>6079.981792853893</v>
       </c>
       <c r="H195" t="n">
-        <v>3.21140917593038</v>
+        <v>1.87645827856949</v>
       </c>
     </row>
     <row r="196">
@@ -5914,25 +5914,25 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>4.316103238947516</v>
+        <v>5.067782498143309</v>
       </c>
       <c r="C196" t="n">
-        <v>0.04769816886701231</v>
+        <v>0.07632344183547397</v>
       </c>
       <c r="D196" t="n">
-        <v>1.983763692788678</v>
+        <v>2.042031206929355</v>
       </c>
       <c r="E196" t="n">
-        <v>18.93543541104551</v>
+        <v>17.88368565483183</v>
       </c>
       <c r="F196" t="n">
-        <v>0.1782344575007362</v>
+        <v>0.1821264468420874</v>
       </c>
       <c r="G196" t="n">
-        <v>6113.226398202154</v>
+        <v>6089.70658729456</v>
       </c>
       <c r="H196" t="n">
-        <v>3.33193095460093</v>
+        <v>2.71260165374587</v>
       </c>
     </row>
     <row r="197">
@@ -5942,25 +5942,25 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>4.317477895099536</v>
+        <v>5.355972131937209</v>
       </c>
       <c r="C197" t="n">
-        <v>0.04777152816852411</v>
+        <v>0.0816053935980198</v>
       </c>
       <c r="D197" t="n">
-        <v>1.97577581716353</v>
+        <v>2.018454275693633</v>
       </c>
       <c r="E197" t="n">
-        <v>18.92963414536629</v>
+        <v>17.58807615365262</v>
       </c>
       <c r="F197" t="n">
-        <v>0.1781538245180553</v>
+        <v>0.1822052877014857</v>
       </c>
       <c r="G197" t="n">
-        <v>6111.073110987076</v>
+        <v>6074.435744378682</v>
       </c>
       <c r="H197" t="n">
-        <v>3.27442305181319</v>
+        <v>2.40454686245318</v>
       </c>
     </row>
     <row r="198">
@@ -5970,25 +5970,25 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>4.319577225633187</v>
+        <v>5.803596218259007</v>
       </c>
       <c r="C198" t="n">
-        <v>0.04795098473915657</v>
+        <v>0.1099971875565881</v>
       </c>
       <c r="D198" t="n">
-        <v>1.968778975033466</v>
+        <v>2.004093809755735</v>
       </c>
       <c r="E198" t="n">
-        <v>18.93136949596589</v>
+        <v>18.32243220541954</v>
       </c>
       <c r="F198" t="n">
-        <v>0.1780924384337706</v>
+        <v>0.1772471229083601</v>
       </c>
       <c r="G198" t="n">
-        <v>6111.39419799711</v>
+        <v>6100.778156871846</v>
       </c>
       <c r="H198" t="n">
-        <v>3.11943058953083</v>
+        <v>0.9984577643136781</v>
       </c>
     </row>
     <row r="199">
@@ -5998,25 +5998,25 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>4.316441098662461</v>
+        <v>5.189511125150483</v>
       </c>
       <c r="C199" t="n">
-        <v>0.04774191318562448</v>
+        <v>0.07819250764395889</v>
       </c>
       <c r="D199" t="n">
-        <v>1.972728696560343</v>
+        <v>2.009736373509154</v>
       </c>
       <c r="E199" t="n">
-        <v>18.92770929450268</v>
+        <v>17.50926638393797</v>
       </c>
       <c r="F199" t="n">
-        <v>0.1781277147717012</v>
+        <v>0.1824080942145265</v>
       </c>
       <c r="G199" t="n">
-        <v>6110.289491873519</v>
+        <v>6069.566981433516</v>
       </c>
       <c r="H199" t="n">
-        <v>3.29640192314814</v>
+        <v>2.7151269876619</v>
       </c>
     </row>
     <row r="200">
@@ -6026,25 +6026,25 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>4.318000753232893</v>
+        <v>5.574645615428141</v>
       </c>
       <c r="C200" t="n">
-        <v>0.04792810595412551</v>
+        <v>0.1058836569194928</v>
       </c>
       <c r="D200" t="n">
-        <v>1.965662924658158</v>
+        <v>1.99785886257107</v>
       </c>
       <c r="E200" t="n">
-        <v>18.9326708662013</v>
+        <v>18.68833986572616</v>
       </c>
       <c r="F200" t="n">
-        <v>0.1780721518101648</v>
+        <v>0.1739758509087898</v>
       </c>
       <c r="G200" t="n">
-        <v>6111.554868829387</v>
+        <v>6112.688285396094</v>
       </c>
       <c r="H200" t="n">
-        <v>3.11962610987835</v>
+        <v>0.96484558484262</v>
       </c>
     </row>
     <row r="201">
@@ -6054,25 +6054,25 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>4.318747779750459</v>
+        <v>5.612649225536511</v>
       </c>
       <c r="C201" t="n">
-        <v>0.04784721707836028</v>
+        <v>0.09172667489627406</v>
       </c>
       <c r="D201" t="n">
-        <v>1.977453084393685</v>
+        <v>2.025888276930082</v>
       </c>
       <c r="E201" t="n">
-        <v>18.93351673266212</v>
+        <v>18.05574216255317</v>
       </c>
       <c r="F201" t="n">
-        <v>0.1781970452702425</v>
+        <v>0.1811471428468772</v>
       </c>
       <c r="G201" t="n">
-        <v>6112.493470015612</v>
+        <v>6094.763331614852</v>
       </c>
       <c r="H201" t="n">
-        <v>3.20499360240156</v>
+        <v>1.55216666979829</v>
       </c>
     </row>
     <row r="202">
@@ -6082,25 +6082,25 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>4.316219652042092</v>
+        <v>5.307199444144866</v>
       </c>
       <c r="C202" t="n">
-        <v>0.04782705877392916</v>
+        <v>0.08349360074392724</v>
       </c>
       <c r="D202" t="n">
-        <v>1.960025399838387</v>
+        <v>1.977929477489358</v>
       </c>
       <c r="E202" t="n">
-        <v>18.92374676446984</v>
+        <v>17.79013149999286</v>
       </c>
       <c r="F202" t="n">
-        <v>0.1780182749259062</v>
+        <v>0.1802451560937536</v>
       </c>
       <c r="G202" t="n">
-        <v>6108.369838400784</v>
+        <v>6074.692834742081</v>
       </c>
       <c r="H202" t="n">
-        <v>3.21520628640702</v>
+        <v>2.09865481846332</v>
       </c>
     </row>
     <row r="203">
@@ -6110,25 +6110,25 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>4.31931910973937</v>
+        <v>5.849585145190598</v>
       </c>
       <c r="C203" t="n">
-        <v>0.04812428558724765</v>
+        <v>0.1497952909814868</v>
       </c>
       <c r="D203" t="n">
-        <v>1.945975298021732</v>
+        <v>1.947268061139034</v>
       </c>
       <c r="E203" t="n">
-        <v>18.9237374500551</v>
+        <v>18.65395218329054</v>
       </c>
       <c r="F203" t="n">
-        <v>0.1779468599507116</v>
+        <v>0.171192379637417</v>
       </c>
       <c r="G203" t="n">
-        <v>6107.316831276398</v>
+        <v>6101.129686476054</v>
       </c>
       <c r="H203" t="n">
-        <v>2.99187718600905</v>
+        <v>0.541043368781666</v>
       </c>
     </row>
     <row r="204">
@@ -6138,25 +6138,25 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>4.317957081870882</v>
+        <v>5.540783251766134</v>
       </c>
       <c r="C204" t="n">
-        <v>0.04786136013111091</v>
+        <v>0.09028084729148748</v>
       </c>
       <c r="D204" t="n">
-        <v>1.968732620994976</v>
+        <v>2.001944861566411</v>
       </c>
       <c r="E204" t="n">
-        <v>18.9294449972625</v>
+        <v>18.03544060160769</v>
       </c>
       <c r="F204" t="n">
-        <v>0.1779336238349015</v>
+        <v>0.1729983103409544</v>
       </c>
       <c r="G204" t="n">
-        <v>6110.623277584601</v>
+        <v>6087.005649085357</v>
       </c>
       <c r="H204" t="n">
-        <v>3.19134577536013</v>
+        <v>1.60791114580411</v>
       </c>
     </row>
     <row r="205">
@@ -6166,25 +6166,25 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>4.315566717383596</v>
+        <v>5.268243354566486</v>
       </c>
       <c r="C205" t="n">
-        <v>0.04785279813699506</v>
+        <v>0.07911110213697872</v>
       </c>
       <c r="D205" t="n">
-        <v>1.940515917693015</v>
+        <v>1.927890635109548</v>
       </c>
       <c r="E205" t="n">
-        <v>18.91323095572529</v>
+        <v>17.5990474336239</v>
       </c>
       <c r="F205" t="n">
-        <v>0.1779592819719003</v>
+        <v>0.1833549772044078</v>
       </c>
       <c r="G205" t="n">
-        <v>6103.736159023166</v>
+        <v>6059.10488781068</v>
       </c>
       <c r="H205" t="n">
-        <v>3.12612585200826</v>
+        <v>2.14157334661033</v>
       </c>
     </row>
     <row r="206">
@@ -6194,25 +6194,25 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>4.317884135918699</v>
+        <v>5.722645064537106</v>
       </c>
       <c r="C206" t="n">
-        <v>0.04804742690684434</v>
+        <v>0.1023636994487889</v>
       </c>
       <c r="D206" t="n">
-        <v>1.937853120191396</v>
+        <v>1.922398492948679</v>
       </c>
       <c r="E206" t="n">
-        <v>18.91329129464842</v>
+        <v>17.78237917311392</v>
       </c>
       <c r="F206" t="n">
-        <v>0.1778469607951695</v>
+        <v>0.1785021422363774</v>
       </c>
       <c r="G206" t="n">
-        <v>6103.520511791235</v>
+        <v>6064.479517965307</v>
       </c>
       <c r="H206" t="n">
-        <v>3.05772216287476</v>
+        <v>1.22411081707785</v>
       </c>
     </row>
     <row r="207">
@@ -6222,25 +6222,25 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>4.318250457538627</v>
+        <v>5.397670836942534</v>
       </c>
       <c r="C207" t="n">
-        <v>0.04774131884098382</v>
+        <v>0.08169472337975026</v>
       </c>
       <c r="D207" t="n">
-        <v>1.994220581554488</v>
+        <v>2.07289183475522</v>
       </c>
       <c r="E207" t="n">
-        <v>18.94148710283261</v>
+        <v>18.09581842464853</v>
       </c>
       <c r="F207" t="n">
-        <v>0.1783460840051985</v>
+        <v>0.1829638773543126</v>
       </c>
       <c r="G207" t="n">
-        <v>6115.627581447453</v>
+        <v>6104.53720510301</v>
       </c>
       <c r="H207" t="n">
-        <v>3.29415378724804</v>
+        <v>2.04395495763037</v>
       </c>
     </row>
     <row r="208">
@@ -6250,25 +6250,25 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>4.316841243089366</v>
+        <v>5.295122928788547</v>
       </c>
       <c r="C208" t="n">
-        <v>0.04777554650872982</v>
+        <v>0.08001892607436158</v>
       </c>
       <c r="D208" t="n">
-        <v>1.97077688333048</v>
+        <v>2.005522136758632</v>
       </c>
       <c r="E208" t="n">
-        <v>18.92792887095161</v>
+        <v>17.67676980770818</v>
       </c>
       <c r="F208" t="n">
-        <v>0.1781125993587404</v>
+        <v>0.1817776899924289</v>
       </c>
       <c r="G208" t="n">
-        <v>6110.295495722367</v>
+        <v>6075.417143437851</v>
       </c>
       <c r="H208" t="n">
-        <v>3.25834243668296</v>
+        <v>2.3498899573104</v>
       </c>
     </row>
     <row r="209">
@@ -6278,25 +6278,25 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>4.315487908817847</v>
+        <v>5.326074540309144</v>
       </c>
       <c r="C209" t="n">
-        <v>0.04792468583453046</v>
+        <v>0.09196570319613302</v>
       </c>
       <c r="D209" t="n">
-        <v>1.946331375593972</v>
+        <v>1.946972018932109</v>
       </c>
       <c r="E209" t="n">
-        <v>18.92269064424329</v>
+        <v>18.46680843289582</v>
       </c>
       <c r="F209" t="n">
-        <v>0.177941203633406</v>
+        <v>0.1752976443454219</v>
       </c>
       <c r="G209" t="n">
-        <v>6106.938993415993</v>
+        <v>6093.374632903496</v>
       </c>
       <c r="H209" t="n">
-        <v>3.10342915013726</v>
+        <v>1.29170776368734</v>
       </c>
     </row>
     <row r="210">
@@ -6306,25 +6306,25 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>4.317788445373607</v>
+        <v>5.335744681325145</v>
       </c>
       <c r="C210" t="n">
-        <v>0.04773029585665146</v>
+        <v>0.07784525047403014</v>
       </c>
       <c r="D210" t="n">
-        <v>1.983750330369315</v>
+        <v>2.039792716739492</v>
       </c>
       <c r="E210" t="n">
-        <v>18.93281862330929</v>
+        <v>17.50235584284516</v>
       </c>
       <c r="F210" t="n">
-        <v>0.1782411802888172</v>
+        <v>0.1840959389413302</v>
       </c>
       <c r="G210" t="n">
-        <v>6112.389489187124</v>
+        <v>6074.801914050731</v>
       </c>
       <c r="H210" t="n">
-        <v>3.30572858610591</v>
+        <v>2.58569725624626</v>
       </c>
     </row>
     <row r="211">
@@ -6334,25 +6334,25 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>4.316892032786146</v>
+        <v>5.356665741603811</v>
       </c>
       <c r="C211" t="n">
-        <v>0.04781106346827408</v>
+        <v>0.08164804843131461</v>
       </c>
       <c r="D211" t="n">
-        <v>1.964007925719816</v>
+        <v>1.987156624152577</v>
       </c>
       <c r="E211" t="n">
-        <v>18.92414459154408</v>
+        <v>17.59414330018536</v>
       </c>
       <c r="F211" t="n">
-        <v>0.1780443636824268</v>
+        <v>0.1812908970846818</v>
       </c>
       <c r="G211" t="n">
-        <v>6108.749608346673</v>
+        <v>6068.960543291835</v>
       </c>
       <c r="H211" t="n">
-        <v>3.22981612798834</v>
+        <v>2.23376826200059</v>
       </c>
     </row>
     <row r="212">
@@ -6362,25 +6362,25 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>4.31744246751948</v>
+        <v>5.50391117224578</v>
       </c>
       <c r="C212" t="n">
-        <v>0.04791681442285609</v>
+        <v>0.1003264834979493</v>
       </c>
       <c r="D212" t="n">
-        <v>1.96418336094492</v>
+        <v>1.993871988820024</v>
       </c>
       <c r="E212" t="n">
-        <v>18.93192834099305</v>
+        <v>18.67100874971256</v>
       </c>
       <c r="F212" t="n">
-        <v>0.1780774387122438</v>
+        <v>0.1751073968542937</v>
       </c>
       <c r="G212" t="n">
-        <v>6111.216898422967</v>
+        <v>6111.217312008305</v>
       </c>
       <c r="H212" t="n">
-        <v>3.1289499743054</v>
+        <v>1.02715442212352</v>
       </c>
     </row>
     <row r="213">
@@ -6390,25 +6390,25 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>4.317518984551942</v>
+        <v>5.50886698325337</v>
       </c>
       <c r="C213" t="n">
-        <v>0.04787439076097751</v>
+        <v>0.08745563329723664</v>
       </c>
       <c r="D213" t="n">
-        <v>1.960161082371564</v>
+        <v>1.97862914211671</v>
       </c>
       <c r="E213" t="n">
-        <v>18.92404657240238</v>
+        <v>17.83253530413969</v>
       </c>
       <c r="F213" t="n">
-        <v>0.1780489871003924</v>
+        <v>0.1811526048670979</v>
       </c>
       <c r="G213" t="n">
-        <v>6108.532209272293</v>
+        <v>6077.100307952091</v>
       </c>
       <c r="H213" t="n">
-        <v>3.17160790360279</v>
+        <v>1.71502006654645</v>
       </c>
     </row>
     <row r="214">
@@ -6418,25 +6418,25 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>4.314140678476688</v>
+        <v>5.164209451384423</v>
       </c>
       <c r="C214" t="n">
-        <v>0.04786062197935238</v>
+        <v>0.08008425887351432</v>
       </c>
       <c r="D214" t="n">
-        <v>1.937113503322504</v>
+        <v>1.918370813480457</v>
       </c>
       <c r="E214" t="n">
-        <v>18.9101801033947</v>
+        <v>17.41350758560031</v>
       </c>
       <c r="F214" t="n">
-        <v>0.1778224481845112</v>
+        <v>0.1806383409727379</v>
       </c>
       <c r="G214" t="n">
-        <v>6102.457413488706</v>
+        <v>6049.259648471726</v>
       </c>
       <c r="H214" t="n">
-        <v>3.17727469635693</v>
+        <v>2.35221051269167</v>
       </c>
     </row>
     <row r="215">
@@ -6446,25 +6446,25 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>4.317888762546803</v>
+        <v>5.654436104393751</v>
       </c>
       <c r="C215" t="n">
-        <v>0.04796790896606486</v>
+        <v>0.1000022000952003</v>
       </c>
       <c r="D215" t="n">
-        <v>1.955191877878469</v>
+        <v>1.967297232878424</v>
       </c>
       <c r="E215" t="n">
-        <v>18.92362910526193</v>
+        <v>18.0893849362658</v>
       </c>
       <c r="F215" t="n">
-        <v>0.1779793873805373</v>
+        <v>0.178055868218801</v>
       </c>
       <c r="G215" t="n">
-        <v>6108.053006836845</v>
+        <v>6084.375569112895</v>
       </c>
       <c r="H215" t="n">
-        <v>3.12413798036901</v>
+        <v>1.20861768561288</v>
       </c>
     </row>
     <row r="216">
@@ -6474,25 +6474,25 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>4.317693290632027</v>
+        <v>5.488697489565993</v>
       </c>
       <c r="C216" t="n">
-        <v>0.04784008725898723</v>
+        <v>0.09410950684261224</v>
       </c>
       <c r="D216" t="n">
-        <v>1.985112086365127</v>
+        <v>2.049275715124514</v>
       </c>
       <c r="E216" t="n">
-        <v>18.93939379930598</v>
+        <v>18.41680998903837</v>
       </c>
       <c r="F216" t="n">
-        <v>0.1783620880110642</v>
+        <v>0.1838133044147867</v>
       </c>
       <c r="G216" t="n">
-        <v>6114.778697107555</v>
+        <v>6114.299080358436</v>
       </c>
       <c r="H216" t="n">
-        <v>3.25698597623787</v>
+        <v>1.39568069245827</v>
       </c>
     </row>
     <row r="217">
@@ -6502,25 +6502,25 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>4.315127222722939</v>
+        <v>5.027852414758652</v>
       </c>
       <c r="C217" t="n">
-        <v>0.04772323426391164</v>
+        <v>0.07501971163521591</v>
       </c>
       <c r="D217" t="n">
-        <v>1.969266046379643</v>
+        <v>2.002552332491424</v>
       </c>
       <c r="E217" t="n">
-        <v>18.92868536353486</v>
+        <v>17.87144806052906</v>
       </c>
       <c r="F217" t="n">
-        <v>0.1780963092285443</v>
+        <v>0.1811519277704427</v>
       </c>
       <c r="G217" t="n">
-        <v>6110.407361626053</v>
+        <v>6081.774126237393</v>
       </c>
       <c r="H217" t="n">
-        <v>3.28192641794493</v>
+        <v>2.58178238777013</v>
       </c>
     </row>
     <row r="218">
@@ -6530,25 +6530,25 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>4.318985862324671</v>
+        <v>5.678748222942584</v>
       </c>
       <c r="C218" t="n">
-        <v>0.04811521907127417</v>
+        <v>0.2355450346646556</v>
       </c>
       <c r="D218" t="n">
-        <v>1.961608935176258</v>
+        <v>1.993456556356603</v>
       </c>
       <c r="E218" t="n">
-        <v>18.93852633740355</v>
+        <v>19.76275965698787</v>
       </c>
       <c r="F218" t="n">
-        <v>0.1782177407371061</v>
+        <v>0.168813740667238</v>
       </c>
       <c r="G218" t="n">
-        <v>6113.126415696219</v>
+        <v>6152.359699828582</v>
       </c>
       <c r="H218" t="n">
-        <v>2.99416237300073</v>
+        <v>0.260801799438819</v>
       </c>
     </row>
     <row r="219">
@@ -6558,25 +6558,25 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>4.316179099813971</v>
+        <v>5.327791371360275</v>
       </c>
       <c r="C219" t="n">
-        <v>0.04783554534367589</v>
+        <v>0.08792663065181716</v>
       </c>
       <c r="D219" t="n">
-        <v>1.970620691489536</v>
+        <v>2.00709464111617</v>
       </c>
       <c r="E219" t="n">
-        <v>18.93018079545729</v>
+        <v>18.01037671220113</v>
       </c>
       <c r="F219" t="n">
-        <v>0.1781357038811973</v>
+        <v>0.1810019112125964</v>
       </c>
       <c r="G219" t="n">
-        <v>6111.02517249981</v>
+        <v>6088.801936555448</v>
       </c>
       <c r="H219" t="n">
-        <v>3.26701689701757</v>
+        <v>1.88575173918251</v>
       </c>
     </row>
     <row r="220">
@@ -6586,25 +6586,25 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>4.310431197139605</v>
+        <v>5.179162079263547</v>
       </c>
       <c r="C220" t="n">
-        <v>0.04819025294130159</v>
+        <v>0.09576926498576208</v>
       </c>
       <c r="D220" t="n">
-        <v>1.888406002377945</v>
+        <v>1.811063819333222</v>
       </c>
       <c r="E220" t="n">
-        <v>18.89339564261003</v>
+        <v>18.03881884170229</v>
       </c>
       <c r="F220" t="n">
-        <v>0.1774715018644205</v>
+        <v>0.1704380658899926</v>
       </c>
       <c r="G220" t="n">
-        <v>6091.112997975677</v>
+        <v>6046.926639563309</v>
       </c>
       <c r="H220" t="n">
-        <v>2.93255669932386</v>
+        <v>1.17974264356292</v>
       </c>
     </row>
     <row r="221">
@@ -6614,25 +6614,25 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>4.311418176632436</v>
+        <v>4.753900188707734</v>
       </c>
       <c r="C221" t="n">
-        <v>0.04792297386999041</v>
+        <v>0.1003239882258152</v>
       </c>
       <c r="D221" t="n">
-        <v>1.936997545152144</v>
+        <v>1.933435891130724</v>
       </c>
       <c r="E221" t="n">
-        <v>18.9327935725544</v>
+        <v>20.20056093565066</v>
       </c>
       <c r="F221" t="n">
-        <v>0.1780343749534779</v>
+        <v>0.1670088399312536</v>
       </c>
       <c r="G221" t="n">
-        <v>6108.606885585629</v>
+        <v>6151.177687222094</v>
       </c>
       <c r="H221" t="n">
-        <v>3.0009235247652</v>
+        <v>0.652730809573372</v>
       </c>
     </row>
     <row r="222">
@@ -6642,25 +6642,25 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>4.310833118321638</v>
+        <v>4.385263362291796</v>
       </c>
       <c r="C222" t="n">
-        <v>0.04760390564042185</v>
+        <v>0.06655012649051975</v>
       </c>
       <c r="D222" t="n">
-        <v>1.967706521512817</v>
+        <v>2.00194571849175</v>
       </c>
       <c r="E222" t="n">
-        <v>18.9329284370121</v>
+        <v>18.53608589633907</v>
       </c>
       <c r="F222" t="n">
-        <v>0.1780292452688783</v>
+        <v>0.1758361111349697</v>
       </c>
       <c r="G222" t="n">
-        <v>6111.484155334761</v>
+        <v>6104.798916519958</v>
       </c>
       <c r="H222" t="n">
-        <v>3.33953002027401</v>
+        <v>2.86070726086364</v>
       </c>
     </row>
     <row r="223">
@@ -6670,25 +6670,25 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>4.309727595795716</v>
+        <v>4.02481299081417</v>
       </c>
       <c r="C223" t="n">
-        <v>0.04750369933153192</v>
+        <v>0.06131797569180394</v>
       </c>
       <c r="D223" t="n">
-        <v>1.969651134434514</v>
+        <v>2.000578219024437</v>
       </c>
       <c r="E223" t="n">
-        <v>18.92595487179377</v>
+        <v>17.41421364470757</v>
       </c>
       <c r="F223" t="n">
-        <v>0.1780690115174738</v>
+        <v>0.1818816488984818</v>
       </c>
       <c r="G223" t="n">
-        <v>6109.333757121</v>
+        <v>6061.67629855242</v>
       </c>
       <c r="H223" t="n">
-        <v>3.48019032156417</v>
+        <v>4.14664926767067</v>
       </c>
     </row>
     <row r="224">
@@ -6698,25 +6698,25 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>4.307239916993226</v>
+        <v>5.484071605524907</v>
       </c>
       <c r="C224" t="n">
-        <v>0.04881892062197418</v>
+        <v>0.1237941917775536</v>
       </c>
       <c r="D224" t="n">
-        <v>1.832892560836143</v>
+        <v>1.695937938948014</v>
       </c>
       <c r="E224" t="n">
-        <v>18.85558610451675</v>
+        <v>16.98580294697214</v>
       </c>
       <c r="F224" t="n">
-        <v>0.1766989118498293</v>
+        <v>0.1640239749192476</v>
       </c>
       <c r="G224" t="n">
-        <v>6070.344667881222</v>
+        <v>5983.923268314199</v>
       </c>
       <c r="H224" t="n">
-        <v>2.77833710947182</v>
+        <v>0.890217630370378</v>
       </c>
     </row>
     <row r="225">
@@ -6726,25 +6726,25 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>4.321307372773655</v>
+        <v>6.323561022086663</v>
       </c>
       <c r="C225" t="n">
-        <v>0.04855782840170006</v>
+        <v>0.1617208376257778</v>
       </c>
       <c r="D225" t="n">
-        <v>1.892552722630166</v>
+        <v>1.815402132402997</v>
       </c>
       <c r="E225" t="n">
-        <v>18.8858239320397</v>
+        <v>17.13733537315841</v>
       </c>
       <c r="F225" t="n">
-        <v>0.1773122405323476</v>
+        <v>0.1726320547371719</v>
       </c>
       <c r="G225" t="n">
-        <v>6090.343597139903</v>
+        <v>6019.699194219671</v>
       </c>
       <c r="H225" t="n">
-        <v>2.80069665537083</v>
+        <v>0.6099949755209541</v>
       </c>
     </row>
     <row r="226">
@@ -6754,25 +6754,25 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>4.299645005230948</v>
+        <v>4.285518403724862</v>
       </c>
       <c r="C226" t="n">
-        <v>0.04792213309431036</v>
+        <v>0.07254060893145184</v>
       </c>
       <c r="D226" t="n">
-        <v>1.862997446065611</v>
+        <v>1.751291585792959</v>
       </c>
       <c r="E226" t="n">
-        <v>18.86721332046399</v>
+        <v>16.64084797587975</v>
       </c>
       <c r="F226" t="n">
-        <v>0.1769855138467331</v>
+        <v>0.1743290285778774</v>
       </c>
       <c r="G226" t="n">
-        <v>6079.919510479162</v>
+        <v>5985.371919355029</v>
       </c>
       <c r="H226" t="n">
-        <v>3.11773402873428</v>
+        <v>3.0122563252972</v>
       </c>
     </row>
     <row r="227">
@@ -6782,25 +6782,25 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>4.297193140308595</v>
+        <v>4.277839430104379</v>
       </c>
       <c r="C227" t="n">
-        <v>0.04804998228991795</v>
+        <v>0.07554824974093462</v>
       </c>
       <c r="D227" t="n">
-        <v>1.852414547693957</v>
+        <v>1.738575611217726</v>
       </c>
       <c r="E227" t="n">
-        <v>18.88007101118082</v>
+        <v>18.20226424193546</v>
       </c>
       <c r="F227" t="n">
-        <v>0.1771601520903532</v>
+        <v>0.1690974134614498</v>
       </c>
       <c r="G227" t="n">
-        <v>6080.014533494271</v>
+        <v>6031.30728949427</v>
       </c>
       <c r="H227" t="n">
-        <v>2.93914335995688</v>
+        <v>1.8040821221542</v>
       </c>
     </row>
     <row r="228">
@@ -6810,25 +6810,25 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>4.29534441032285</v>
+        <v>4.295723384562345</v>
       </c>
       <c r="C228" t="n">
-        <v>0.04810181686202635</v>
+        <v>0.07423797590801874</v>
       </c>
       <c r="D228" t="n">
-        <v>1.833911011889749</v>
+        <v>1.695913785498094</v>
       </c>
       <c r="E228" t="n">
-        <v>18.85285306918144</v>
+        <v>16.66303902632936</v>
       </c>
       <c r="F228" t="n">
-        <v>0.1766936852722149</v>
+        <v>0.1703452022848596</v>
       </c>
       <c r="G228" t="n">
-        <v>6069.859840121221</v>
+        <v>5972.352017514979</v>
       </c>
       <c r="H228" t="n">
-        <v>2.98950697839387</v>
+        <v>2.59895646476449</v>
       </c>
     </row>
     <row r="229">
@@ -6838,25 +6838,25 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>4.296376396420111</v>
+        <v>3.95190013178468</v>
       </c>
       <c r="C229" t="n">
-        <v>0.04777507741870168</v>
+        <v>0.06211707585197981</v>
       </c>
       <c r="D229" t="n">
-        <v>1.849551333904213</v>
+        <v>1.722677599024059</v>
       </c>
       <c r="E229" t="n">
-        <v>18.8551745224574</v>
+        <v>16.18001857593933</v>
       </c>
       <c r="F229" t="n">
-        <v>0.1768213389606107</v>
+        <v>0.175821846996352</v>
       </c>
       <c r="G229" t="n">
-        <v>6074.294455752423</v>
+        <v>5963.53360059193</v>
       </c>
       <c r="H229" t="n">
-        <v>3.09757717221388</v>
+        <v>3.60877431569219</v>
       </c>
     </row>
     <row r="230">
@@ -6866,25 +6866,25 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>4.300124355198288</v>
+        <v>3.935701441741799</v>
       </c>
       <c r="C230" t="n">
-        <v>0.04769699357849465</v>
+        <v>0.06643517424725046</v>
       </c>
       <c r="D230" t="n">
-        <v>1.885934920383366</v>
+        <v>1.796889076318724</v>
       </c>
       <c r="E230" t="n">
-        <v>18.87653402179976</v>
+        <v>16.41272602804131</v>
       </c>
       <c r="F230" t="n">
-        <v>0.1772424151229736</v>
+        <v>0.1779545549861433</v>
       </c>
       <c r="G230" t="n">
-        <v>6086.507598244555</v>
+        <v>5987.752836647317</v>
       </c>
       <c r="H230" t="n">
-        <v>3.28306864085883</v>
+        <v>3.78193610672519</v>
       </c>
     </row>
     <row r="231">
@@ -6894,25 +6894,25 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>4.2979778803931</v>
+        <v>4.067536105736329</v>
       </c>
       <c r="C231" t="n">
-        <v>0.0478547599899829</v>
+        <v>0.07093794950812608</v>
       </c>
       <c r="D231" t="n">
-        <v>1.85930662238528</v>
+        <v>1.739120764303251</v>
       </c>
       <c r="E231" t="n">
-        <v>18.85466282510824</v>
+        <v>15.69241922443755</v>
       </c>
       <c r="F231" t="n">
-        <v>0.1769633126360958</v>
+        <v>0.1779107103120308</v>
       </c>
       <c r="G231" t="n">
-        <v>6076.478827585989</v>
+        <v>5952.348071491422</v>
       </c>
       <c r="H231" t="n">
-        <v>3.21786625727567</v>
+        <v>3.75026574173757</v>
       </c>
     </row>
     <row r="232">
@@ -6922,25 +6922,25 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>4.297283006427855</v>
+        <v>3.985543716030314</v>
       </c>
       <c r="C232" t="n">
-        <v>0.04780954335565154</v>
+        <v>0.06768297701600132</v>
       </c>
       <c r="D232" t="n">
-        <v>1.85665659934521</v>
+        <v>1.734226516435616</v>
       </c>
       <c r="E232" t="n">
-        <v>18.85388558058481</v>
+        <v>15.74640513282826</v>
       </c>
       <c r="F232" t="n">
-        <v>0.1769477968386685</v>
+        <v>0.1779513755332845</v>
       </c>
       <c r="G232" t="n">
-        <v>6075.717887652766</v>
+        <v>5952.967764592863</v>
       </c>
       <c r="H232" t="n">
-        <v>3.19698696078938</v>
+        <v>3.836922869848</v>
       </c>
     </row>
     <row r="233">
@@ -6950,25 +6950,25 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>4.305752753064617</v>
+        <v>4.559141356599235</v>
       </c>
       <c r="C233" t="n">
-        <v>0.04815954927448937</v>
+        <v>0.1136146002264382</v>
       </c>
       <c r="D233" t="n">
-        <v>1.888442135798829</v>
+        <v>1.822354388912678</v>
       </c>
       <c r="E233" t="n">
-        <v>18.91521103438811</v>
+        <v>20.20105625183219</v>
       </c>
       <c r="F233" t="n">
-        <v>0.1775579095646437</v>
+        <v>0.1626958355070403</v>
       </c>
       <c r="G233" t="n">
-        <v>6095.926483274893</v>
+        <v>6119.745978731793</v>
       </c>
       <c r="H233" t="n">
-        <v>2.83704090874599</v>
+        <v>0.52416785858226</v>
       </c>
     </row>
     <row r="234">
@@ -6978,25 +6978,25 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>4.310245796975229</v>
+        <v>5.035367156365554</v>
       </c>
       <c r="C234" t="n">
-        <v>0.04801128440628253</v>
+        <v>0.08571314223528817</v>
       </c>
       <c r="D234" t="n">
-        <v>1.904518411940301</v>
+        <v>1.84427448686739</v>
       </c>
       <c r="E234" t="n">
-        <v>18.89786737510415</v>
+        <v>17.73067870316931</v>
       </c>
       <c r="F234" t="n">
-        <v>0.1774257821056507</v>
+        <v>0.1717494618208799</v>
       </c>
       <c r="G234" t="n">
-        <v>6094.883263089139</v>
+        <v>6043.421954437328</v>
       </c>
       <c r="H234" t="n">
-        <v>3.06613026798509</v>
+        <v>1.85799615577967</v>
       </c>
     </row>
     <row r="235">
@@ -7006,25 +7006,25 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>4.307826637770173</v>
+        <v>4.334893679394768</v>
       </c>
       <c r="C235" t="n">
-        <v>0.04766602664215489</v>
+        <v>0.06810893501405729</v>
       </c>
       <c r="D235" t="n">
-        <v>1.920312875369557</v>
+        <v>1.871850468265062</v>
       </c>
       <c r="E235" t="n">
-        <v>18.89218647224985</v>
+        <v>16.23022989348972</v>
       </c>
       <c r="F235" t="n">
-        <v>0.1776599378835181</v>
+        <v>0.1833825241565347</v>
       </c>
       <c r="G235" t="n">
-        <v>6095.590666423993</v>
+        <v>5997.221053474605</v>
       </c>
       <c r="H235" t="n">
-        <v>3.34070013017641</v>
+        <v>4.04505681538613</v>
       </c>
     </row>
     <row r="236">
@@ -7034,25 +7034,25 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>4.31140084619168</v>
+        <v>5.176148597195992</v>
       </c>
       <c r="C236" t="n">
-        <v>0.0481581627634147</v>
+        <v>0.1048926670620395</v>
       </c>
       <c r="D236" t="n">
-        <v>1.902137603210266</v>
+        <v>1.84402357348283</v>
       </c>
       <c r="E236" t="n">
-        <v>18.905397416849</v>
+        <v>18.66044714993285</v>
       </c>
       <c r="F236" t="n">
-        <v>0.1775821772684132</v>
+        <v>0.1672376540840863</v>
       </c>
       <c r="G236" t="n">
-        <v>6096.350409602286</v>
+        <v>6074.995471512899</v>
       </c>
       <c r="H236" t="n">
-        <v>2.94553880055925</v>
+        <v>0.891707370777831</v>
       </c>
     </row>
     <row r="237">
@@ -7062,25 +7062,25 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>4.31338270505072</v>
+        <v>5.154729331847271</v>
       </c>
       <c r="C237" t="n">
-        <v>0.04790159224248834</v>
+        <v>0.0802447940799651</v>
       </c>
       <c r="D237" t="n">
-        <v>1.920426691374633</v>
+        <v>1.874220046260394</v>
       </c>
       <c r="E237" t="n">
-        <v>18.89497496732605</v>
+        <v>16.57999275518166</v>
       </c>
       <c r="F237" t="n">
-        <v>0.1776408617122155</v>
+        <v>0.181705267909291</v>
       </c>
       <c r="G237" t="n">
-        <v>6096.494154335726</v>
+        <v>6011.113102554752</v>
       </c>
       <c r="H237" t="n">
-        <v>3.17869939965917</v>
+        <v>2.82064734277653</v>
       </c>
     </row>
     <row r="238">
@@ -7090,25 +7090,25 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>4.309640722153427</v>
+        <v>4.517732241909939</v>
       </c>
       <c r="C238" t="n">
-        <v>0.04769435422537226</v>
+        <v>0.06979282324681919</v>
       </c>
       <c r="D238" t="n">
-        <v>1.926984692071459</v>
+        <v>1.888410678230019</v>
       </c>
       <c r="E238" t="n">
-        <v>18.89701551546828</v>
+        <v>16.40217302636923</v>
       </c>
       <c r="F238" t="n">
-        <v>0.1777391142696476</v>
+        <v>0.1838145485510052</v>
       </c>
       <c r="G238" t="n">
-        <v>6097.674163469081</v>
+        <v>6006.679449259116</v>
       </c>
       <c r="H238" t="n">
-        <v>3.32069752724912</v>
+        <v>3.8285956891837</v>
       </c>
     </row>
     <row r="239">
@@ -7118,25 +7118,25 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>4.311720443034865</v>
+        <v>4.971740847470683</v>
       </c>
       <c r="C239" t="n">
-        <v>0.04787161306325939</v>
+        <v>0.0804399986958443</v>
       </c>
       <c r="D239" t="n">
-        <v>1.927858980160149</v>
+        <v>1.897949274559673</v>
       </c>
       <c r="E239" t="n">
-        <v>18.90877681201313</v>
+        <v>17.75248240850835</v>
       </c>
       <c r="F239" t="n">
-        <v>0.1776938104238089</v>
+        <v>0.1766810129118134</v>
       </c>
       <c r="G239" t="n">
-        <v>6100.965566770245</v>
+        <v>6056.303683724241</v>
       </c>
       <c r="H239" t="n">
-        <v>3.16298992129939</v>
+        <v>2.22947696516166</v>
       </c>
     </row>
     <row r="240">
@@ -7146,25 +7146,25 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>4.314693840637392</v>
+        <v>5.201772014993272</v>
       </c>
       <c r="C240" t="n">
-        <v>0.04785425886264794</v>
+        <v>0.08298995114445998</v>
       </c>
       <c r="D240" t="n">
-        <v>1.947332549196858</v>
+        <v>1.94579473103461</v>
       </c>
       <c r="E240" t="n">
-        <v>18.91820881288347</v>
+        <v>17.82490064879904</v>
       </c>
       <c r="F240" t="n">
-        <v>0.1778933888121746</v>
+        <v>0.1788792966235685</v>
       </c>
       <c r="G240" t="n">
-        <v>6105.697722631567</v>
+        <v>6069.363190914613</v>
       </c>
       <c r="H240" t="n">
-        <v>3.1880867222651</v>
+        <v>2.06654582835137</v>
       </c>
     </row>
     <row r="241">
@@ -7174,25 +7174,25 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>4.311239309550562</v>
+        <v>4.855694989696198</v>
       </c>
       <c r="C241" t="n">
-        <v>0.04782284840930895</v>
+        <v>0.07607594690886281</v>
       </c>
       <c r="D241" t="n">
-        <v>1.923328642615768</v>
+        <v>1.882638103491725</v>
       </c>
       <c r="E241" t="n">
-        <v>18.8993702753457</v>
+        <v>16.90168738183536</v>
       </c>
       <c r="F241" t="n">
-        <v>0.177657227966605</v>
+        <v>0.1803088699266824</v>
       </c>
       <c r="G241" t="n">
-        <v>6097.922117028903</v>
+        <v>6023.349574294807</v>
       </c>
       <c r="H241" t="n">
-        <v>3.22050610027515</v>
+        <v>3.01892800843333</v>
       </c>
     </row>
     <row r="242">
@@ -7202,25 +7202,25 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>4.314962506594144</v>
+        <v>5.47041578649975</v>
       </c>
       <c r="C242" t="n">
-        <v>0.04819050548604313</v>
+        <v>0.1236468156132957</v>
       </c>
       <c r="D242" t="n">
-        <v>1.915151920543195</v>
+        <v>1.87345788677043</v>
       </c>
       <c r="E242" t="n">
-        <v>18.9107074437395</v>
+        <v>18.6571256757717</v>
       </c>
       <c r="F242" t="n">
-        <v>0.177733645071374</v>
+        <v>0.1686487356773799</v>
       </c>
       <c r="G242" t="n">
-        <v>6099.861130470671</v>
+        <v>6083.163445471489</v>
       </c>
       <c r="H242" t="n">
-        <v>2.93917061071266</v>
+        <v>0.671687410644624</v>
       </c>
     </row>
     <row r="243">
@@ -7230,25 +7230,25 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>4.314737103045022</v>
+        <v>5.318504206614276</v>
       </c>
       <c r="C243" t="n">
-        <v>0.04792264224301084</v>
+        <v>0.081282965911337</v>
       </c>
       <c r="D243" t="n">
-        <v>1.921622539188778</v>
+        <v>1.876463337287158</v>
       </c>
       <c r="E243" t="n">
-        <v>18.89453996944417</v>
+        <v>16.46680593063089</v>
       </c>
       <c r="F243" t="n">
-        <v>0.1776955389887069</v>
+        <v>0.1834621807173064</v>
       </c>
       <c r="G243" t="n">
-        <v>6096.571740679567</v>
+        <v>6008.241174453736</v>
       </c>
       <c r="H243" t="n">
-        <v>3.15721713816401</v>
+        <v>2.69224551688344</v>
       </c>
     </row>
     <row r="244">
@@ -7258,25 +7258,25 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>4.305872208497004</v>
+        <v>4.527642587634059</v>
       </c>
       <c r="C244" t="n">
-        <v>0.04785912384367855</v>
+        <v>0.07332780406196851</v>
       </c>
       <c r="D244" t="n">
-        <v>1.886229051018605</v>
+        <v>1.795448309149778</v>
       </c>
       <c r="E244" t="n">
-        <v>18.87198506550151</v>
+        <v>15.98270644075525</v>
       </c>
       <c r="F244" t="n">
-        <v>0.177305028009238</v>
+        <v>0.1809130443014859</v>
       </c>
       <c r="G244" t="n">
-        <v>6085.691820113887</v>
+        <v>5974.60900342989</v>
       </c>
       <c r="H244" t="n">
-        <v>3.19868408574845</v>
+        <v>3.56081355161768</v>
       </c>
     </row>
     <row r="245">
@@ -7286,25 +7286,25 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>4.309293712791911</v>
+        <v>4.62652253104033</v>
       </c>
       <c r="C245" t="n">
-        <v>0.04777602123585198</v>
+        <v>0.0727146905996558</v>
       </c>
       <c r="D245" t="n">
-        <v>1.916187713088874</v>
+        <v>1.864336960370141</v>
       </c>
       <c r="E245" t="n">
-        <v>18.89303406066734</v>
+        <v>16.57466990906897</v>
       </c>
       <c r="F245" t="n">
-        <v>0.177606851475489</v>
+        <v>0.1815007073130282</v>
       </c>
       <c r="G245" t="n">
-        <v>6095.352856951237</v>
+        <v>6008.259512854791</v>
       </c>
       <c r="H245" t="n">
-        <v>3.25230655598998</v>
+        <v>3.45058058842</v>
       </c>
     </row>
     <row r="246">
@@ -7314,25 +7314,25 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>4.310223869859327</v>
+        <v>5.582735125590333</v>
       </c>
       <c r="C246" t="n">
-        <v>0.0492959471931932</v>
+        <v>0.274164691307494</v>
       </c>
       <c r="D246" t="n">
-        <v>1.819421757613953</v>
+        <v>1.677579111153751</v>
       </c>
       <c r="E246" t="n">
-        <v>18.86396978079647</v>
+        <v>18.14442353806831</v>
       </c>
       <c r="F246" t="n">
-        <v>0.1768524353265692</v>
+        <v>0.1584859446514802</v>
       </c>
       <c r="G246" t="n">
-        <v>6068.019888912952</v>
+        <v>6014.584794368655</v>
       </c>
       <c r="H246" t="n">
-        <v>2.5192502841057</v>
+        <v>0.269070788610249</v>
       </c>
     </row>
     <row r="247">
@@ -7342,25 +7342,25 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>175.6726377010345</v>
+        <v>376.656729221344</v>
       </c>
       <c r="C247" t="n">
-        <v>175.6726377010345</v>
+        <v>376.656729221344</v>
       </c>
       <c r="D247" t="n">
-        <v>175.6726377010345</v>
+        <v>376.656729221344</v>
       </c>
       <c r="E247" t="n">
-        <v>175.6726377010345</v>
+        <v>376.656729221344</v>
       </c>
       <c r="F247" t="n">
-        <v>175.6726377010345</v>
+        <v>376.656729221344</v>
       </c>
       <c r="G247" t="n">
-        <v>175.6726377010345</v>
+        <v>376.656729221344</v>
       </c>
       <c r="H247" t="n">
-        <v>175.6726377010345</v>
+        <v>376.656729221344</v>
       </c>
     </row>
   </sheetData>
